--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\llin\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ftsang\Documents\GitHub\travel-model-one-master\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4095D7B-8C91-4BA4-A21F-FBA27C87C5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21E8AEC-E809-448F-9D83-16BDC32C01B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17880" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="70" yWindow="1140" windowWidth="22490" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_runs" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
   <si>
     <t>category</t>
   </si>
@@ -68,9 +68,6 @@
     <t>2015_TM152_IPA_17</t>
   </si>
   <si>
-    <t>"census_petrale"</t>
-  </si>
-  <si>
     <t>na</t>
   </si>
   <si>
@@ -123,6 +120,54 @@
   </si>
   <si>
     <t>https://app.asana.com/0/0/1206123647391998/f</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP03_Path1_01</t>
+  </si>
+  <si>
+    <t>P1_AllLaneTolling</t>
+  </si>
+  <si>
+    <t>R2_ALT</t>
+  </si>
+  <si>
+    <t>NGF_Networks_NGFround2_P1_01</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>P1 initial run -  carpool and tolls.csv fixes</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP04_Path1_01</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP04_Path1_02</t>
+  </si>
+  <si>
+    <t>P1 initial run -  tolls not in 2000$</t>
+  </si>
+  <si>
+    <t>P1 initial run -  complete street fixes</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP04_Path1_02_MinTollOff</t>
+  </si>
+  <si>
+    <t>P1 initial run -  test with min toll turned off</t>
+  </si>
+  <si>
+    <t>https://app.asana.com/0/1203644633064654/1207102772074759/f</t>
+  </si>
+  <si>
+    <t>https://app.asana.com/0/1203644633064654/1207177908266953/f</t>
+  </si>
+  <si>
+    <t>https://app.asana.com/0/1203644633064654/1206539107762749/f</t>
+  </si>
+  <si>
+    <t>https://app.asana.com/0/1201809392759895/1207151709274835/f</t>
   </si>
 </sst>
 </file>
@@ -294,9 +339,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -334,7 +379,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -440,7 +485,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -582,7 +627,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -590,11 +635,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -617,7 +662,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
@@ -626,16 +671,16 @@
         <v>0</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>7</v>
@@ -658,10 +703,10 @@
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -669,77 +714,207 @@
         <v>10</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="8">
         <v>2035</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>21</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="J3" s="9" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="8">
         <v>2035</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>26</v>
-      </c>
       <c r="F4" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="10">
+        <v>2035</v>
+      </c>
+      <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>11</v>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="10">
+        <v>2035</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="10">
+        <v>2035</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="10">
+        <v>2035</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ftsang\Documents\GitHub\travel-model-one-master\utilities\NextGenFwys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalatorre\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21E8AEC-E809-448F-9D83-16BDC32C01B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970216B9-260F-4835-9295-1385930D4A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="70" yWindow="1140" windowWidth="22490" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26925" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_runs" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="70">
   <si>
     <t>category</t>
   </si>
@@ -168,13 +168,91 @@
   </si>
   <si>
     <t>https://app.asana.com/0/1201809392759895/1207151709274835/f</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGF_r2_NoProject_01</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGF_r2_NoProject_01_AOCx1.25_v2</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGF_r2_NoProject_03_pretollcalib</t>
+  </si>
+  <si>
+    <t>2035_TM152_NGF_NP10_Path1a_02</t>
+  </si>
+  <si>
+    <t>NGF</t>
+  </si>
+  <si>
+    <t>Pathway 1a</t>
+  </si>
+  <si>
+    <t>Pathway 1a - All Lane Tolling + Transit Double Down</t>
+  </si>
+  <si>
+    <t>NGF_Networks_P1a_AllLaneTolling_ImproveTransit_09</t>
+  </si>
+  <si>
+    <t>Rerun Pathway 1a with new network</t>
+  </si>
+  <si>
+    <t>"Final Blueprint runs\Final Blueprint (s24)\BAUS v2.25 - FINAL VERSION"</t>
+  </si>
+  <si>
+    <t>run182</t>
+  </si>
+  <si>
+    <t>2035_TM152_NGF_NP10_Path1b_02</t>
+  </si>
+  <si>
+    <t>Pathway 1b</t>
+  </si>
+  <si>
+    <t>Pathway 1b - All Lane Tolling + Affordable</t>
+  </si>
+  <si>
+    <t>NGF_Networks_P1b_AllLaneTolling_Affordable_04</t>
+  </si>
+  <si>
+    <t>Rerun Pathway 1b with new network</t>
+  </si>
+  <si>
+    <t>2035_TM152_NGF_NP10_Path1x_01</t>
+  </si>
+  <si>
+    <t>Pathway 1x</t>
+  </si>
+  <si>
+    <t>Pathway 1x - All-lane tolling pricing strategy only</t>
+  </si>
+  <si>
+    <t>NGF_Network_P1x_AllLaneTolling_PricingOnly_01</t>
+  </si>
+  <si>
+    <t>https://app.asana.com/0/1201809392759895/1205309291141002/f</t>
+  </si>
+  <si>
+    <t>2035_TM152_NGF_NP10_Path4_02</t>
+  </si>
+  <si>
+    <t>Pathway 4</t>
+  </si>
+  <si>
+    <t>Pathway 4 - No New Pricing</t>
+  </si>
+  <si>
+    <t>NGF_Networks_P4_NoNewPricing_03</t>
+  </si>
+  <si>
+    <t>Rerun Pathway 4 with new network</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -228,8 +306,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,6 +333,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -258,13 +361,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -284,8 +388,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="4" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{564E6A42-6173-40A4-9CC8-4130B69477E9}"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{CC352229-7B38-4835-9297-CE7CE23BF08B}"/>
@@ -635,11 +759,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -647,9 +771,10 @@
     <col min="1" max="1" width="12.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
     <col min="4" max="4" width="13.09765625" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="5" max="5" width="22.8984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.296875" customWidth="1"/>
     <col min="8" max="8" width="47.3984375" customWidth="1"/>
+    <col min="9" max="9" width="59.69921875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.69921875" customWidth="1"/>
     <col min="11" max="11" width="15" style="10" customWidth="1"/>
   </cols>
@@ -901,6 +1026,9 @@
       <c r="F8" t="s">
         <v>39</v>
       </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
       <c r="H8" t="s">
         <v>31</v>
       </c>
@@ -914,9 +1042,203 @@
         <v>10</v>
       </c>
     </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2035</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="10">
+        <v>2035</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="10">
+        <v>2035</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="12">
+        <v>2035</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="20">
+        <v>2035</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12">
+        <v>2035</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I14" r:id="rId1" xr:uid="{2F5DF9E8-6F7C-49D0-A88D-920944076562}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalatorre\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\travel-model-one-master\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970216B9-260F-4835-9295-1385930D4A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08D9498-7070-4276-B1AF-E342D2849CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26925" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="71">
   <si>
     <t>category</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>Rerun Pathway 4 with new network</t>
+  </si>
+  <si>
+    <t>NoProject</t>
   </si>
 </sst>
 </file>
@@ -763,7 +766,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1055,6 +1058,9 @@
       <c r="D9" t="s">
         <v>19</v>
       </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
       <c r="G9" t="s">
         <v>32</v>
       </c>
@@ -1072,6 +1078,9 @@
       <c r="D10" t="s">
         <v>19</v>
       </c>
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
       <c r="G10" t="s">
         <v>32</v>
       </c>
@@ -1088,6 +1097,9 @@
       </c>
       <c r="D11" t="s">
         <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>70</v>
       </c>
       <c r="G11" t="s">
         <v>32</v>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\travel-model-one-master\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08D9498-7070-4276-B1AF-E342D2849CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E5A54C-B021-492B-B3B4-6944FD21BDC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26925" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7380" yWindow="3390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_runs" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="72">
   <si>
     <t>category</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>NoProject</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP04_Path1_02_TollCapOff</t>
   </si>
 </sst>
 </file>
@@ -762,27 +765,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="13.09765625" customWidth="1"/>
-    <col min="5" max="5" width="22.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.296875" customWidth="1"/>
-    <col min="8" max="8" width="47.3984375" customWidth="1"/>
-    <col min="9" max="9" width="59.69921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.69921875" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.28515625" customWidth="1"/>
+    <col min="8" max="8" width="47.42578125" customWidth="1"/>
+    <col min="9" max="9" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.7109375" customWidth="1"/>
     <col min="11" max="11" width="15" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -817,7 +820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -845,7 +848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
@@ -878,7 +881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
@@ -911,161 +914,179 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="10">
-        <v>2035</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="12">
+        <v>2035</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="20">
+        <v>2035</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="12">
+        <v>2035</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2035</v>
+      </c>
+      <c r="C9" t="s">
         <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="10">
-        <v>2035</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="10">
-        <v>2035</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="10">
-        <v>2035</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="10">
-        <v>2035</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1073,19 +1094,31 @@
         <v>2035</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1093,162 +1126,155 @@
         <v>2035</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
         <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
       </c>
       <c r="G11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="12">
-        <v>2035</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="13" t="s">
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="10">
+        <v>2035</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="16">
-        <v>2035</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="17" t="s">
+      <c r="H12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="10">
+        <v>2035</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="20">
-        <v>2035</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="22" t="s">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <v>2035</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="K14" s="22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="12">
-        <v>2035</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="13" t="s">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="10">
+        <v>2035</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>54</v>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="10">
+        <v>2035</v>
+      </c>
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I14" r:id="rId1" xr:uid="{2F5DF9E8-6F7C-49D0-A88D-920944076562}"/>
+    <hyperlink ref="I7" r:id="rId1" xr:uid="{2F5DF9E8-6F7C-49D0-A88D-920944076562}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\travel-model-one-master\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E5A54C-B021-492B-B3B4-6944FD21BDC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941A2FE3-863B-4191-9B2C-6A03974FC13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="3390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_runs" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="81">
   <si>
     <t>category</t>
   </si>
@@ -252,13 +252,40 @@
   </si>
   <si>
     <t>2035_TM160_NGFr2_NP04_Path1_02_TollCapOff</t>
+  </si>
+  <si>
+    <t>https://app.asana.com/0/1201809392759895/1207448600720614/f</t>
+  </si>
+  <si>
+    <t>https://app.asana.com/0/1203644633064654/1206322696359481/f</t>
+  </si>
+  <si>
+    <t>NP initial run</t>
+  </si>
+  <si>
+    <t>P1 initial run - with toll caps turned off</t>
+  </si>
+  <si>
+    <t>https://app.asana.com/0/0/1206447559952578/f</t>
+  </si>
+  <si>
+    <t>NP initial run - with 25% increase in AOC</t>
+  </si>
+  <si>
+    <t>NGF_Networks_NGFround2NoProject_02</t>
+  </si>
+  <si>
+    <t>NP initial run - with minimum tolls</t>
+  </si>
+  <si>
+    <t>https://app.asana.com/0/1203644633064654/1206587196343092/f</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -319,6 +346,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -374,7 +407,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -413,6 +446,11 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -769,7 +807,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1178,7 +1216,7 @@
       <c r="H12" t="s">
         <v>31</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="24" t="s">
         <v>43</v>
       </c>
       <c r="J12" t="s">
@@ -1189,94 +1227,124 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="26">
         <v>2035</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="G13" t="s">
+      <c r="F13" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="25" t="s">
         <v>32</v>
       </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="26">
         <v>2035</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="G14" t="s">
+      <c r="F14" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="25" t="s">
         <v>32</v>
       </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="26">
         <v>2035</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="G15" t="s">
+      <c r="F15" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="25" t="s">
         <v>32</v>
       </c>
+      <c r="H15" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="26">
         <v>2035</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="G16" t="s">
+      <c r="F16" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="25" t="s">
         <v>31</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I7" r:id="rId1" xr:uid="{2F5DF9E8-6F7C-49D0-A88D-920944076562}"/>
+    <hyperlink ref="I12" r:id="rId2" xr:uid="{088533EE-4DDB-4145-8A51-9A459A5B0EE7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\travel-model-one-master\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941A2FE3-863B-4191-9B2C-6A03974FC13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DA792D-400B-4103-9C06-6AF838706AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_runs" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="85">
   <si>
     <t>category</t>
   </si>
@@ -279,6 +279,18 @@
   </si>
   <si>
     <t>https://app.asana.com/0/1203644633064654/1206587196343092/f</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP04_Path4_01_pretollcalib</t>
+  </si>
+  <si>
+    <t>https://app.asana.com/0/1203644633064654/1206331761624591/f</t>
+  </si>
+  <si>
+    <t>P4 initial run</t>
+  </si>
+  <si>
+    <t>P4_ExpressLanesPBA2050scope</t>
   </si>
 </sst>
 </file>
@@ -803,27 +815,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.28515625" customWidth="1"/>
-    <col min="8" max="8" width="47.42578125" customWidth="1"/>
-    <col min="9" max="9" width="59.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.09765625" customWidth="1"/>
+    <col min="5" max="5" width="22.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.296875" customWidth="1"/>
+    <col min="8" max="8" width="47.3984375" customWidth="1"/>
+    <col min="9" max="9" width="59.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.69921875" customWidth="1"/>
     <col min="11" max="11" width="15" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,7 +870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -886,7 +898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
@@ -919,7 +931,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
@@ -952,7 +964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>13</v>
       </c>
@@ -987,7 +999,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>13</v>
       </c>
@@ -1022,7 +1034,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>13</v>
       </c>
@@ -1057,7 +1069,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>13</v>
       </c>
@@ -1092,7 +1104,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1124,7 +1136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1156,7 +1168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1191,7 +1203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1226,7 +1238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>13</v>
       </c>
@@ -1253,7 +1265,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>13</v>
       </c>
@@ -1280,7 +1292,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>13</v>
       </c>
@@ -1309,7 +1321,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>13</v>
       </c>
@@ -1336,6 +1348,32 @@
       </c>
       <c r="I16" s="25" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="26">
+        <v>2035</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\travel-model-one-master\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DA792D-400B-4103-9C06-6AF838706AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B7D8AA-4EAA-4124-B903-D78AD958465C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="all_runs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_runs!$A$1:$K$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_runs!$A$1:$K$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="118">
   <si>
     <t>category</t>
   </si>
@@ -107,9 +107,6 @@
     <t>https://app.asana.com/0/0/1206123647391996/f</t>
   </si>
   <si>
-    <t>NGFr1</t>
-  </si>
-  <si>
     <t>2035_TM160_IPA_12_NGFr1_AllLanePlusTransit</t>
   </si>
   <si>
@@ -287,10 +284,112 @@
     <t>https://app.asana.com/0/1203644633064654/1206331761624591/f</t>
   </si>
   <si>
-    <t>P4 initial run</t>
-  </si>
-  <si>
-    <t>P4_ExpressLanesPBA2050scope</t>
+    <t>NGF_Networks_NGFround2_P4_05</t>
+  </si>
+  <si>
+    <t>P4 pre-toll-calibration run</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP04_Path4_01_tollcalib</t>
+  </si>
+  <si>
+    <t>P4 toll-calibration run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">switched from P4_05 to P4_09 </t>
+  </si>
+  <si>
+    <t>https://app.asana.com/0/1203644633064654/1207634839784418/f</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP04_Path5_01_tollcalib</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP04_Path5_01_pretollcalib</t>
+  </si>
+  <si>
+    <t>test run</t>
+  </si>
+  <si>
+    <t>P4_EL_PBA2050scope</t>
+  </si>
+  <si>
+    <t>P5_EL_ConversionOnly</t>
+  </si>
+  <si>
+    <t>P5 pre-toll-calibration run</t>
+  </si>
+  <si>
+    <t>P5 toll-calibration run</t>
+  </si>
+  <si>
+    <t>NGF_Networks_NGFround2_P5_06</t>
+  </si>
+  <si>
+    <t>switched from P5_06 to P5_07</t>
+  </si>
+  <si>
+    <t>https://app.asana.com/0/1203644633064654/1207636036519621/f</t>
+  </si>
+  <si>
+    <t>https://app.asana.com/0/1203644633064654/1207634839784425/f</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP04_Path6_01_pretollcalib</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP04_Path6_01_tollcalib</t>
+  </si>
+  <si>
+    <t>NGF_Networks_NGFround2_P6_11</t>
+  </si>
+  <si>
+    <t>P6 pre-toll-calibration run</t>
+  </si>
+  <si>
+    <t>P6 toll-calibration run</t>
+  </si>
+  <si>
+    <t>P6_EL_DoubleEL</t>
+  </si>
+  <si>
+    <t>switched from P6_11 to P6_13</t>
+  </si>
+  <si>
+    <t>https://app.asana.com/0/1203644633064654/1207636142960875/f</t>
+  </si>
+  <si>
+    <t>https://app.asana.com/0/1203644633064654/1207636140784061/f</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGF_r2_NoProject_04_pretollcalib</t>
+  </si>
+  <si>
+    <t>NGF_Networks_NGFround2NoProject_04</t>
+  </si>
+  <si>
+    <t>https://app.asana.com/0/1203644633064654/1207517063879018/f</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGF_r2_NoProject_04_tollcalib</t>
+  </si>
+  <si>
+    <t>NP pre-toll-calib run - with minimum tolls &amp; updated AOC</t>
+  </si>
+  <si>
+    <t>NP toll calib run</t>
+  </si>
+  <si>
+    <t>https://app.asana.com/0/1203644633064654/1207517063879014/f</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGF_r2_NoProject_04</t>
+  </si>
+  <si>
+    <t>NP post-toll-calib run</t>
+  </si>
+  <si>
+    <t>https://app.asana.com/0/1203644633064654/1206322696359485/f</t>
   </si>
 </sst>
 </file>
@@ -360,7 +459,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -374,31 +472,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,7 +517,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -427,41 +525,69 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -815,24 +941,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.3984375" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
     <col min="4" max="4" width="13.09765625" customWidth="1"/>
     <col min="5" max="5" width="22.8984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.296875" customWidth="1"/>
     <col min="8" max="8" width="47.3984375" customWidth="1"/>
     <col min="9" max="9" width="59.69921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.69921875" customWidth="1"/>
-    <col min="11" max="11" width="15" style="10" customWidth="1"/>
+    <col min="10" max="10" width="43.69921875" style="14" customWidth="1"/>
+    <col min="11" max="11" width="15" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -863,526 +989,802 @@
       <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="20">
         <v>2015</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="J2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="8">
-        <v>2035</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="J2" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="20">
+        <v>2035</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="20">
+        <v>2035</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="24">
+        <v>2035</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="20">
+        <v>2035</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="20">
+        <v>2035</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="D7" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="20">
+        <v>2035</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="8">
-        <v>2035</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="D8" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="G8" s="21"/>
+      <c r="H8" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9" t="s">
+      <c r="I8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J8" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2035</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="12">
-        <v>2035</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="13" t="s">
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="6">
+        <v>2035</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="16">
-        <v>2035</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="20">
-        <v>2035</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="12">
-        <v>2035</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" s="14" t="s">
+      <c r="H10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="6">
+        <v>2035</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="6">
+        <v>2035</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="10">
+        <v>2035</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="10">
-        <v>2035</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="10">
-        <v>2035</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="F14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="10">
-        <v>2035</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="I14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="10">
-        <v>2035</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="J12" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="26">
-        <v>2035</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="26">
-        <v>2035</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="26">
-        <v>2035</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="I15" s="25" t="s">
+      <c r="H19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="26">
-        <v>2035</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="26">
-        <v>2035</v>
-      </c>
-      <c r="C17" s="25" t="s">
+      <c r="D20" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="25" t="s">
+      <c r="J20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>82</v>
+      <c r="D21" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="28">
+        <v>2035</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="I22" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="J22" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="28">
+        <v>2035</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="J23" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="32">
+        <v>2035</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="I24" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="J24" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="32">
+        <v>2035</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="I25" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="J25" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="34" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I7" r:id="rId1" xr:uid="{2F5DF9E8-6F7C-49D0-A88D-920944076562}"/>
+    <hyperlink ref="I5" r:id="rId1" xr:uid="{2F5DF9E8-6F7C-49D0-A88D-920944076562}"/>
     <hyperlink ref="I12" r:id="rId2" xr:uid="{088533EE-4DDB-4145-8A51-9A459A5B0EE7}"/>
+    <hyperlink ref="I20" r:id="rId3" xr:uid="{7568B75C-5EC3-4B27-BBC3-154FC1450F6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\travel-model-one-master\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B7D8AA-4EAA-4124-B903-D78AD958465C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413248D5-AA18-4E47-A921-AE397240F822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="121">
   <si>
     <t>category</t>
   </si>
@@ -350,9 +350,6 @@
     <t>P6 toll-calibration run</t>
   </si>
   <si>
-    <t>P6_EL_DoubleEL</t>
-  </si>
-  <si>
     <t>switched from P6_11 to P6_13</t>
   </si>
   <si>
@@ -390,6 +387,18 @@
   </si>
   <si>
     <t>https://app.asana.com/0/1203644633064654/1206322696359485/f</t>
+  </si>
+  <si>
+    <t>P6_EL_DualEL</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP04_Path4_02_pretollcalib</t>
+  </si>
+  <si>
+    <t>NGF_Networks_NGFround2_P4_09</t>
+  </si>
+  <si>
+    <t>https://app.asana.com/0/572982923864207/1207634640713913/f</t>
   </si>
 </sst>
 </file>
@@ -517,7 +526,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -557,22 +566,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -941,11 +946,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -996,237 +1001,237 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="19">
         <v>2015</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="J2" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="20">
-        <v>2035</v>
-      </c>
-      <c r="C3" s="21" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="J2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="19">
+        <v>2035</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="20">
-        <v>2035</v>
-      </c>
-      <c r="C4" s="21" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="19">
+        <v>2035</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="24">
-        <v>2035</v>
-      </c>
-      <c r="C5" s="21" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="23">
+        <v>2035</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" t="s">
         <v>62</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="K5" s="14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="20">
-        <v>2035</v>
-      </c>
-      <c r="C6" s="21" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="19">
+        <v>2035</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="K6" s="21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="20">
-        <v>2035</v>
-      </c>
-      <c r="C7" s="21" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="19">
+        <v>2035</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="21" t="s">
+      <c r="D7" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21" t="s">
+      <c r="G7" s="20"/>
+      <c r="H7" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="20">
-        <v>2035</v>
-      </c>
-      <c r="C8" s="21" t="s">
+      <c r="J7" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="19">
+        <v>2035</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="21" t="s">
+      <c r="D8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21" t="s">
+      <c r="G8" s="20"/>
+      <c r="H8" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="22" t="s">
+      <c r="J8" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1494,7 +1499,7 @@
         <v>2035</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>19</v>
@@ -1503,13 +1508,13 @@
         <v>69</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I17" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="J17" s="13" t="s">
         <v>10</v>
@@ -1526,7 +1531,7 @@
         <v>2035</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>19</v>
@@ -1535,13 +1540,13 @@
         <v>69</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I18" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="J18" s="13" t="s">
         <v>10</v>
@@ -1558,7 +1563,7 @@
         <v>2035</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>19</v>
@@ -1567,16 +1572,16 @@
         <v>69</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J19" s="13" t="s">
         <v>10</v>
@@ -1649,131 +1654,163 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="28">
-        <v>2035</v>
-      </c>
-      <c r="C22" s="29" t="s">
+    <row r="22" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="26">
+        <v>2035</v>
+      </c>
+      <c r="C23" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="27" t="s">
+      <c r="D23" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="27" t="s">
+      <c r="F23" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="H22" s="29" t="s">
+      <c r="H23" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="I22" s="29" t="s">
+      <c r="I23" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="J22" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="K22" s="30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="28">
-        <v>2035</v>
-      </c>
-      <c r="C23" s="29" t="s">
+      <c r="J23" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="26">
+        <v>2035</v>
+      </c>
+      <c r="C24" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="27" t="s">
+      <c r="D24" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F24" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="H23" s="29" t="s">
+      <c r="H24" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="I23" s="29" t="s">
+      <c r="I24" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="J23" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="K23" s="30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="32">
-        <v>2035</v>
-      </c>
-      <c r="C24" s="33" t="s">
+      <c r="J24" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C25" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="D24" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="31" t="s">
+      <c r="D25" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="I25" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="J25" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="F24" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="H24" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="I24" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="J24" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="K24" s="34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="32">
-        <v>2035</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="F25" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="H25" s="33" t="s">
+      <c r="I26" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="I25" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="J25" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="K25" s="34" t="s">
+      <c r="J26" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="32" t="s">
         <v>10</v>
       </c>
     </row>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\travel-model-one-master\utilities\NextGenFwys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalatorre\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413248D5-AA18-4E47-A921-AE397240F822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4282740-934C-49FE-AD21-7D5CFEDDC901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1875" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_runs" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="130">
   <si>
     <t>category</t>
   </si>
@@ -399,6 +399,33 @@
   </si>
   <si>
     <t>https://app.asana.com/0/572982923864207/1207634640713913/f</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP04_Path6_01</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP04_Path4_01</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP04_Path5_01</t>
+  </si>
+  <si>
+    <t>P5 post-toll-calib run</t>
+  </si>
+  <si>
+    <t>https://app.asana.com/0/0/1207636747806737/f</t>
+  </si>
+  <si>
+    <t>P4 post-toll-calib run</t>
+  </si>
+  <si>
+    <t>P6 post-toll-calib run</t>
+  </si>
+  <si>
+    <t>https://app.asana.com/0/0/1207636747806734/f</t>
+  </si>
+  <si>
+    <t>https://app.asana.com/0/0/1207636747806736/f</t>
   </si>
 </sst>
 </file>
@@ -946,11 +973,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1686,35 +1713,35 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="26">
-        <v>2035</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="H23" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="I23" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="J23" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K23" s="28" t="s">
+    <row r="23" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="17" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1726,7 +1753,7 @@
         <v>2035</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D24" s="25" t="s">
         <v>19</v>
@@ -1735,82 +1762,172 @@
         <v>92</v>
       </c>
       <c r="F24" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="I24" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="J24" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="26">
+        <v>2035</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="H24" s="27" t="s">
+      <c r="H25" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="I24" s="27" t="s">
+      <c r="I25" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="J24" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K24" s="28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C25" s="31" t="s">
+      <c r="J25" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="26">
+        <v>2035</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="I26" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="J26" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C27" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="29" t="s">
+      <c r="D27" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="F25" s="29" t="s">
+      <c r="F27" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="H25" s="31" t="s">
+      <c r="H27" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="I25" s="31" t="s">
+      <c r="I27" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="J25" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="K25" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C26" s="31" t="s">
+      <c r="J27" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C28" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="29" t="s">
+      <c r="D28" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="F26" s="29" t="s">
+      <c r="F28" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="H26" s="31" t="s">
+      <c r="H28" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="I26" s="31" t="s">
+      <c r="I28" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="J26" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="K26" s="32" t="s">
+      <c r="J28" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="I29" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="J29" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="32" t="s">
         <v>10</v>
       </c>
     </row>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalatorre\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\travel-model-one-master\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4282740-934C-49FE-AD21-7D5CFEDDC901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E04246-E58A-4972-9BBA-C02FB6399333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1875" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3975" yWindow="1620" windowWidth="24750" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_runs" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="130">
   <si>
     <t>category</t>
   </si>
@@ -977,23 +977,23 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
+      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.3984375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="13.09765625" customWidth="1"/>
-    <col min="5" max="5" width="22.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.296875" customWidth="1"/>
-    <col min="8" max="8" width="47.3984375" customWidth="1"/>
-    <col min="9" max="9" width="59.69921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.69921875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.28515625" customWidth="1"/>
+    <col min="8" max="8" width="47.42578125" customWidth="1"/>
+    <col min="9" max="9" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.7109375" style="14" customWidth="1"/>
     <col min="11" max="11" width="15" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>13</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>13</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>13</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>13</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>13</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>13</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="25" t="s">
         <v>13</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="25" t="s">
         <v>13</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="25" t="s">
         <v>13</v>
       </c>
@@ -1828,6 +1828,9 @@
       <c r="F26" s="25" t="s">
         <v>124</v>
       </c>
+      <c r="G26" s="27" t="s">
+        <v>31</v>
+      </c>
       <c r="I26" s="27" t="s">
         <v>125</v>
       </c>
@@ -1838,7 +1841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="29" t="s">
         <v>13</v>
       </c>
@@ -1870,7 +1873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="29" t="s">
         <v>13</v>
       </c>
@@ -1902,7 +1905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="29" t="s">
         <v>13</v>
       </c>
@@ -1920,6 +1923,9 @@
       </c>
       <c r="F29" s="29" t="s">
         <v>127</v>
+      </c>
+      <c r="G29" s="31" t="s">
+        <v>31</v>
       </c>
       <c r="I29" s="31" t="s">
         <v>128</v>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\travel-model-one-master\utilities\NextGenFwys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalatorre\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E04246-E58A-4972-9BBA-C02FB6399333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD00328-93DB-4DA1-B73C-88192C3F2EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3975" yWindow="1620" windowWidth="24750" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_runs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_runs!$A$1:$K$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_runs!$A$1:$L$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="141">
   <si>
     <t>category</t>
   </si>
@@ -426,6 +426,39 @@
   </si>
   <si>
     <t>https://app.asana.com/0/0/1207636747806736/f</t>
+  </si>
+  <si>
+    <t>path_on_model3-a</t>
+  </si>
+  <si>
+    <t>A:\\Projects\\2035_TM160_NGFr2_NP04_Path1_02</t>
+  </si>
+  <si>
+    <t>A:\\Projects\\2035_TM160_NGFr2_NP04_Path4_01</t>
+  </si>
+  <si>
+    <t>G:\\Projects\\2035_TM160_NGF_r2_NoProject_01</t>
+  </si>
+  <si>
+    <t>B:\\Projects\\2035_TM160_NGF_r2_NoProject_04</t>
+  </si>
+  <si>
+    <t>F:\\Projects\\2035_TM160_NGFr2_NP04_Path5_01</t>
+  </si>
+  <si>
+    <t>H:\\Projects\\2035_TM160_NGFr2_NP04_Path6_01</t>
+  </si>
+  <si>
+    <t>X:\\Projects\\2035_TM152_NGF_NP10_Path1a_02</t>
+  </si>
+  <si>
+    <t>B:\\Projects\\2035_TM152_NGF_NP10_Path1b_02</t>
+  </si>
+  <si>
+    <t>A:\\Projects\\2035_TM152_NGF_NP10_Path1x_01</t>
+  </si>
+  <si>
+    <t>G:\\Projects\\2035_TM152_NGF_NP10_Path4_02</t>
   </si>
 </sst>
 </file>
@@ -973,27 +1006,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.3984375" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.28515625" customWidth="1"/>
-    <col min="8" max="8" width="47.42578125" customWidth="1"/>
-    <col min="9" max="9" width="59.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.7109375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="13.09765625" customWidth="1"/>
+    <col min="5" max="5" width="22.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.296875" customWidth="1"/>
+    <col min="8" max="8" width="47.3984375" customWidth="1"/>
+    <col min="9" max="9" width="59.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.69921875" style="14" customWidth="1"/>
     <col min="11" max="11" width="15" style="14" customWidth="1"/>
+    <col min="12" max="12" width="44.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1027,8 +1061,11 @@
       <c r="K1" s="11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1056,7 +1093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1090,8 +1127,11 @@
       <c r="K3" s="21" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1125,8 +1165,11 @@
       <c r="K4" s="21" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1160,8 +1203,11 @@
       <c r="K5" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1195,8 +1241,11 @@
       <c r="K6" s="21" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1229,7 +1278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1262,7 +1311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1294,7 +1343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -1326,7 +1375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1360,8 +1409,11 @@
       <c r="K11" s="12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L11" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -1393,7 +1445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -1425,7 +1477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
@@ -1456,8 +1508,11 @@
       <c r="K14" s="13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L14" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
@@ -1486,7 +1541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
@@ -1518,7 +1573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>13</v>
       </c>
@@ -1550,7 +1605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>13</v>
       </c>
@@ -1582,7 +1637,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
@@ -1616,8 +1671,11 @@
       <c r="K19" s="13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L19" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>13</v>
       </c>
@@ -1649,7 +1707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>13</v>
       </c>
@@ -1681,7 +1739,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>13</v>
       </c>
@@ -1713,7 +1771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>13</v>
       </c>
@@ -1744,8 +1802,11 @@
       <c r="K23" s="17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L23" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="25" t="s">
         <v>13</v>
       </c>
@@ -1777,7 +1838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="25" t="s">
         <v>13</v>
       </c>
@@ -1809,7 +1870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="25" t="s">
         <v>13</v>
       </c>
@@ -1840,8 +1901,11 @@
       <c r="K26" s="28" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L26" s="27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
         <v>13</v>
       </c>
@@ -1873,7 +1937,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
         <v>13</v>
       </c>
@@ -1905,7 +1969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
         <v>13</v>
       </c>
@@ -1936,8 +2000,12 @@
       <c r="K29" s="32" t="s">
         <v>10</v>
       </c>
+      <c r="L29" s="31" t="s">
+        <v>136</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L29" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I5" r:id="rId1" xr:uid="{2F5DF9E8-6F7C-49D0-A88D-920944076562}"/>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalatorre\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ftsang\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD00328-93DB-4DA1-B73C-88192C3F2EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA69430-D4CE-4207-AE52-FE405EEF2286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="all_runs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_runs!$A$1:$L$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_runs!$A$1:$L$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="155">
   <si>
     <t>category</t>
   </si>
@@ -459,13 +459,55 @@
   </si>
   <si>
     <t>G:\\Projects\\2035_TM152_NGF_NP10_Path4_02</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP04_Path6_02_pretollcalib</t>
+  </si>
+  <si>
+    <t>NGF_Networks_NGFround2_P6_13</t>
+  </si>
+  <si>
+    <t>NGF_Networks_NGFround2_P6_14</t>
+  </si>
+  <si>
+    <t>https://app.asana.com/0/1203644633064654/1207669176328134/f</t>
+  </si>
+  <si>
+    <t>NGF_Networks_NGFround2_P5_07</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP04_Path4_02_tollcalib</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP04_Path4_02</t>
+  </si>
+  <si>
+    <t>P4 pre-toll-calibration run (just in case network swap wasn't good enough)</t>
+  </si>
+  <si>
+    <t>P4 toll-calibration run (just in case network swap wasn't good enough)</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP04_Path6_02_tollcalib</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP04_Path6_02</t>
+  </si>
+  <si>
+    <t>H:\\Projects\\2035_TM160_NGFr2_NP04_Path6_02</t>
+  </si>
+  <si>
+    <t>to become current</t>
+  </si>
+  <si>
+    <t>may not need to run this</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -531,6 +573,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -586,7 +634,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -646,12 +694,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1006,11 +1053,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1747,7 +1794,7 @@
         <v>2035</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>19</v>
@@ -1756,19 +1803,25 @@
         <v>91</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>83</v>
+        <v>126</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="H22" s="15" t="s">
         <v>119</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="J22" s="17" t="s">
         <v>10</v>
       </c>
       <c r="K22" s="17" t="s">
         <v>10</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -1779,7 +1832,7 @@
         <v>2035</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>19</v>
@@ -1788,86 +1841,87 @@
         <v>91</v>
       </c>
       <c r="F23" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="G23" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="J23" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K23" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L23" s="15" t="s">
+      <c r="G25" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I25" s="18"/>
+      <c r="J25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25" s="15" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="26">
-        <v>2035</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="H24" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="I24" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="J24" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K24" s="28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="26">
-        <v>2035</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="H25" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="I25" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="J25" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K25" s="28" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
@@ -1878,7 +1932,7 @@
         <v>2035</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="D26" s="25" t="s">
         <v>19</v>
@@ -1887,97 +1941,100 @@
         <v>92</v>
       </c>
       <c r="F26" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="H26" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="I26" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="J26" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="26">
+        <v>2035</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="I27" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="J27" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="26">
+        <v>2035</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="G26" s="27" t="s">
+      <c r="G28" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="I26" s="27" t="s">
+      <c r="H28" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="I28" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="J26" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K26" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="L26" s="27" t="s">
+      <c r="J28" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="L28" s="27" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C27" s="31" t="s">
+    <row r="29" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C29" s="29" t="s">
         <v>99</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="H27" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="I27" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="J27" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="K27" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F28" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="H28" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="I28" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="J28" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="K28" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>121</v>
       </c>
       <c r="D29" s="29" t="s">
         <v>19</v>
@@ -1986,26 +2043,189 @@
         <v>117</v>
       </c>
       <c r="F29" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="I29" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="J29" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="I30" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="J30" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="G29" s="31" t="s">
+      <c r="G31" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="I29" s="31" t="s">
+      <c r="H31" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="I31" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="J29" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="K29" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="L29" s="31" t="s">
+      <c r="J31" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="L31" s="29" t="s">
         <v>136</v>
       </c>
     </row>
+    <row r="32" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="H32" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="I32" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="J32" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="H33" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="J33" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="H34" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="J34" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K34" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="L34" s="29" t="s">
+        <v>152</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L29" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L31" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I5" r:id="rId1" xr:uid="{2F5DF9E8-6F7C-49D0-A88D-920944076562}"/>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ftsang\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalatorre\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA69430-D4CE-4207-AE52-FE405EEF2286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AB26F1-8B3D-40D2-9043-F2C8801CD7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,24 +431,6 @@
     <t>path_on_model3-a</t>
   </si>
   <si>
-    <t>A:\\Projects\\2035_TM160_NGFr2_NP04_Path1_02</t>
-  </si>
-  <si>
-    <t>A:\\Projects\\2035_TM160_NGFr2_NP04_Path4_01</t>
-  </si>
-  <si>
-    <t>G:\\Projects\\2035_TM160_NGF_r2_NoProject_01</t>
-  </si>
-  <si>
-    <t>B:\\Projects\\2035_TM160_NGF_r2_NoProject_04</t>
-  </si>
-  <si>
-    <t>F:\\Projects\\2035_TM160_NGFr2_NP04_Path5_01</t>
-  </si>
-  <si>
-    <t>H:\\Projects\\2035_TM160_NGFr2_NP04_Path6_01</t>
-  </si>
-  <si>
     <t>X:\\Projects\\2035_TM152_NGF_NP10_Path1a_02</t>
   </si>
   <si>
@@ -494,13 +476,31 @@
     <t>2035_TM160_NGFr2_NP04_Path6_02</t>
   </si>
   <si>
-    <t>H:\\Projects\\2035_TM160_NGFr2_NP04_Path6_02</t>
-  </si>
-  <si>
     <t>to become current</t>
   </si>
   <si>
     <t>may not need to run this</t>
+  </si>
+  <si>
+    <t>A:\Projects\2035_TM160_NGFr2_NP04_Path1_02</t>
+  </si>
+  <si>
+    <t>G:\Projects\2035_TM160_NGF_r2_NoProject_01</t>
+  </si>
+  <si>
+    <t>B:\Projects\2035_TM160_NGF_r2_NoProject_04</t>
+  </si>
+  <si>
+    <t>A:\Projects\2035_TM160_NGFr2_NP04_Path4_01</t>
+  </si>
+  <si>
+    <t>F:\Projects\2035_TM160_NGFr2_NP04_Path5_01</t>
+  </si>
+  <si>
+    <t>H:\Projects\2035_TM160_NGFr2_NP04_Path6_01</t>
+  </si>
+  <si>
+    <t>H:\Projects\2035_TM160_NGFr2_NP04_Path6_02</t>
   </si>
 </sst>
 </file>
@@ -1055,9 +1055,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+      <selection pane="bottomLeft" activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1175,7 +1175,7 @@
         <v>53</v>
       </c>
       <c r="L3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1213,7 +1213,7 @@
         <v>53</v>
       </c>
       <c r="L4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1251,7 +1251,7 @@
         <v>53</v>
       </c>
       <c r="L5" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -1289,7 +1289,7 @@
         <v>53</v>
       </c>
       <c r="L6" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -1457,7 +1457,7 @@
         <v>10</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -1556,7 +1556,7 @@
         <v>10</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -1719,7 +1719,7 @@
         <v>10</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -1821,7 +1821,7 @@
         <v>10</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -1841,7 +1841,7 @@
         <v>91</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H23" s="15" t="s">
         <v>119</v>
@@ -1864,7 +1864,7 @@
         <v>2035</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>19</v>
@@ -1873,7 +1873,7 @@
         <v>91</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H24" s="15" t="s">
         <v>119</v>
@@ -1896,7 +1896,7 @@
         <v>2035</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>19</v>
@@ -1908,7 +1908,7 @@
         <v>126</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="H25" s="15" t="s">
         <v>119</v>
@@ -1921,7 +1921,7 @@
         <v>10</v>
       </c>
       <c r="L25" s="15" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
@@ -2011,7 +2011,7 @@
         <v>31</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="I28" s="27" t="s">
         <v>125</v>
@@ -2023,7 +2023,7 @@
         <v>10</v>
       </c>
       <c r="L28" s="27" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -2113,7 +2113,7 @@
         <v>31</v>
       </c>
       <c r="H31" s="29" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="I31" s="29" t="s">
         <v>128</v>
@@ -2125,7 +2125,7 @@
         <v>10</v>
       </c>
       <c r="L31" s="29" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -2136,7 +2136,7 @@
         <v>2035</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D32" s="29" t="s">
         <v>19</v>
@@ -2148,10 +2148,10 @@
         <v>102</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="I32" s="29" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J32" s="31" t="s">
         <v>10</v>
@@ -2168,7 +2168,7 @@
         <v>2035</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D33" s="29" t="s">
         <v>19</v>
@@ -2180,7 +2180,7 @@
         <v>103</v>
       </c>
       <c r="H33" s="29" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="J33" s="31" t="s">
         <v>10</v>
@@ -2197,7 +2197,7 @@
         <v>2035</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D34" s="29" t="s">
         <v>19</v>
@@ -2209,10 +2209,10 @@
         <v>127</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="J34" s="31" t="s">
         <v>10</v>
@@ -2221,7 +2221,7 @@
         <v>10</v>
       </c>
       <c r="L34" s="29" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalatorre\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ftsang\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AB26F1-8B3D-40D2-9043-F2C8801CD7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA69430-D4CE-4207-AE52-FE405EEF2286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,6 +431,24 @@
     <t>path_on_model3-a</t>
   </si>
   <si>
+    <t>A:\\Projects\\2035_TM160_NGFr2_NP04_Path1_02</t>
+  </si>
+  <si>
+    <t>A:\\Projects\\2035_TM160_NGFr2_NP04_Path4_01</t>
+  </si>
+  <si>
+    <t>G:\\Projects\\2035_TM160_NGF_r2_NoProject_01</t>
+  </si>
+  <si>
+    <t>B:\\Projects\\2035_TM160_NGF_r2_NoProject_04</t>
+  </si>
+  <si>
+    <t>F:\\Projects\\2035_TM160_NGFr2_NP04_Path5_01</t>
+  </si>
+  <si>
+    <t>H:\\Projects\\2035_TM160_NGFr2_NP04_Path6_01</t>
+  </si>
+  <si>
     <t>X:\\Projects\\2035_TM152_NGF_NP10_Path1a_02</t>
   </si>
   <si>
@@ -476,31 +494,13 @@
     <t>2035_TM160_NGFr2_NP04_Path6_02</t>
   </si>
   <si>
+    <t>H:\\Projects\\2035_TM160_NGFr2_NP04_Path6_02</t>
+  </si>
+  <si>
     <t>to become current</t>
   </si>
   <si>
     <t>may not need to run this</t>
-  </si>
-  <si>
-    <t>A:\Projects\2035_TM160_NGFr2_NP04_Path1_02</t>
-  </si>
-  <si>
-    <t>G:\Projects\2035_TM160_NGF_r2_NoProject_01</t>
-  </si>
-  <si>
-    <t>B:\Projects\2035_TM160_NGF_r2_NoProject_04</t>
-  </si>
-  <si>
-    <t>A:\Projects\2035_TM160_NGFr2_NP04_Path4_01</t>
-  </si>
-  <si>
-    <t>F:\Projects\2035_TM160_NGFr2_NP04_Path5_01</t>
-  </si>
-  <si>
-    <t>H:\Projects\2035_TM160_NGFr2_NP04_Path6_01</t>
-  </si>
-  <si>
-    <t>H:\Projects\2035_TM160_NGFr2_NP04_Path6_02</t>
   </si>
 </sst>
 </file>
@@ -1055,9 +1055,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L34" sqref="L34"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1175,7 +1175,7 @@
         <v>53</v>
       </c>
       <c r="L3" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1213,7 +1213,7 @@
         <v>53</v>
       </c>
       <c r="L4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1251,7 +1251,7 @@
         <v>53</v>
       </c>
       <c r="L5" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -1289,7 +1289,7 @@
         <v>53</v>
       </c>
       <c r="L6" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -1457,7 +1457,7 @@
         <v>10</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -1556,7 +1556,7 @@
         <v>10</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -1719,7 +1719,7 @@
         <v>10</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -1821,7 +1821,7 @@
         <v>10</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -1841,7 +1841,7 @@
         <v>91</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="H23" s="15" t="s">
         <v>119</v>
@@ -1864,7 +1864,7 @@
         <v>2035</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>19</v>
@@ -1873,7 +1873,7 @@
         <v>91</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="H24" s="15" t="s">
         <v>119</v>
@@ -1896,7 +1896,7 @@
         <v>2035</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>19</v>
@@ -1908,7 +1908,7 @@
         <v>126</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="H25" s="15" t="s">
         <v>119</v>
@@ -1921,7 +1921,7 @@
         <v>10</v>
       </c>
       <c r="L25" s="15" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
@@ -2011,7 +2011,7 @@
         <v>31</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="I28" s="27" t="s">
         <v>125</v>
@@ -2023,7 +2023,7 @@
         <v>10</v>
       </c>
       <c r="L28" s="27" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -2113,7 +2113,7 @@
         <v>31</v>
       </c>
       <c r="H31" s="29" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="I31" s="29" t="s">
         <v>128</v>
@@ -2125,7 +2125,7 @@
         <v>10</v>
       </c>
       <c r="L31" s="29" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -2136,7 +2136,7 @@
         <v>2035</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D32" s="29" t="s">
         <v>19</v>
@@ -2148,10 +2148,10 @@
         <v>102</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="I32" s="29" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="J32" s="31" t="s">
         <v>10</v>
@@ -2168,7 +2168,7 @@
         <v>2035</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D33" s="29" t="s">
         <v>19</v>
@@ -2180,7 +2180,7 @@
         <v>103</v>
       </c>
       <c r="H33" s="29" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="J33" s="31" t="s">
         <v>10</v>
@@ -2197,7 +2197,7 @@
         <v>2035</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D34" s="29" t="s">
         <v>19</v>
@@ -2209,10 +2209,10 @@
         <v>127</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="J34" s="31" t="s">
         <v>10</v>
@@ -2221,7 +2221,7 @@
         <v>10</v>
       </c>
       <c r="L34" s="29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ftsang\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bayareametro-my.sharepoint.com/personal/atapase_bayareametro_gov/Documents/Documents/GitHub/travel-model-one/utilities/NextGenFwys/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA69430-D4CE-4207-AE52-FE405EEF2286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{5DA69430-D4CE-4207-AE52-FE405EEF2286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7120BBAE-7B3B-43FB-8B8A-793155CC0726}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_runs" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="154">
   <si>
     <t>category</t>
   </si>
@@ -495,9 +495,6 @@
   </si>
   <si>
     <t>H:\\Projects\\2035_TM160_NGFr2_NP04_Path6_02</t>
-  </si>
-  <si>
-    <t>to become current</t>
   </si>
   <si>
     <t>may not need to run this</t>
@@ -1056,25 +1053,25 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.3984375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="13.09765625" customWidth="1"/>
-    <col min="5" max="5" width="22.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.296875" customWidth="1"/>
-    <col min="8" max="8" width="47.3984375" customWidth="1"/>
-    <col min="9" max="9" width="59.69921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.69921875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.28515625" customWidth="1"/>
+    <col min="8" max="8" width="47.42578125" customWidth="1"/>
+    <col min="9" max="9" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.7109375" style="14" customWidth="1"/>
     <col min="11" max="11" width="15" style="14" customWidth="1"/>
-    <col min="12" max="12" width="44.19921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="44.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1112,7 +1109,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1140,7 +1137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1178,7 +1175,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1216,7 +1213,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1254,7 +1251,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1292,7 +1289,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1325,7 +1322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1358,7 +1355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1390,7 +1387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -1422,7 +1419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1460,7 +1457,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -1492,7 +1489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -1524,7 +1521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
@@ -1543,9 +1540,6 @@
       <c r="F14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="I14" s="7" t="s">
         <v>72</v>
       </c>
@@ -1559,7 +1553,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
@@ -1588,7 +1582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
@@ -1620,7 +1614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>13</v>
       </c>
@@ -1652,7 +1646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>13</v>
       </c>
@@ -1684,7 +1678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
@@ -1722,7 +1716,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>13</v>
       </c>
@@ -1754,7 +1748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>13</v>
       </c>
@@ -1786,7 +1780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>13</v>
       </c>
@@ -1824,7 +1818,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>13</v>
       </c>
@@ -1856,7 +1850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
         <v>13</v>
       </c>
@@ -1888,7 +1882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
         <v>13</v>
       </c>
@@ -1908,7 +1902,7 @@
         <v>126</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H25" s="15" t="s">
         <v>119</v>
@@ -1924,7 +1918,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="25" t="s">
         <v>13</v>
       </c>
@@ -1956,7 +1950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="25" t="s">
         <v>13</v>
       </c>
@@ -1988,7 +1982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="25" t="s">
         <v>13</v>
       </c>
@@ -2026,7 +2020,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="29" t="s">
         <v>13</v>
       </c>
@@ -2058,7 +2052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="29" t="s">
         <v>13</v>
       </c>
@@ -2090,7 +2084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="29" t="s">
         <v>13</v>
       </c>
@@ -2109,9 +2103,6 @@
       <c r="F31" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="G31" s="29" t="s">
-        <v>31</v>
-      </c>
       <c r="H31" s="29" t="s">
         <v>142</v>
       </c>
@@ -2128,7 +2119,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="29" t="s">
         <v>13</v>
       </c>
@@ -2160,7 +2151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="29" t="s">
         <v>13</v>
       </c>
@@ -2189,7 +2180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="29" t="s">
         <v>13</v>
       </c>
@@ -2209,7 +2200,7 @@
         <v>127</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>153</v>
+        <v>31</v>
       </c>
       <c r="H34" s="29" t="s">
         <v>143</v>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bayareametro-my.sharepoint.com/personal/atapase_bayareametro_gov/Documents/Documents/GitHub/travel-model-one/utilities/NextGenFwys/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ftsang\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{5DA69430-D4CE-4207-AE52-FE405EEF2286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7120BBAE-7B3B-43FB-8B8A-793155CC0726}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF99B38-FEBF-4BA7-B7FC-DC004E0A3FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_runs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_runs!$A$1:$L$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_runs!$A$1:$L$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="161">
   <si>
     <t>category</t>
   </si>
@@ -498,6 +498,27 @@
   </si>
   <si>
     <t>may not need to run this</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP04_Path1_03</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP04_Path1_04</t>
+  </si>
+  <si>
+    <t>P1 initial run -  vision zero test</t>
+  </si>
+  <si>
+    <t>P1 initial run -  tolls creation test</t>
+  </si>
+  <si>
+    <t>NGF_Networks_NGFround2_P1_04</t>
+  </si>
+  <si>
+    <t>https://app.asana.com/0/0/1207713742308166/f</t>
+  </si>
+  <si>
+    <t>https://app.asana.com/0/0/1207731071720316/f</t>
   </si>
 </sst>
 </file>
@@ -1050,28 +1071,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.3984375" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.28515625" customWidth="1"/>
-    <col min="8" max="8" width="47.42578125" customWidth="1"/>
-    <col min="9" max="9" width="59.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.7109375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="13.09765625" customWidth="1"/>
+    <col min="5" max="5" width="22.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.296875" customWidth="1"/>
+    <col min="8" max="8" width="47.3984375" customWidth="1"/>
+    <col min="9" max="9" width="59.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.69921875" style="14" customWidth="1"/>
     <col min="11" max="11" width="15" style="14" customWidth="1"/>
-    <col min="12" max="12" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="44.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1109,7 +1130,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1137,7 +1158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1175,7 +1196,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1213,7 +1234,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1251,7 +1272,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1289,7 +1310,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1322,7 +1343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1355,7 +1376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1387,7 +1408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -1419,7 +1440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1438,9 +1459,6 @@
       <c r="F11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="H11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1457,7 +1475,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -1489,7 +1507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -1521,76 +1539,82 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8">
-        <v>2035</v>
-      </c>
-      <c r="C14" s="7" t="s">
+    <row r="14" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6">
+        <v>2035</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2035</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="8">
-        <v>2035</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="8">
-        <v>2035</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>19</v>
@@ -1599,13 +1623,10 @@
         <v>69</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="J16" s="13" t="s">
         <v>10</v>
@@ -1613,8 +1634,11 @@
       <c r="K16" s="13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L16" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>13</v>
       </c>
@@ -1622,7 +1646,7 @@
         <v>2035</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>19</v>
@@ -1631,13 +1655,10 @@
         <v>69</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="J17" s="13" t="s">
         <v>10</v>
@@ -1646,7 +1667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>13</v>
       </c>
@@ -1654,7 +1675,7 @@
         <v>2035</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>19</v>
@@ -1663,13 +1684,13 @@
         <v>69</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="J18" s="13" t="s">
         <v>10</v>
@@ -1678,7 +1699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
@@ -1686,7 +1707,7 @@
         <v>2035</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>19</v>
@@ -1695,100 +1716,100 @@
         <v>69</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>108</v>
       </c>
       <c r="I19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="J19" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="J21" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="16">
-        <v>2035</v>
-      </c>
-      <c r="C20" s="15" t="s">
+    <row r="22" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>80</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="16">
-        <v>2035</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="J21" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K21" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="16">
-        <v>2035</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>122</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>19</v>
@@ -1797,16 +1818,13 @@
         <v>91</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="J22" s="17" t="s">
         <v>10</v>
@@ -1814,11 +1832,8 @@
       <c r="K22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L22" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>13</v>
       </c>
@@ -1826,7 +1841,7 @@
         <v>2035</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>19</v>
@@ -1835,13 +1850,13 @@
         <v>91</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="J23" s="17" t="s">
         <v>10</v>
@@ -1850,7 +1865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>13</v>
       </c>
@@ -1858,7 +1873,7 @@
         <v>2035</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>19</v>
@@ -1867,13 +1882,16 @@
         <v>91</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>149</v>
+        <v>126</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="H24" s="15" t="s">
         <v>119</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="J24" s="17" t="s">
         <v>10</v>
@@ -1881,8 +1899,11 @@
       <c r="K24" s="17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L24" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>13</v>
       </c>
@@ -1890,7 +1911,7 @@
         <v>2035</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>19</v>
@@ -1899,98 +1920,98 @@
         <v>91</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H25" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="I25" s="18"/>
+      <c r="I25" s="18" t="s">
+        <v>120</v>
+      </c>
       <c r="J25" s="17" t="s">
         <v>10</v>
       </c>
       <c r="K25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L25" s="15" t="s">
+    </row>
+    <row r="26" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I27" s="18"/>
+      <c r="J27" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="15" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="26">
-        <v>2035</v>
-      </c>
-      <c r="C26" s="27" t="s">
+    <row r="28" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="26">
+        <v>2035</v>
+      </c>
+      <c r="C28" s="27" t="s">
         <v>89</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="H26" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="I26" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="J26" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K26" s="28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="26">
-        <v>2035</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="H27" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="I27" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="J27" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K27" s="28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="26">
-        <v>2035</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>123</v>
       </c>
       <c r="D28" s="25" t="s">
         <v>19</v>
@@ -1999,100 +2020,100 @@
         <v>92</v>
       </c>
       <c r="F28" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="I28" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="J28" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="26">
+        <v>2035</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="I29" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="J29" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="26">
+        <v>2035</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="G28" s="27" t="s">
+      <c r="G30" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="H30" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="I28" s="27" t="s">
+      <c r="I30" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="J28" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K28" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="L28" s="27" t="s">
+      <c r="J30" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="L30" s="27" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C29" s="29" t="s">
+    <row r="31" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C31" s="29" t="s">
         <v>99</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F29" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="H29" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="I29" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="J29" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K29" s="31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F30" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="H30" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="I30" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="J30" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K30" s="31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>121</v>
       </c>
       <c r="D31" s="29" t="s">
         <v>19</v>
@@ -2101,13 +2122,13 @@
         <v>117</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="H31" s="29" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="I31" s="29" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="J31" s="31" t="s">
         <v>10</v>
@@ -2115,11 +2136,8 @@
       <c r="K31" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="L31" s="29" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="29" t="s">
         <v>13</v>
       </c>
@@ -2127,7 +2145,7 @@
         <v>2035</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="D32" s="29" t="s">
         <v>19</v>
@@ -2136,13 +2154,13 @@
         <v>117</v>
       </c>
       <c r="F32" s="29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="I32" s="29" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="J32" s="31" t="s">
         <v>10</v>
@@ -2151,7 +2169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="29" t="s">
         <v>13</v>
       </c>
@@ -2159,7 +2177,7 @@
         <v>2035</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="D33" s="29" t="s">
         <v>19</v>
@@ -2168,10 +2186,13 @@
         <v>117</v>
       </c>
       <c r="F33" s="29" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="H33" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
+      </c>
+      <c r="I33" s="29" t="s">
+        <v>128</v>
       </c>
       <c r="J33" s="31" t="s">
         <v>10</v>
@@ -2179,8 +2200,11 @@
       <c r="K33" s="31" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L33" s="29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
         <v>13</v>
       </c>
@@ -2188,7 +2212,7 @@
         <v>2035</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D34" s="29" t="s">
         <v>19</v>
@@ -2197,31 +2221,92 @@
         <v>117</v>
       </c>
       <c r="F34" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="G34" s="29" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="H34" s="29" t="s">
         <v>143</v>
       </c>
+      <c r="I34" s="29" t="s">
+        <v>144</v>
+      </c>
       <c r="J34" s="31" t="s">
         <v>10</v>
       </c>
       <c r="K34" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="L34" s="29" t="s">
+    </row>
+    <row r="35" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="H35" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="J35" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="G36" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="J36" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K36" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" s="29" t="s">
         <v>152</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L31" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L33" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I5" r:id="rId1" xr:uid="{2F5DF9E8-6F7C-49D0-A88D-920944076562}"/>
     <hyperlink ref="I12" r:id="rId2" xr:uid="{088533EE-4DDB-4145-8A51-9A459A5B0EE7}"/>
-    <hyperlink ref="I20" r:id="rId3" xr:uid="{7568B75C-5EC3-4B27-BBC3-154FC1450F6B}"/>
+    <hyperlink ref="I22" r:id="rId3" xr:uid="{7568B75C-5EC3-4B27-BBC3-154FC1450F6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ftsang\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF99B38-FEBF-4BA7-B7FC-DC004E0A3FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1092A34B-A0E2-46E1-AB64-B2EEC74AA19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="21590" windowHeight="13010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_runs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_runs!$A$1:$L$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_runs!$A$1:$L$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="169">
   <si>
     <t>category</t>
   </si>
@@ -519,6 +519,30 @@
   </si>
   <si>
     <t>https://app.asana.com/0/0/1207731071720316/f</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP04_Path1_05</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP04_Path1_06</t>
+  </si>
+  <si>
+    <t>P1 - base run for Fwy FFS assessment</t>
+  </si>
+  <si>
+    <t>P1 - proj run for Fwy FFS assessment</t>
+  </si>
+  <si>
+    <t>NGF_Networks_NGFround2_P1_05</t>
+  </si>
+  <si>
+    <t>NGF_Networks_NGFround2_P1_06</t>
+  </si>
+  <si>
+    <t>https://app.asana.com/0/572982923864207/1207750211446447/f</t>
+  </si>
+  <si>
+    <t>https://app.asana.com/0/572982923864207/1207750211446449/f</t>
   </si>
 </sst>
 </file>
@@ -1071,11 +1095,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1590,9 +1614,6 @@
       <c r="F15" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="H15" s="4" t="s">
         <v>158</v>
       </c>
@@ -1606,64 +1627,73 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="8">
-        <v>2035</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="8">
-        <v>2035</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="13" t="s">
+    <row r="16" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="6">
+        <v>2035</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="6">
+        <v>2035</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="12" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1675,7 +1705,7 @@
         <v>2035</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>19</v>
@@ -1684,19 +1714,19 @@
         <v>69</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="J18" s="13" t="s">
         <v>10</v>
       </c>
       <c r="K18" s="13" t="s">
         <v>10</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -1707,7 +1737,7 @@
         <v>2035</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>19</v>
@@ -1716,13 +1746,10 @@
         <v>69</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="J19" s="13" t="s">
         <v>10</v>
@@ -1739,7 +1766,7 @@
         <v>2035</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>19</v>
@@ -1748,13 +1775,13 @@
         <v>69</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="J20" s="13" t="s">
         <v>10</v>
@@ -1771,7 +1798,7 @@
         <v>2035</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>19</v>
@@ -1780,89 +1807,89 @@
         <v>69</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>108</v>
       </c>
       <c r="I21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I23" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="J21" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K21" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L21" s="7" t="s">
+      <c r="J23" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="16">
-        <v>2035</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="J22" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K22" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="16">
-        <v>2035</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="J23" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K23" s="17" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -1873,7 +1900,7 @@
         <v>2035</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>19</v>
@@ -1882,25 +1909,19 @@
         <v>91</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="J24" s="17" t="s">
         <v>10</v>
       </c>
       <c r="K24" s="17" t="s">
         <v>10</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -1911,7 +1932,7 @@
         <v>2035</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>19</v>
@@ -1920,13 +1941,13 @@
         <v>91</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="J25" s="17" t="s">
         <v>10</v>
@@ -1943,7 +1964,7 @@
         <v>2035</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>19</v>
@@ -1952,19 +1973,25 @@
         <v>91</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>149</v>
+        <v>126</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="H26" s="15" t="s">
         <v>119</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="J26" s="17" t="s">
         <v>10</v>
       </c>
       <c r="K26" s="17" t="s">
         <v>10</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -1975,7 +2002,7 @@
         <v>2035</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>19</v>
@@ -1984,87 +2011,87 @@
         <v>91</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H27" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="I27" s="18"/>
+      <c r="I27" s="18" t="s">
+        <v>120</v>
+      </c>
       <c r="J27" s="17" t="s">
         <v>10</v>
       </c>
       <c r="K27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L27" s="15" t="s">
+    </row>
+    <row r="28" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="J28" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I29" s="18"/>
+      <c r="J29" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="15" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="26">
-        <v>2035</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="H28" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="I28" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="J28" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K28" s="28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="26">
-        <v>2035</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="F29" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="H29" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="I29" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="J29" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K29" s="28" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
@@ -2075,7 +2102,7 @@
         <v>2035</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="D30" s="25" t="s">
         <v>19</v>
@@ -2084,89 +2111,89 @@
         <v>92</v>
       </c>
       <c r="F30" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="H30" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="I30" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="J30" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="26">
+        <v>2035</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="I31" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="J31" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="26">
+        <v>2035</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="G30" s="27" t="s">
+      <c r="G32" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H30" s="27" t="s">
+      <c r="H32" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="I30" s="27" t="s">
+      <c r="I32" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="J30" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K30" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="L30" s="27" t="s">
+      <c r="J32" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32" s="27" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F31" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="H31" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="I31" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="J31" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K31" s="31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F32" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="H32" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="I32" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="J32" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K32" s="31" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -2177,7 +2204,7 @@
         <v>2035</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="D33" s="29" t="s">
         <v>19</v>
@@ -2186,22 +2213,19 @@
         <v>117</v>
       </c>
       <c r="F33" s="29" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="H33" s="29" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="I33" s="29" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="J33" s="31" t="s">
         <v>10</v>
       </c>
       <c r="K33" s="31" t="s">
         <v>10</v>
-      </c>
-      <c r="L33" s="29" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -2212,7 +2236,7 @@
         <v>2035</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="D34" s="29" t="s">
         <v>19</v>
@@ -2221,13 +2245,13 @@
         <v>117</v>
       </c>
       <c r="F34" s="29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="I34" s="29" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="J34" s="31" t="s">
         <v>10</v>
@@ -2244,7 +2268,7 @@
         <v>2035</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="D35" s="29" t="s">
         <v>19</v>
@@ -2253,16 +2277,22 @@
         <v>117</v>
       </c>
       <c r="F35" s="29" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="H35" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
+      </c>
+      <c r="I35" s="29" t="s">
+        <v>128</v>
       </c>
       <c r="J35" s="31" t="s">
         <v>10</v>
       </c>
       <c r="K35" s="31" t="s">
         <v>10</v>
+      </c>
+      <c r="L35" s="29" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -2273,7 +2303,7 @@
         <v>2035</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D36" s="29" t="s">
         <v>19</v>
@@ -2282,31 +2312,92 @@
         <v>117</v>
       </c>
       <c r="F36" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="G36" s="29" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="H36" s="29" t="s">
         <v>143</v>
       </c>
+      <c r="I36" s="29" t="s">
+        <v>144</v>
+      </c>
       <c r="J36" s="31" t="s">
         <v>10</v>
       </c>
       <c r="K36" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="L36" s="29" t="s">
+    </row>
+    <row r="37" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="H37" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="J37" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F38" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="G38" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="J38" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K38" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="L38" s="29" t="s">
         <v>152</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L33" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L35" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I5" r:id="rId1" xr:uid="{2F5DF9E8-6F7C-49D0-A88D-920944076562}"/>
     <hyperlink ref="I12" r:id="rId2" xr:uid="{088533EE-4DDB-4145-8A51-9A459A5B0EE7}"/>
-    <hyperlink ref="I22" r:id="rId3" xr:uid="{7568B75C-5EC3-4B27-BBC3-154FC1450F6B}"/>
+    <hyperlink ref="I24" r:id="rId3" xr:uid="{7568B75C-5EC3-4B27-BBC3-154FC1450F6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ftsang\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bayareametro-my.sharepoint.com/personal/atapase_bayareametro_gov/Documents/Documents/GitHub/travel-model-one/utilities/NextGenFwys/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1092A34B-A0E2-46E1-AB64-B2EEC74AA19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{1092A34B-A0E2-46E1-AB64-B2EEC74AA19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01C326F6-0A7B-4C74-A97B-97116907B631}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="21590" windowHeight="13010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_runs" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="169">
   <si>
     <t>category</t>
   </si>
@@ -1097,26 +1097,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.3984375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="13.09765625" customWidth="1"/>
-    <col min="5" max="5" width="22.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.296875" customWidth="1"/>
-    <col min="8" max="8" width="47.3984375" customWidth="1"/>
-    <col min="9" max="9" width="59.69921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.69921875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.28515625" customWidth="1"/>
+    <col min="8" max="8" width="47.42578125" customWidth="1"/>
+    <col min="9" max="9" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.7109375" style="14" customWidth="1"/>
     <col min="11" max="11" width="15" style="14" customWidth="1"/>
-    <col min="12" max="12" width="44.09765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="44.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1483,6 +1483,9 @@
       <c r="F11" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="G11" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="H11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1499,7 +1502,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -1531,7 +1534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -1563,7 +1566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -1595,7 +1598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -1627,7 +1630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
@@ -1646,9 +1649,6 @@
       <c r="F16" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="H16" s="4" t="s">
         <v>165</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
@@ -1681,9 +1681,6 @@
       <c r="F17" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="H17" s="4" t="s">
         <v>166</v>
       </c>
@@ -1697,7 +1694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>13</v>
       </c>
@@ -1729,7 +1726,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
@@ -1758,7 +1755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>13</v>
       </c>
@@ -1790,7 +1787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>13</v>
       </c>
@@ -1822,7 +1819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>13</v>
       </c>
@@ -1854,7 +1851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>13</v>
       </c>
@@ -1892,7 +1889,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
         <v>13</v>
       </c>
@@ -1924,7 +1921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
         <v>13</v>
       </c>
@@ -1956,7 +1953,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
         <v>13</v>
       </c>
@@ -1994,7 +1991,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
         <v>13</v>
       </c>
@@ -2026,7 +2023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
         <v>13</v>
       </c>
@@ -2058,7 +2055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
         <v>13</v>
       </c>
@@ -2094,7 +2091,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="25" t="s">
         <v>13</v>
       </c>
@@ -2126,7 +2123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="25" t="s">
         <v>13</v>
       </c>
@@ -2158,7 +2155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="25" t="s">
         <v>13</v>
       </c>
@@ -2196,7 +2193,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="29" t="s">
         <v>13</v>
       </c>
@@ -2228,7 +2225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="29" t="s">
         <v>13</v>
       </c>
@@ -2260,7 +2257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="29" t="s">
         <v>13</v>
       </c>
@@ -2295,7 +2292,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="29" t="s">
         <v>13</v>
       </c>
@@ -2327,7 +2324,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="29" t="s">
         <v>13</v>
       </c>
@@ -2356,7 +2353,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="29" t="s">
         <v>13</v>
       </c>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bayareametro-my.sharepoint.com/personal/atapase_bayareametro_gov/Documents/Documents/GitHub/travel-model-one/utilities/NextGenFwys/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atapase\OneDrive - Metropolitan Transportation Commission\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{1092A34B-A0E2-46E1-AB64-B2EEC74AA19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01C326F6-0A7B-4C74-A97B-97116907B631}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF168327-2603-42D7-8F14-0BC7AFDF5B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_runs" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="169">
   <si>
     <t>category</t>
   </si>
@@ -1649,6 +1649,9 @@
       <c r="F16" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="G16" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="H16" s="4" t="s">
         <v>165</v>
       </c>
@@ -1680,6 +1683,9 @@
       </c>
       <c r="F17" s="4" t="s">
         <v>164</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>166</v>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atapase\OneDrive - Metropolitan Transportation Commission\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF168327-2603-42D7-8F14-0BC7AFDF5B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EA8971-2E76-4490-ADDD-A2A8BE7066BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="all_runs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_runs!$A$1:$L$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_runs!$A$1:$L$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="174">
   <si>
     <t>category</t>
   </si>
@@ -543,6 +543,21 @@
   </si>
   <si>
     <t>https://app.asana.com/0/572982923864207/1207750211446449/f</t>
+  </si>
+  <si>
+    <t>2023_TM160_IPA_57</t>
+  </si>
+  <si>
+    <t>2023 base year (IPA)</t>
+  </si>
+  <si>
+    <t>G:\\Projects\\2023_TM160_IPA_57</t>
+  </si>
+  <si>
+    <t>H:\\Projects\\2035_TM160_NGFr2_NP04_Path1_05</t>
+  </si>
+  <si>
+    <t>B:\\Projects\\2035_TM160_NGFr2_NP04_Path1_06</t>
   </si>
 </sst>
 </file>
@@ -1095,11 +1110,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1187,37 +1202,28 @@
         <v>13</v>
       </c>
       <c r="B3" s="19">
-        <v>2035</v>
+        <v>2023</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
       <c r="G3" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>53</v>
-      </c>
+      <c r="H3" s="20"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
       <c r="L3" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -1228,25 +1234,25 @@
         <v>2035</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>47</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G4" s="20" t="s">
         <v>31</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="J4" s="21" t="s">
         <v>52</v>
@@ -1255,83 +1261,83 @@
         <v>53</v>
       </c>
       <c r="L4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="19">
         <v>2035</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="E5" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="H5" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="J5" s="14" t="s">
+      <c r="H5" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="21" t="s">
         <v>53</v>
       </c>
       <c r="L5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="23">
         <v>2035</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="20" t="s">
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="J6" s="21" t="s">
+      <c r="H6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="K6" s="14" t="s">
         <v>53</v>
       </c>
       <c r="L6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -1342,29 +1348,34 @@
         <v>2035</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="20"/>
+        <v>66</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>31</v>
+      </c>
       <c r="H7" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" t="s">
-        <v>22</v>
+        <v>67</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>68</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>10</v>
+        <v>53</v>
+      </c>
+      <c r="L7" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -1375,7 +1386,7 @@
         <v>2035</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>19</v>
@@ -1384,51 +1395,52 @@
         <v>90</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="19">
+        <v>2035</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I9" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="6">
-        <v>2035</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="12" t="s">
+      <c r="J9" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1440,7 +1452,7 @@
         <v>2035</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>19</v>
@@ -1449,13 +1461,13 @@
         <v>28</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>10</v>
@@ -1472,7 +1484,7 @@
         <v>2035</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>19</v>
@@ -1481,25 +1493,19 @@
         <v>28</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>30</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>10</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1510,7 +1516,7 @@
         <v>2035</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>19</v>
@@ -1519,77 +1525,83 @@
         <v>28</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2035</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="10">
-        <v>2035</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="J13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <v>2035</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="9" t="s">
+      <c r="D14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F14" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I14" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6">
-        <v>2035</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="J14" s="12" t="s">
         <v>10</v>
@@ -1606,7 +1618,7 @@
         <v>2035</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>19</v>
@@ -1615,13 +1627,13 @@
         <v>28</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>158</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J15" s="12" t="s">
         <v>10</v>
@@ -1638,7 +1650,7 @@
         <v>2035</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>19</v>
@@ -1647,16 +1659,13 @@
         <v>28</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="J16" s="12" t="s">
         <v>10</v>
@@ -1673,7 +1682,7 @@
         <v>2035</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>19</v>
@@ -1682,54 +1691,63 @@
         <v>28</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>31</v>
       </c>
       <c r="H17" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="6">
+        <v>2035</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I18" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="J17" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="8">
-        <v>2035</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>133</v>
+      <c r="J18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -1740,7 +1758,7 @@
         <v>2035</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>19</v>
@@ -1749,16 +1767,19 @@
         <v>69</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J19" s="13" t="s">
         <v>10</v>
       </c>
       <c r="K19" s="13" t="s">
         <v>10</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -1769,7 +1790,7 @@
         <v>2035</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>19</v>
@@ -1778,13 +1799,10 @@
         <v>69</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J20" s="13" t="s">
         <v>10</v>
@@ -1801,7 +1819,7 @@
         <v>2035</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>19</v>
@@ -1810,13 +1828,13 @@
         <v>69</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="J21" s="13" t="s">
         <v>10</v>
@@ -1833,7 +1851,7 @@
         <v>2035</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>19</v>
@@ -1842,13 +1860,13 @@
         <v>69</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>108</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J22" s="13" t="s">
         <v>10</v>
@@ -1865,7 +1883,7 @@
         <v>2035</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>19</v>
@@ -1874,57 +1892,57 @@
         <v>69</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>108</v>
       </c>
       <c r="I23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I24" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="J23" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L23" s="7" t="s">
+      <c r="J24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="16">
-        <v>2035</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I24" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="J24" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K24" s="17" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -1935,7 +1953,7 @@
         <v>2035</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>19</v>
@@ -1944,13 +1962,13 @@
         <v>91</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J25" s="17" t="s">
         <v>10</v>
@@ -1967,7 +1985,7 @@
         <v>2035</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>19</v>
@@ -1976,25 +1994,19 @@
         <v>91</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="J26" s="17" t="s">
         <v>10</v>
       </c>
       <c r="K26" s="17" t="s">
         <v>10</v>
-      </c>
-      <c r="L26" s="15" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -2005,7 +2017,7 @@
         <v>2035</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>19</v>
@@ -2014,19 +2026,25 @@
         <v>91</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>148</v>
+        <v>126</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="H27" s="15" t="s">
         <v>119</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="J27" s="17" t="s">
         <v>10</v>
       </c>
       <c r="K27" s="17" t="s">
         <v>10</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -2037,7 +2055,7 @@
         <v>2035</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>19</v>
@@ -2046,7 +2064,7 @@
         <v>91</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H28" s="15" t="s">
         <v>119</v>
@@ -2069,7 +2087,7 @@
         <v>2035</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>19</v>
@@ -2078,55 +2096,55 @@
         <v>91</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H29" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="I29" s="18"/>
+      <c r="I29" s="18" t="s">
+        <v>120</v>
+      </c>
       <c r="J29" s="17" t="s">
         <v>10</v>
       </c>
       <c r="K29" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="15" t="s">
+    </row>
+    <row r="30" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I30" s="18"/>
+      <c r="J30" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L30" s="15" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="26">
-        <v>2035</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="F30" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="H30" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="I30" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="J30" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K30" s="28" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
@@ -2137,7 +2155,7 @@
         <v>2035</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D31" s="25" t="s">
         <v>19</v>
@@ -2146,13 +2164,13 @@
         <v>92</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H31" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I31" s="27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J31" s="28" t="s">
         <v>10</v>
@@ -2169,7 +2187,7 @@
         <v>2035</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="D32" s="25" t="s">
         <v>19</v>
@@ -2178,57 +2196,57 @@
         <v>92</v>
       </c>
       <c r="F32" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="H32" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="I32" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="J32" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="26">
+        <v>2035</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="G32" s="27" t="s">
+      <c r="G33" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H32" s="27" t="s">
+      <c r="H33" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="I32" s="27" t="s">
+      <c r="I33" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="J32" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K32" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="L32" s="27" t="s">
+      <c r="J33" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33" s="27" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F33" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="H33" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="I33" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="J33" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K33" s="31" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -2239,7 +2257,7 @@
         <v>2035</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D34" s="29" t="s">
         <v>19</v>
@@ -2248,13 +2266,13 @@
         <v>117</v>
       </c>
       <c r="F34" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I34" s="29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J34" s="31" t="s">
         <v>10</v>
@@ -2271,7 +2289,7 @@
         <v>2035</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="D35" s="29" t="s">
         <v>19</v>
@@ -2280,22 +2298,19 @@
         <v>117</v>
       </c>
       <c r="F35" s="29" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="H35" s="29" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="I35" s="29" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="J35" s="31" t="s">
         <v>10</v>
       </c>
       <c r="K35" s="31" t="s">
         <v>10</v>
-      </c>
-      <c r="L35" s="29" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -2306,7 +2321,7 @@
         <v>2035</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="D36" s="29" t="s">
         <v>19</v>
@@ -2315,19 +2330,22 @@
         <v>117</v>
       </c>
       <c r="F36" s="29" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="H36" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I36" s="29" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="J36" s="31" t="s">
         <v>10</v>
       </c>
       <c r="K36" s="31" t="s">
         <v>10</v>
+      </c>
+      <c r="L36" s="29" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -2338,7 +2356,7 @@
         <v>2035</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D37" s="29" t="s">
         <v>19</v>
@@ -2347,11 +2365,14 @@
         <v>117</v>
       </c>
       <c r="F37" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H37" s="29" t="s">
         <v>143</v>
       </c>
+      <c r="I37" s="29" t="s">
+        <v>144</v>
+      </c>
       <c r="J37" s="31" t="s">
         <v>10</v>
       </c>
@@ -2367,7 +2388,7 @@
         <v>2035</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D38" s="29" t="s">
         <v>19</v>
@@ -2376,10 +2397,7 @@
         <v>117</v>
       </c>
       <c r="F38" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="G38" s="29" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="H38" s="29" t="s">
         <v>143</v>
@@ -2390,17 +2408,49 @@
       <c r="K38" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="L38" s="29" t="s">
+    </row>
+    <row r="39" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F39" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="G39" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="H39" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="J39" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K39" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="L39" s="29" t="s">
         <v>152</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L35" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L36" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I5" r:id="rId1" xr:uid="{2F5DF9E8-6F7C-49D0-A88D-920944076562}"/>
-    <hyperlink ref="I12" r:id="rId2" xr:uid="{088533EE-4DDB-4145-8A51-9A459A5B0EE7}"/>
-    <hyperlink ref="I24" r:id="rId3" xr:uid="{7568B75C-5EC3-4B27-BBC3-154FC1450F6B}"/>
+    <hyperlink ref="I6" r:id="rId1" xr:uid="{2F5DF9E8-6F7C-49D0-A88D-920944076562}"/>
+    <hyperlink ref="I13" r:id="rId2" xr:uid="{088533EE-4DDB-4145-8A51-9A459A5B0EE7}"/>
+    <hyperlink ref="I25" r:id="rId3" xr:uid="{7568B75C-5EC3-4B27-BBC3-154FC1450F6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atapase\OneDrive - Metropolitan Transportation Commission\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EA8971-2E76-4490-ADDD-A2A8BE7066BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186F78C7-00E5-42AE-AB54-70AC1DCBA601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1114,7 +1114,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1202,7 +1202,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="19">
-        <v>2023</v>
+        <v>2035</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>169</v>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atapase\OneDrive - Metropolitan Transportation Commission\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186F78C7-00E5-42AE-AB54-70AC1DCBA601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F47EC77-69AA-4CDA-9445-C42ED277843C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -494,9 +494,6 @@
     <t>2035_TM160_NGFr2_NP04_Path6_02</t>
   </si>
   <si>
-    <t>H:\\Projects\\2035_TM160_NGFr2_NP04_Path6_02</t>
-  </si>
-  <si>
     <t>may not need to run this</t>
   </si>
   <si>
@@ -548,9 +545,6 @@
     <t>2023_TM160_IPA_57</t>
   </si>
   <si>
-    <t>2023 base year (IPA)</t>
-  </si>
-  <si>
     <t>G:\\Projects\\2023_TM160_IPA_57</t>
   </si>
   <si>
@@ -558,6 +552,12 @@
   </si>
   <si>
     <t>B:\\Projects\\2035_TM160_NGFr2_NP04_Path1_06</t>
+  </si>
+  <si>
+    <t>I:\\Projects\\2035_TM160_NGFr2_NP04_Path6_02</t>
+  </si>
+  <si>
+    <t>2023 base year</t>
   </si>
 </sst>
 </file>
@@ -1114,7 +1114,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1205,7 +1205,7 @@
         <v>2035</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>19</v>
@@ -1214,7 +1214,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G3" s="20" t="s">
         <v>31</v>
@@ -1223,7 +1223,7 @@
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
       <c r="L3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -1618,7 +1618,7 @@
         <v>2035</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>19</v>
@@ -1627,13 +1627,13 @@
         <v>28</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H15" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="J15" s="12" t="s">
         <v>10</v>
@@ -1650,7 +1650,7 @@
         <v>2035</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>19</v>
@@ -1659,13 +1659,13 @@
         <v>28</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>158</v>
-      </c>
       <c r="I16" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J16" s="12" t="s">
         <v>10</v>
@@ -1682,7 +1682,7 @@
         <v>2035</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>19</v>
@@ -1691,16 +1691,16 @@
         <v>28</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>31</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J17" s="12" t="s">
         <v>10</v>
@@ -1709,7 +1709,7 @@
         <v>10</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1720,7 +1720,7 @@
         <v>2035</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>19</v>
@@ -1729,16 +1729,16 @@
         <v>28</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>31</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J18" s="12" t="s">
         <v>10</v>
@@ -1747,7 +1747,7 @@
         <v>10</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2131,7 +2131,7 @@
         <v>126</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H30" s="15" t="s">
         <v>119</v>
@@ -2441,7 +2441,7 @@
         <v>10</v>
       </c>
       <c r="L39" s="29" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atapase\OneDrive - Metropolitan Transportation Commission\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F47EC77-69AA-4CDA-9445-C42ED277843C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70E60DE-8D99-47F5-9FE5-2253FFB24748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="all_runs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_runs!$A$1:$L$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_runs!$A$1:$L$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="203">
   <si>
     <t>category</t>
   </si>
@@ -558,6 +558,93 @@
   </si>
   <si>
     <t>2023 base year</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP04_Path1_07</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP04_Path1_08</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP04_Path1_09</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP04_Path1_10</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP04_Path1_11</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP04_Path1_12</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP04_Path1_13</t>
+  </si>
+  <si>
+    <t>P1 - 20c/5c</t>
+  </si>
+  <si>
+    <t>P1 - 30c/10c</t>
+  </si>
+  <si>
+    <t>P1 - 15c/5c</t>
+  </si>
+  <si>
+    <t>P1 - 40c/10c</t>
+  </si>
+  <si>
+    <t>P1 - 30c/10c - no road diet</t>
+  </si>
+  <si>
+    <t>P1 - 30c/10c - no road diet &amp; spd limit red</t>
+  </si>
+  <si>
+    <t>P1 - 30c/10c - no local road spd limit red</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>2d</t>
+  </si>
+  <si>
+    <t>2c</t>
+  </si>
+  <si>
+    <t>2a</t>
+  </si>
+  <si>
+    <t>3c</t>
+  </si>
+  <si>
+    <t>3a</t>
+  </si>
+  <si>
+    <t>3b</t>
+  </si>
+  <si>
+    <t>H:\\Projects\\2035_TM160_NGFr2_NP04_Path1_07</t>
+  </si>
+  <si>
+    <t>G:\\Projects\\2035_TM160_NGFr2_NP04_Path1_09</t>
+  </si>
+  <si>
+    <t>A:\\Projects\\2035_TM160_NGFr2_NP04_Path1_10</t>
+  </si>
+  <si>
+    <t>I:\\Projects\\2035_TM160_NGFr2_NP04_Path1_11</t>
+  </si>
+  <si>
+    <t>X:\\Projects\\2035_TM160_NGFr2_NP04_Path1_12</t>
+  </si>
+  <si>
+    <t>B:\\Projects\\2035_TM160_NGFr2_NP04_Path1_13</t>
+  </si>
+  <si>
+    <t>F:\\Projects\\2035_TM160_NGFr2_NP04_Path1_08</t>
   </si>
 </sst>
 </file>
@@ -1110,11 +1197,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1129,9 +1216,10 @@
     <col min="10" max="10" width="43.7109375" style="14" customWidth="1"/>
     <col min="11" max="11" width="15" style="14" customWidth="1"/>
     <col min="12" max="12" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1168,8 +1256,11 @@
       <c r="L1" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1197,7 +1288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1226,7 +1317,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1263,8 +1354,11 @@
       <c r="L4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1302,7 +1396,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1340,7 +1434,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1378,7 +1472,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1411,7 +1505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1444,7 +1538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -1476,7 +1570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1508,7 +1602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -1545,8 +1639,11 @@
       <c r="L12" s="4" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M12" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -1578,7 +1675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -1610,7 +1707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -1642,7 +1739,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
@@ -1674,7 +1771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
@@ -1711,8 +1808,11 @@
       <c r="L17" s="4" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M17" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
@@ -1749,708 +1849,940 @@
       <c r="L18" s="4" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="8">
-        <v>2035</v>
-      </c>
-      <c r="C19" s="7" t="s">
+      <c r="M18" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="6">
+        <v>2035</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="6">
+        <v>2035</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="6">
+        <v>2035</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="6">
+        <v>2035</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="6">
+        <v>2035</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="6">
+        <v>2035</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="6">
+        <v>2035</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="D26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F26" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I26" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="J19" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="J26" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="8">
-        <v>2035</v>
-      </c>
-      <c r="C20" s="7" t="s">
+      <c r="M26" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="D27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I27" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="J20" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="8">
-        <v>2035</v>
-      </c>
-      <c r="C21" s="7" t="s">
+      <c r="J27" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="7" t="s">
+      <c r="D28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F28" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H28" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I28" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="J21" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K21" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="8">
-        <v>2035</v>
-      </c>
-      <c r="C22" s="7" t="s">
+      <c r="J28" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="7" t="s">
+      <c r="D29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H29" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I29" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="J22" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K22" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="8">
-        <v>2035</v>
-      </c>
-      <c r="C23" s="7" t="s">
+      <c r="J29" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="7" t="s">
+      <c r="D30" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F30" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H30" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I30" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="J23" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="8">
-        <v>2035</v>
-      </c>
-      <c r="C24" s="7" t="s">
+      <c r="J30" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="7" t="s">
+      <c r="D31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F31" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H31" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I31" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="J24" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K24" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L24" s="7" t="s">
+      <c r="J31" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="16">
-        <v>2035</v>
-      </c>
-      <c r="C25" s="15" t="s">
+      <c r="M31" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C32" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="15" t="s">
+      <c r="D32" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F32" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="H32" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="I25" s="18" t="s">
+      <c r="I32" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="J25" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K25" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="16">
-        <v>2035</v>
-      </c>
-      <c r="C26" s="15" t="s">
+      <c r="J32" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C33" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="15" t="s">
+      <c r="D33" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F33" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H33" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="I26" s="18" t="s">
+      <c r="I33" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="J26" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K26" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="16">
-        <v>2035</v>
-      </c>
-      <c r="C27" s="15" t="s">
+      <c r="J33" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C34" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="15" t="s">
+      <c r="D34" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F34" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G34" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H27" s="15" t="s">
+      <c r="H34" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="I27" s="18" t="s">
+      <c r="I34" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="J27" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K27" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L27" s="15" t="s">
+      <c r="J34" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K34" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L34" s="15" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="16">
-        <v>2035</v>
-      </c>
-      <c r="C28" s="15" t="s">
+    <row r="35" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="D28" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="15" t="s">
+      <c r="D35" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F35" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H35" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="I28" s="18" t="s">
+      <c r="I35" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="J28" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K28" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="16">
-        <v>2035</v>
-      </c>
-      <c r="C29" s="15" t="s">
+      <c r="J35" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="D29" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="15" t="s">
+      <c r="D36" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F36" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H36" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="I29" s="18" t="s">
+      <c r="I36" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="J29" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K29" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="16">
-        <v>2035</v>
-      </c>
-      <c r="C30" s="15" t="s">
+      <c r="J36" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K36" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C37" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D30" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="15" t="s">
+      <c r="D37" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F37" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="G30" s="15" t="s">
+      <c r="G37" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="H37" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="I30" s="18"/>
-      <c r="J30" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K30" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L30" s="15" t="s">
+      <c r="I37" s="18"/>
+      <c r="J37" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L37" s="15" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="26">
-        <v>2035</v>
-      </c>
-      <c r="C31" s="27" t="s">
+    <row r="38" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="26">
+        <v>2035</v>
+      </c>
+      <c r="C38" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="25" t="s">
+      <c r="D38" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="F31" s="25" t="s">
+      <c r="F38" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="H31" s="27" t="s">
+      <c r="H38" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="I31" s="27" t="s">
+      <c r="I38" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K31" s="28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="26">
-        <v>2035</v>
-      </c>
-      <c r="C32" s="27" t="s">
+      <c r="J38" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K38" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="26">
+        <v>2035</v>
+      </c>
+      <c r="C39" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="25" t="s">
+      <c r="D39" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="F32" s="25" t="s">
+      <c r="F39" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="H32" s="27" t="s">
+      <c r="H39" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="I32" s="27" t="s">
+      <c r="I39" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="J32" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K32" s="28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="26">
-        <v>2035</v>
-      </c>
-      <c r="C33" s="27" t="s">
+      <c r="J39" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K39" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="26">
+        <v>2035</v>
+      </c>
+      <c r="C40" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="25" t="s">
+      <c r="D40" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="F33" s="25" t="s">
+      <c r="F40" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="G33" s="27" t="s">
+      <c r="G40" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H33" s="27" t="s">
+      <c r="H40" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="I33" s="27" t="s">
+      <c r="I40" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="J33" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K33" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="L33" s="27" t="s">
+      <c r="J40" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K40" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="L40" s="27" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C34" s="29" t="s">
+      <c r="M40" s="27" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C41" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="D34" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" s="29" t="s">
+      <c r="D41" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="F34" s="29" t="s">
+      <c r="F41" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="H34" s="29" t="s">
+      <c r="H41" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="I34" s="29" t="s">
+      <c r="I41" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="J34" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K34" s="31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C35" s="29" t="s">
+      <c r="J41" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K41" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C42" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="D35" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" s="29" t="s">
+      <c r="D42" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="F35" s="29" t="s">
+      <c r="F42" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="H35" s="29" t="s">
+      <c r="H42" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="I35" s="29" t="s">
+      <c r="I42" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="J35" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K35" s="31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C36" s="29" t="s">
+      <c r="J42" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K42" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C43" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="D36" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="29" t="s">
+      <c r="D43" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="F36" s="29" t="s">
+      <c r="F43" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="H36" s="29" t="s">
+      <c r="H43" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="I36" s="29" t="s">
+      <c r="I43" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="J36" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K36" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="L36" s="29" t="s">
+      <c r="J43" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K43" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="L43" s="29" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C37" s="29" t="s">
+    <row r="44" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C44" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D37" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" s="29" t="s">
+      <c r="D44" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="F37" s="29" t="s">
+      <c r="F44" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="H37" s="29" t="s">
+      <c r="H44" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="I37" s="29" t="s">
+      <c r="I44" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="J37" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K37" s="31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C38" s="29" t="s">
+      <c r="J44" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K44" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C45" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="D38" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="29" t="s">
+      <c r="D45" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="F38" s="29" t="s">
+      <c r="F45" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="H38" s="29" t="s">
+      <c r="H45" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="J38" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K38" s="31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C39" s="29" t="s">
+      <c r="J45" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K45" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C46" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="D39" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="29" t="s">
+      <c r="D46" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="F39" s="29" t="s">
+      <c r="F46" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="G39" s="29" t="s">
+      <c r="G46" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="H39" s="29" t="s">
+      <c r="H46" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="J39" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K39" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="L39" s="29" t="s">
+      <c r="J46" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K46" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="L46" s="29" t="s">
         <v>172</v>
       </c>
+      <c r="M46" s="29" t="s">
+        <v>193</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L36" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L43" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I6" r:id="rId1" xr:uid="{2F5DF9E8-6F7C-49D0-A88D-920944076562}"/>
     <hyperlink ref="I13" r:id="rId2" xr:uid="{088533EE-4DDB-4145-8A51-9A459A5B0EE7}"/>
-    <hyperlink ref="I25" r:id="rId3" xr:uid="{7568B75C-5EC3-4B27-BBC3-154FC1450F6B}"/>
+    <hyperlink ref="I32" r:id="rId3" xr:uid="{7568B75C-5EC3-4B27-BBC3-154FC1450F6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atapase\OneDrive - Metropolitan Transportation Commission\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70E60DE-8D99-47F5-9FE5-2253FFB24748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E092E6-08FC-4D50-A476-3B2072C273FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="all_runs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_runs!$A$1:$L$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_runs!$A$1:$L$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="200">
   <si>
     <t>category</t>
   </si>
@@ -560,9 +560,6 @@
     <t>2023 base year</t>
   </si>
   <si>
-    <t>2035_TM160_NGFr2_NP04_Path1_07</t>
-  </si>
-  <si>
     <t>2035_TM160_NGFr2_NP04_Path1_08</t>
   </si>
   <si>
@@ -584,9 +581,6 @@
     <t>P1 - 20c/5c</t>
   </si>
   <si>
-    <t>P1 - 30c/10c</t>
-  </si>
-  <si>
     <t>P1 - 15c/5c</t>
   </si>
   <si>
@@ -624,9 +618,6 @@
   </si>
   <si>
     <t>3b</t>
-  </si>
-  <si>
-    <t>H:\\Projects\\2035_TM160_NGFr2_NP04_Path1_07</t>
   </si>
   <si>
     <t>G:\\Projects\\2035_TM160_NGFr2_NP04_Path1_09</t>
@@ -1197,11 +1188,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1257,7 +1248,7 @@
         <v>130</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -1355,7 +1346,7 @@
         <v>137</v>
       </c>
       <c r="M4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -1640,7 +1631,7 @@
         <v>131</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1809,7 +1800,7 @@
         <v>170</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1850,7 +1841,7 @@
         <v>171</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1870,7 +1861,7 @@
         <v>28</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>31</v>
@@ -1878,10 +1869,10 @@
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1909,10 +1900,10 @@
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="4" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1932,7 +1923,7 @@
         <v>28</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>31</v>
@@ -1940,10 +1931,10 @@
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1963,7 +1954,7 @@
         <v>28</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>31</v>
@@ -1971,10 +1962,10 @@
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2002,10 +1993,10 @@
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2025,7 +2016,7 @@
         <v>28</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>31</v>
@@ -2033,41 +2024,45 @@
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="6">
-        <v>2035</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2078,7 +2073,7 @@
         <v>2035</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>19</v>
@@ -2087,22 +2082,16 @@
         <v>69</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J26" s="13" t="s">
         <v>10</v>
       </c>
       <c r="K26" s="13" t="s">
         <v>10</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2113,7 +2102,7 @@
         <v>2035</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>19</v>
@@ -2122,10 +2111,13 @@
         <v>69</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J27" s="13" t="s">
         <v>10</v>
@@ -2142,7 +2134,7 @@
         <v>2035</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>19</v>
@@ -2151,13 +2143,13 @@
         <v>69</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="J28" s="13" t="s">
         <v>10</v>
@@ -2174,7 +2166,7 @@
         <v>2035</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>19</v>
@@ -2183,13 +2175,13 @@
         <v>69</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>108</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J29" s="13" t="s">
         <v>10</v>
@@ -2206,7 +2198,7 @@
         <v>2035</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>19</v>
@@ -2215,13 +2207,16 @@
         <v>69</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>108</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J30" s="13" t="s">
         <v>10</v>
@@ -2229,46 +2224,43 @@
       <c r="K30" s="13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="8">
-        <v>2035</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K31" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L31" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="M31" s="7" t="s">
-        <v>195</v>
+      <c r="M30" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="J31" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" s="17" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -2279,7 +2271,7 @@
         <v>2035</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>19</v>
@@ -2288,13 +2280,13 @@
         <v>91</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J32" s="17" t="s">
         <v>10</v>
@@ -2311,7 +2303,7 @@
         <v>2035</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>19</v>
@@ -2320,19 +2312,25 @@
         <v>91</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>85</v>
+        <v>126</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="J33" s="17" t="s">
         <v>10</v>
       </c>
       <c r="K33" s="17" t="s">
         <v>10</v>
+      </c>
+      <c r="L33" s="15" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -2343,7 +2341,7 @@
         <v>2035</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>19</v>
@@ -2352,25 +2350,19 @@
         <v>91</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="H34" s="15" t="s">
         <v>119</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="J34" s="17" t="s">
         <v>10</v>
       </c>
       <c r="K34" s="17" t="s">
         <v>10</v>
-      </c>
-      <c r="L34" s="15" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -2381,7 +2373,7 @@
         <v>2035</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>19</v>
@@ -2390,7 +2382,7 @@
         <v>91</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H35" s="15" t="s">
         <v>119</v>
@@ -2413,7 +2405,7 @@
         <v>2035</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>19</v>
@@ -2422,55 +2414,55 @@
         <v>91</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>149</v>
+        <v>126</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>152</v>
       </c>
       <c r="H36" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="I36" s="18" t="s">
-        <v>120</v>
-      </c>
+      <c r="I36" s="18"/>
       <c r="J36" s="17" t="s">
         <v>10</v>
       </c>
       <c r="K36" s="17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="16">
-        <v>2035</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="I37" s="18"/>
-      <c r="J37" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K37" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L37" s="15" t="s">
+      <c r="L36" s="15" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="26">
+        <v>2035</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="I37" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="J37" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37" s="28" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
@@ -2481,7 +2473,7 @@
         <v>2035</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D38" s="25" t="s">
         <v>19</v>
@@ -2490,13 +2482,13 @@
         <v>92</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H38" s="27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I38" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J38" s="28" t="s">
         <v>10</v>
@@ -2513,7 +2505,7 @@
         <v>2035</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="D39" s="25" t="s">
         <v>19</v>
@@ -2522,13 +2514,16 @@
         <v>92</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>94</v>
+        <v>124</v>
+      </c>
+      <c r="G39" s="27" t="s">
+        <v>31</v>
       </c>
       <c r="H39" s="27" t="s">
-        <v>96</v>
+        <v>145</v>
       </c>
       <c r="I39" s="27" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="J39" s="28" t="s">
         <v>10</v>
@@ -2536,46 +2531,43 @@
       <c r="K39" s="28" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="26">
-        <v>2035</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="F40" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="G40" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="H40" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="I40" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="J40" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K40" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="L40" s="27" t="s">
+      <c r="L39" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="M40" s="27" t="s">
-        <v>190</v>
+      <c r="M39" s="27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F40" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="H40" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="I40" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="J40" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K40" s="31" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -2586,7 +2578,7 @@
         <v>2035</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D41" s="29" t="s">
         <v>19</v>
@@ -2595,13 +2587,13 @@
         <v>117</v>
       </c>
       <c r="F41" s="29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H41" s="29" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I41" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J41" s="31" t="s">
         <v>10</v>
@@ -2618,7 +2610,7 @@
         <v>2035</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="D42" s="29" t="s">
         <v>19</v>
@@ -2627,19 +2619,22 @@
         <v>117</v>
       </c>
       <c r="F42" s="29" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="H42" s="29" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="I42" s="29" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="J42" s="31" t="s">
         <v>10</v>
       </c>
       <c r="K42" s="31" t="s">
         <v>10</v>
+      </c>
+      <c r="L42" s="29" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -2650,7 +2645,7 @@
         <v>2035</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="D43" s="29" t="s">
         <v>19</v>
@@ -2659,22 +2654,19 @@
         <v>117</v>
       </c>
       <c r="F43" s="29" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="H43" s="29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I43" s="29" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="J43" s="31" t="s">
         <v>10</v>
       </c>
       <c r="K43" s="31" t="s">
         <v>10</v>
-      </c>
-      <c r="L43" s="29" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -2685,7 +2677,7 @@
         <v>2035</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D44" s="29" t="s">
         <v>19</v>
@@ -2694,14 +2686,11 @@
         <v>117</v>
       </c>
       <c r="F44" s="29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H44" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="I44" s="29" t="s">
-        <v>144</v>
-      </c>
       <c r="J44" s="31" t="s">
         <v>10</v>
       </c>
@@ -2717,7 +2706,7 @@
         <v>2035</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D45" s="29" t="s">
         <v>19</v>
@@ -2726,7 +2715,10 @@
         <v>117</v>
       </c>
       <c r="F45" s="29" t="s">
-        <v>103</v>
+        <v>127</v>
+      </c>
+      <c r="G45" s="29" t="s">
+        <v>31</v>
       </c>
       <c r="H45" s="29" t="s">
         <v>143</v>
@@ -2737,52 +2729,20 @@
       <c r="K45" s="31" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C46" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="D46" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F46" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="G46" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="H46" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="J46" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K46" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="L46" s="29" t="s">
+      <c r="L45" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="M46" s="29" t="s">
-        <v>193</v>
+      <c r="M45" s="29" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L43" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L42" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I6" r:id="rId1" xr:uid="{2F5DF9E8-6F7C-49D0-A88D-920944076562}"/>
     <hyperlink ref="I13" r:id="rId2" xr:uid="{088533EE-4DDB-4145-8A51-9A459A5B0EE7}"/>
-    <hyperlink ref="I32" r:id="rId3" xr:uid="{7568B75C-5EC3-4B27-BBC3-154FC1450F6B}"/>
+    <hyperlink ref="I31" r:id="rId3" xr:uid="{7568B75C-5EC3-4B27-BBC3-154FC1450F6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atapase\OneDrive - Metropolitan Transportation Commission\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E092E6-08FC-4D50-A476-3B2072C273FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17B5884-3025-48C0-8F61-178096AF22C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="all_runs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_runs!$A$1:$L$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_runs!$A$1:$L$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="203">
   <si>
     <t>category</t>
   </si>
@@ -636,6 +636,15 @@
   </si>
   <si>
     <t>F:\\Projects\\2035_TM160_NGFr2_NP04_Path1_08</t>
+  </si>
+  <si>
+    <t>P1 - 30c/10c</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP04_Path1_07</t>
+  </si>
+  <si>
+    <t>H:\\Projects\\2035_TM160_NGFr2_NP04_Path1_07</t>
   </si>
 </sst>
 </file>
@@ -1188,11 +1197,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1852,7 +1861,7 @@
         <v>2035</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>19</v>
@@ -1861,7 +1870,7 @@
         <v>28</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>31</v>
@@ -1869,10 +1878,10 @@
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1883,7 +1892,7 @@
         <v>2035</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>19</v>
@@ -1892,7 +1901,7 @@
         <v>28</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>31</v>
@@ -1900,10 +1909,10 @@
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="4" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1914,7 +1923,7 @@
         <v>2035</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>19</v>
@@ -1923,7 +1932,7 @@
         <v>28</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>31</v>
@@ -1931,10 +1940,10 @@
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1945,7 +1954,7 @@
         <v>2035</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>19</v>
@@ -1954,7 +1963,7 @@
         <v>28</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>31</v>
@@ -1962,10 +1971,10 @@
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1976,7 +1985,7 @@
         <v>2035</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>19</v>
@@ -1985,7 +1994,7 @@
         <v>28</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>31</v>
@@ -1993,10 +2002,10 @@
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2007,7 +2016,7 @@
         <v>2035</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>19</v>
@@ -2016,7 +2025,7 @@
         <v>28</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>31</v>
@@ -2024,45 +2033,41 @@
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="6">
+        <v>2035</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="M24" s="4" t="s">
+      <c r="M25" s="4" t="s">
         <v>193</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="8">
-        <v>2035</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K25" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2073,7 +2078,7 @@
         <v>2035</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>19</v>
@@ -2082,16 +2087,22 @@
         <v>69</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J26" s="13" t="s">
         <v>10</v>
       </c>
       <c r="K26" s="13" t="s">
         <v>10</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2102,7 +2113,7 @@
         <v>2035</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>19</v>
@@ -2111,13 +2122,10 @@
         <v>69</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J27" s="13" t="s">
         <v>10</v>
@@ -2134,7 +2142,7 @@
         <v>2035</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>19</v>
@@ -2143,13 +2151,13 @@
         <v>69</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="J28" s="13" t="s">
         <v>10</v>
@@ -2166,7 +2174,7 @@
         <v>2035</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>19</v>
@@ -2175,13 +2183,13 @@
         <v>69</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>108</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J29" s="13" t="s">
         <v>10</v>
@@ -2198,7 +2206,7 @@
         <v>2035</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>19</v>
@@ -2207,60 +2215,60 @@
         <v>69</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>108</v>
       </c>
       <c r="I30" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I31" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="J30" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K30" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L30" s="7" t="s">
+      <c r="J31" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="M30" s="7" t="s">
+      <c r="M31" s="7" t="s">
         <v>193</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="16">
-        <v>2035</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I31" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="J31" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K31" s="17" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -2271,7 +2279,7 @@
         <v>2035</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>19</v>
@@ -2280,13 +2288,13 @@
         <v>91</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J32" s="17" t="s">
         <v>10</v>
@@ -2303,7 +2311,7 @@
         <v>2035</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>19</v>
@@ -2312,25 +2320,19 @@
         <v>91</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="J33" s="17" t="s">
         <v>10</v>
       </c>
       <c r="K33" s="17" t="s">
         <v>10</v>
-      </c>
-      <c r="L33" s="15" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -2341,7 +2343,7 @@
         <v>2035</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>19</v>
@@ -2350,19 +2352,25 @@
         <v>91</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>148</v>
+        <v>126</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="H34" s="15" t="s">
         <v>119</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="J34" s="17" t="s">
         <v>10</v>
       </c>
       <c r="K34" s="17" t="s">
         <v>10</v>
+      </c>
+      <c r="L34" s="15" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -2373,7 +2381,7 @@
         <v>2035</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>19</v>
@@ -2382,7 +2390,7 @@
         <v>91</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H35" s="15" t="s">
         <v>119</v>
@@ -2405,7 +2413,7 @@
         <v>2035</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>19</v>
@@ -2414,55 +2422,55 @@
         <v>91</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H36" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="I36" s="18"/>
+      <c r="I36" s="18" t="s">
+        <v>120</v>
+      </c>
       <c r="J36" s="17" t="s">
         <v>10</v>
       </c>
       <c r="K36" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L36" s="15" t="s">
+    </row>
+    <row r="37" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I37" s="18"/>
+      <c r="J37" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L37" s="15" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="26">
-        <v>2035</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="F37" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="H37" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="I37" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="J37" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K37" s="28" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
@@ -2473,7 +2481,7 @@
         <v>2035</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D38" s="25" t="s">
         <v>19</v>
@@ -2482,13 +2490,13 @@
         <v>92</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H38" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I38" s="27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J38" s="28" t="s">
         <v>10</v>
@@ -2505,7 +2513,7 @@
         <v>2035</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="D39" s="25" t="s">
         <v>19</v>
@@ -2514,60 +2522,60 @@
         <v>92</v>
       </c>
       <c r="F39" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="H39" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="I39" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="J39" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K39" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="26">
+        <v>2035</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="G39" s="27" t="s">
+      <c r="G40" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H39" s="27" t="s">
+      <c r="H40" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="I39" s="27" t="s">
+      <c r="I40" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="J39" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K39" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="L39" s="27" t="s">
+      <c r="J40" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K40" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="L40" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="M39" s="27" t="s">
+      <c r="M40" s="27" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C40" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="D40" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F40" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="H40" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="I40" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="J40" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K40" s="31" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -2578,7 +2586,7 @@
         <v>2035</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D41" s="29" t="s">
         <v>19</v>
@@ -2587,13 +2595,13 @@
         <v>117</v>
       </c>
       <c r="F41" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H41" s="29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I41" s="29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J41" s="31" t="s">
         <v>10</v>
@@ -2610,7 +2618,7 @@
         <v>2035</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="D42" s="29" t="s">
         <v>19</v>
@@ -2619,22 +2627,19 @@
         <v>117</v>
       </c>
       <c r="F42" s="29" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="H42" s="29" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="I42" s="29" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="J42" s="31" t="s">
         <v>10</v>
       </c>
       <c r="K42" s="31" t="s">
         <v>10</v>
-      </c>
-      <c r="L42" s="29" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -2645,7 +2650,7 @@
         <v>2035</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="D43" s="29" t="s">
         <v>19</v>
@@ -2654,19 +2659,22 @@
         <v>117</v>
       </c>
       <c r="F43" s="29" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="H43" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I43" s="29" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="J43" s="31" t="s">
         <v>10</v>
       </c>
       <c r="K43" s="31" t="s">
         <v>10</v>
+      </c>
+      <c r="L43" s="29" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -2677,7 +2685,7 @@
         <v>2035</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D44" s="29" t="s">
         <v>19</v>
@@ -2686,11 +2694,14 @@
         <v>117</v>
       </c>
       <c r="F44" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H44" s="29" t="s">
         <v>143</v>
       </c>
+      <c r="I44" s="29" t="s">
+        <v>144</v>
+      </c>
       <c r="J44" s="31" t="s">
         <v>10</v>
       </c>
@@ -2706,7 +2717,7 @@
         <v>2035</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D45" s="29" t="s">
         <v>19</v>
@@ -2715,10 +2726,7 @@
         <v>117</v>
       </c>
       <c r="F45" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="G45" s="29" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="H45" s="29" t="s">
         <v>143</v>
@@ -2729,20 +2737,52 @@
       <c r="K45" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="L45" s="29" t="s">
+    </row>
+    <row r="46" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F46" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="G46" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="H46" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="J46" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K46" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="L46" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="M45" s="29" t="s">
+      <c r="M46" s="29" t="s">
         <v>191</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L42" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L43" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I6" r:id="rId1" xr:uid="{2F5DF9E8-6F7C-49D0-A88D-920944076562}"/>
     <hyperlink ref="I13" r:id="rId2" xr:uid="{088533EE-4DDB-4145-8A51-9A459A5B0EE7}"/>
-    <hyperlink ref="I31" r:id="rId3" xr:uid="{7568B75C-5EC3-4B27-BBC3-154FC1450F6B}"/>
+    <hyperlink ref="I32" r:id="rId3" xr:uid="{7568B75C-5EC3-4B27-BBC3-154FC1450F6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atapase\OneDrive - Metropolitan Transportation Commission\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17B5884-3025-48C0-8F61-178096AF22C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21B7DC1-C875-443A-B3A7-4B9CF36338E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_runs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_runs!$A$1:$L$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_runs!$A$1:$L$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="215">
   <si>
     <t>category</t>
   </si>
@@ -645,6 +645,42 @@
   </si>
   <si>
     <t>H:\\Projects\\2035_TM160_NGFr2_NP04_Path1_07</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGF_r2_NoProject_04_AOCplus2.9cents</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGF_r2_NoProject_04_AOCplus5.9cents</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGF_r2_NoProject_04_AOCplus4.4cents</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGF_r2_NoProject_04_AOCplus1.5cents</t>
+  </si>
+  <si>
+    <t>B:\\Projects\\2035_TM160_NGF_r2_NoProject_04_AOCplus5.9cents</t>
+  </si>
+  <si>
+    <t>F:\\Projects\\2035_TM160_NGF_r2_NoProject_04_AOCplus1.5cents</t>
+  </si>
+  <si>
+    <t>G:\\Projects\\2035_TM160_NGF_r2_NoProject_04_AOCplus2.9cents</t>
+  </si>
+  <si>
+    <t>I:\\Projects\\2035_TM160_NGF_r2_NoProject_04_AOCplus4.4cents</t>
+  </si>
+  <si>
+    <t>NP run - with 2.5c auto MBUF</t>
+  </si>
+  <si>
+    <t>NP run - with 5.0c auto MBUF</t>
+  </si>
+  <si>
+    <t>NP run - with 7.5c auto MBUF</t>
+  </si>
+  <si>
+    <t>NP run - with 10.0c auto MBUF</t>
   </si>
 </sst>
 </file>
@@ -1197,11 +1233,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2271,138 +2307,144 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="16">
-        <v>2035</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I32" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="J32" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K32" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="16">
-        <v>2035</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I33" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="J33" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K33" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="16">
-        <v>2035</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="G34" s="15" t="s">
+    <row r="32" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H34" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="I34" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="J34" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K34" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L34" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="16">
-        <v>2035</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="I35" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="J35" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K35" s="17" t="s">
-        <v>10</v>
+      <c r="J32" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K34" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -2413,7 +2455,7 @@
         <v>2035</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>19</v>
@@ -2422,13 +2464,13 @@
         <v>91</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="J36" s="17" t="s">
         <v>10</v>
@@ -2445,7 +2487,7 @@
         <v>2035</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>19</v>
@@ -2454,259 +2496,262 @@
         <v>91</v>
       </c>
       <c r="F37" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="J37" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="G37" s="15" t="s">
+      <c r="G38" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I38" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J38" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K38" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L38" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I39" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="J39" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K39" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I40" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="J40" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K40" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G41" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="H37" s="15" t="s">
+      <c r="H41" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="I37" s="18"/>
-      <c r="J37" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K37" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L37" s="15" t="s">
+      <c r="I41" s="18"/>
+      <c r="J41" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K41" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L41" s="15" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="26">
-        <v>2035</v>
-      </c>
-      <c r="C38" s="27" t="s">
+    <row r="42" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="26">
+        <v>2035</v>
+      </c>
+      <c r="C42" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="D38" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="25" t="s">
+      <c r="D42" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="F38" s="25" t="s">
+      <c r="F42" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="H38" s="27" t="s">
+      <c r="H42" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="I38" s="27" t="s">
+      <c r="I42" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="J38" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K38" s="28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" s="26">
-        <v>2035</v>
-      </c>
-      <c r="C39" s="27" t="s">
+      <c r="J42" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K42" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="26">
+        <v>2035</v>
+      </c>
+      <c r="C43" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="D39" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="25" t="s">
+      <c r="D43" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="F39" s="25" t="s">
+      <c r="F43" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="H39" s="27" t="s">
+      <c r="H43" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="I39" s="27" t="s">
+      <c r="I43" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="J39" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K39" s="28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="26">
-        <v>2035</v>
-      </c>
-      <c r="C40" s="27" t="s">
+      <c r="J43" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K43" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="26">
+        <v>2035</v>
+      </c>
+      <c r="C44" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="D40" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" s="25" t="s">
+      <c r="D44" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="F40" s="25" t="s">
+      <c r="F44" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="G40" s="27" t="s">
+      <c r="G44" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H40" s="27" t="s">
+      <c r="H44" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="I40" s="27" t="s">
+      <c r="I44" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="J40" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K40" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="L40" s="27" t="s">
+      <c r="J44" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K44" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="L44" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="M40" s="27" t="s">
+      <c r="M44" s="27" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C41" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="D41" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F41" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="H41" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="I41" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="J41" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K41" s="31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C42" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="D42" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F42" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="H42" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="I42" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="J42" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K42" s="31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C43" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="D43" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F43" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="H43" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="I43" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="J43" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K43" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="L43" s="29" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C44" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="D44" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E44" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F44" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="H44" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="I44" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="J44" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K44" s="31" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -2717,7 +2762,7 @@
         <v>2035</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="D45" s="29" t="s">
         <v>19</v>
@@ -2726,10 +2771,13 @@
         <v>117</v>
       </c>
       <c r="F45" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H45" s="29" t="s">
-        <v>143</v>
+        <v>101</v>
+      </c>
+      <c r="I45" s="29" t="s">
+        <v>106</v>
       </c>
       <c r="J45" s="31" t="s">
         <v>10</v>
@@ -2746,7 +2794,7 @@
         <v>2035</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="D46" s="29" t="s">
         <v>19</v>
@@ -2755,34 +2803,162 @@
         <v>117</v>
       </c>
       <c r="F46" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="H46" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="I46" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="J46" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K46" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F47" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="G46" s="29" t="s">
+      <c r="H47" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="I47" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="J47" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K47" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="L47" s="29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F48" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="H48" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="I48" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="J48" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K48" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F49" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="H49" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="J49" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K49" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D50" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F50" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="G50" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="H46" s="29" t="s">
+      <c r="H50" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="J46" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K46" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="L46" s="29" t="s">
+      <c r="J50" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K50" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="L50" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="M46" s="29" t="s">
+      <c r="M50" s="29" t="s">
         <v>191</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L43" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L47" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I6" r:id="rId1" xr:uid="{2F5DF9E8-6F7C-49D0-A88D-920944076562}"/>
     <hyperlink ref="I13" r:id="rId2" xr:uid="{088533EE-4DDB-4145-8A51-9A459A5B0EE7}"/>
-    <hyperlink ref="I32" r:id="rId3" xr:uid="{7568B75C-5EC3-4B27-BBC3-154FC1450F6B}"/>
+    <hyperlink ref="I36" r:id="rId3" xr:uid="{7568B75C-5EC3-4B27-BBC3-154FC1450F6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atapase\OneDrive - Metropolitan Transportation Commission\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21B7DC1-C875-443A-B3A7-4B9CF36338E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A327DD-A47E-4435-BD5E-6DDE0A0F4C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="215">
   <si>
     <t>category</t>
   </si>
@@ -1237,7 +1237,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1343,9 +1343,7 @@
       <c r="F3" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="G3" s="20" t="s">
-        <v>31</v>
-      </c>
+      <c r="G3" s="20"/>
       <c r="H3" s="20"/>
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atapase\OneDrive - Metropolitan Transportation Commission\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A327DD-A47E-4435-BD5E-6DDE0A0F4C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CCE324-C158-4F7A-A5FF-B72D85E68298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="215">
   <si>
     <t>category</t>
   </si>
@@ -1237,7 +1237,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1655,9 +1655,6 @@
       <c r="F12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="H12" s="4" t="s">
         <v>30</v>
       </c>
@@ -1824,9 +1821,6 @@
       <c r="F17" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="H17" s="4" t="s">
         <v>164</v>
       </c>
@@ -1865,9 +1859,6 @@
       <c r="F18" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="H18" s="4" t="s">
         <v>165</v>
       </c>
@@ -1905,9 +1896,6 @@
       </c>
       <c r="F19" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
@@ -1937,9 +1925,6 @@
       <c r="F20" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="4" t="s">
@@ -1968,9 +1953,6 @@
       <c r="F21" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="4" t="s">
@@ -1999,9 +1981,6 @@
       <c r="F22" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="4" t="s">
@@ -2030,9 +2009,6 @@
       <c r="F23" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="4" t="s">
@@ -2092,9 +2068,6 @@
       <c r="F25" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="4" t="s">
@@ -2323,9 +2296,6 @@
       </c>
       <c r="F32" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="J32" s="13" t="s">
         <v>10</v>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atapase\OneDrive - Metropolitan Transportation Commission\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CCE324-C158-4F7A-A5FF-B72D85E68298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A6C80F-A6BA-41C5-AA55-A4A902B2F582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_runs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_runs!$A$1:$L$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_runs!$A$1:$L$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="223">
   <si>
     <t>category</t>
   </si>
@@ -681,6 +681,30 @@
   </si>
   <si>
     <t>NP run - with 10.0c auto MBUF</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGF_r2_NoProject_04_add1.5c</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGF_r2_NoProject_04_add2.9c</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGF_r2_NoProject_04_add4.4c</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGF_r2_NoProject_04_add5.9c</t>
+  </si>
+  <si>
+    <t>I:\\Projects\\2035_TM160_NGF_r2_NoProject_04_add4.4c</t>
+  </si>
+  <si>
+    <t>F:\\Projects\\2035_TM160_NGF_r2_NoProject_04_add1.5c</t>
+  </si>
+  <si>
+    <t>G:\\Projects\\2035_TM160_NGF_r2_NoProject_04_add2.9c</t>
+  </si>
+  <si>
+    <t>B:\\Projects\\2035_TM160_NGF_r2_NoProject_04_add5.9c</t>
   </si>
 </sst>
 </file>
@@ -1233,11 +1257,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1251,7 +1275,7 @@
     <col min="9" max="9" width="59.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.7109375" style="14" customWidth="1"/>
     <col min="11" max="11" width="15" style="14" customWidth="1"/>
-    <col min="12" max="12" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="56.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1370,9 +1394,7 @@
       <c r="F4" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="20" t="s">
-        <v>31</v>
-      </c>
+      <c r="G4" s="20"/>
       <c r="H4" s="20" t="s">
         <v>50</v>
       </c>
@@ -1411,9 +1433,7 @@
       <c r="F5" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>31</v>
-      </c>
+      <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
         <v>57</v>
       </c>
@@ -1449,9 +1469,6 @@
       <c r="F6" t="s">
         <v>61</v>
       </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
       <c r="H6" t="s">
         <v>62</v>
       </c>
@@ -1487,9 +1504,7 @@
       <c r="F7" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="20" t="s">
-        <v>31</v>
-      </c>
+      <c r="G7" s="20"/>
       <c r="H7" s="20" t="s">
         <v>67</v>
       </c>
@@ -2297,6 +2312,9 @@
       <c r="F32" s="7" t="s">
         <v>211</v>
       </c>
+      <c r="G32" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="J32" s="13" t="s">
         <v>10</v>
       </c>
@@ -2415,138 +2433,144 @@
         <v>193</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="16">
-        <v>2035</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I36" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="J36" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K36" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="16">
-        <v>2035</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I37" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="J37" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K37" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="16">
-        <v>2035</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="G38" s="15" t="s">
+    <row r="36" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H38" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="I38" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="J38" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K38" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L38" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" s="16">
-        <v>2035</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="I39" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="J39" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K39" s="17" t="s">
-        <v>10</v>
+      <c r="J36" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K36" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K39" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="M39" s="7" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -2557,7 +2581,7 @@
         <v>2035</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D40" s="15" t="s">
         <v>19</v>
@@ -2566,13 +2590,13 @@
         <v>91</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="I40" s="18" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="J40" s="17" t="s">
         <v>10</v>
@@ -2589,7 +2613,7 @@
         <v>2035</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>19</v>
@@ -2598,259 +2622,262 @@
         <v>91</v>
       </c>
       <c r="F41" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I41" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="J41" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K41" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F42" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="G41" s="15" t="s">
+      <c r="G42" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I42" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J42" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K42" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L42" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I43" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="J43" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K43" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I44" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="J44" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K44" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G45" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="H41" s="15" t="s">
+      <c r="H45" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="I41" s="18"/>
-      <c r="J41" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K41" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L41" s="15" t="s">
+      <c r="I45" s="18"/>
+      <c r="J45" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K45" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L45" s="15" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" s="26">
-        <v>2035</v>
-      </c>
-      <c r="C42" s="27" t="s">
+    <row r="46" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="26">
+        <v>2035</v>
+      </c>
+      <c r="C46" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="D42" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" s="25" t="s">
+      <c r="D46" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="F42" s="25" t="s">
+      <c r="F46" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="H42" s="27" t="s">
+      <c r="H46" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="I42" s="27" t="s">
+      <c r="I46" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="J42" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K42" s="28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" s="26">
-        <v>2035</v>
-      </c>
-      <c r="C43" s="27" t="s">
+      <c r="J46" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K46" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="26">
+        <v>2035</v>
+      </c>
+      <c r="C47" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="D43" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" s="25" t="s">
+      <c r="D47" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="F43" s="25" t="s">
+      <c r="F47" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="H43" s="27" t="s">
+      <c r="H47" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="I43" s="27" t="s">
+      <c r="I47" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="J43" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K43" s="28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" s="26">
-        <v>2035</v>
-      </c>
-      <c r="C44" s="27" t="s">
+      <c r="J47" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K47" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="26">
+        <v>2035</v>
+      </c>
+      <c r="C48" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="D44" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E44" s="25" t="s">
+      <c r="D48" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="F44" s="25" t="s">
+      <c r="F48" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="G44" s="27" t="s">
+      <c r="G48" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H44" s="27" t="s">
+      <c r="H48" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="I44" s="27" t="s">
+      <c r="I48" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="J44" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K44" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="L44" s="27" t="s">
+      <c r="J48" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K48" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="L48" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="M44" s="27" t="s">
+      <c r="M48" s="27" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C45" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E45" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F45" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="H45" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="I45" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="J45" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K45" s="31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C46" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="D46" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F46" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="H46" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="I46" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="J46" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K46" s="31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C47" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="D47" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E47" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F47" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="H47" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="I47" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="J47" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K47" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="L47" s="29" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C48" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="D48" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E48" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F48" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="H48" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="I48" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="J48" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K48" s="31" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -2861,7 +2888,7 @@
         <v>2035</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="D49" s="29" t="s">
         <v>19</v>
@@ -2870,10 +2897,13 @@
         <v>117</v>
       </c>
       <c r="F49" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H49" s="29" t="s">
-        <v>143</v>
+        <v>101</v>
+      </c>
+      <c r="I49" s="29" t="s">
+        <v>106</v>
       </c>
       <c r="J49" s="31" t="s">
         <v>10</v>
@@ -2890,7 +2920,7 @@
         <v>2035</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="D50" s="29" t="s">
         <v>19</v>
@@ -2899,34 +2929,162 @@
         <v>117</v>
       </c>
       <c r="F50" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="H50" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="I50" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="J50" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K50" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F51" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="G50" s="29" t="s">
+      <c r="H51" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="I51" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="J51" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K51" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="L51" s="29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F52" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="H52" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="I52" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="J52" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K52" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D53" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F53" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="H53" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="J53" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K53" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F54" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="G54" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="H50" s="29" t="s">
+      <c r="H54" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="J50" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K50" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="L50" s="29" t="s">
+      <c r="J54" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K54" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="L54" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="M50" s="29" t="s">
+      <c r="M54" s="29" t="s">
         <v>191</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L47" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L51" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I6" r:id="rId1" xr:uid="{2F5DF9E8-6F7C-49D0-A88D-920944076562}"/>
     <hyperlink ref="I13" r:id="rId2" xr:uid="{088533EE-4DDB-4145-8A51-9A459A5B0EE7}"/>
-    <hyperlink ref="I36" r:id="rId3" xr:uid="{7568B75C-5EC3-4B27-BBC3-154FC1450F6B}"/>
+    <hyperlink ref="I40" r:id="rId3" xr:uid="{7568B75C-5EC3-4B27-BBC3-154FC1450F6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atapase\OneDrive - Metropolitan Transportation Commission\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A6C80F-A6BA-41C5-AA55-A4A902B2F582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C897DB98-2137-4F01-8ED0-E6A9CC515284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="223">
   <si>
     <t>category</t>
   </si>
@@ -1261,7 +1261,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
+      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2312,9 +2312,6 @@
       <c r="F32" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="J32" s="13" t="s">
         <v>10</v>
       </c>
@@ -2347,9 +2344,6 @@
       <c r="F33" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="G33" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="J33" s="13" t="s">
         <v>10</v>
       </c>
@@ -2382,9 +2376,6 @@
       <c r="F34" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G34" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="J34" s="13" t="s">
         <v>10</v>
       </c>
@@ -2417,9 +2408,6 @@
       <c r="F35" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="G35" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="J35" s="13" t="s">
         <v>10</v>
       </c>
@@ -2452,9 +2440,6 @@
       <c r="F36" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="G36" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="J36" s="13" t="s">
         <v>10</v>
       </c>
@@ -2487,9 +2472,6 @@
       <c r="F37" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="G37" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="J37" s="13" t="s">
         <v>10</v>
       </c>
@@ -2556,9 +2538,6 @@
       </c>
       <c r="F39" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="J39" s="13" t="s">
         <v>10</v>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atapase\OneDrive - Metropolitan Transportation Commission\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ftsang\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C897DB98-2137-4F01-8ED0-E6A9CC515284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE17D2D4-0959-4F59-B3BF-0729BF8207EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_runs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_runs!$A$1:$L$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_runs!$A$1:$L$59</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="245">
   <si>
     <t>category</t>
   </si>
@@ -705,13 +705,79 @@
   </si>
   <si>
     <t>B:\\Projects\\2035_TM160_NGF_r2_NoProject_04_add5.9c</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP04_Path2_01</t>
+  </si>
+  <si>
+    <t>P2_MBUF</t>
+  </si>
+  <si>
+    <t>NGF_Networks_NGFround2_P1_14_NoVisionZero</t>
+  </si>
+  <si>
+    <t>https://app.asana.com/0/0/1207994963427970/f</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGF_r2_NoProject_05</t>
+  </si>
+  <si>
+    <t>https://app.asana.com/0/0/1207994951064423/f</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP04_Path1_12_40c10c</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>P1 - 40c/10c - no local road spd limit red</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGF_r2_NoProject_05_mbuf4.4cTest</t>
+  </si>
+  <si>
+    <t>NP run - no EL</t>
+  </si>
+  <si>
+    <t>https://app.asana.com/0/0/1207994963427971/f</t>
+  </si>
+  <si>
+    <t>to be started</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP04_Path1_12_50c10c</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP04_Path1_12_30c15c</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGF_r2_NoProject_05_add4.4c</t>
+  </si>
+  <si>
+    <t>NP run - no EL, AOC+4.4c</t>
+  </si>
+  <si>
+    <t>NP run - no EL, MBUF at 4.4c</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP04_Path2_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P2 - MBUF at 7.5c (same toll cap as P1_12) </t>
+  </si>
+  <si>
+    <t>P2 - MBUF at 7.5c (try a lower cap, assuming the average household make 4 trips a day)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -783,8 +849,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -821,6 +893,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -838,7 +916,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -905,6 +983,16 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -1257,29 +1345,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.3984375" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.28515625" customWidth="1"/>
-    <col min="8" max="8" width="47.42578125" customWidth="1"/>
-    <col min="9" max="9" width="59.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.7109375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="13.09765625" customWidth="1"/>
+    <col min="5" max="5" width="22.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.19921875" customWidth="1"/>
+    <col min="8" max="8" width="47.3984375" customWidth="1"/>
+    <col min="9" max="9" width="59.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.69921875" style="14" customWidth="1"/>
     <col min="11" max="11" width="15" style="14" customWidth="1"/>
-    <col min="12" max="12" width="56.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" customWidth="1"/>
+    <col min="12" max="12" width="56.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1320,7 +1408,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1348,7 +1436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1375,7 +1463,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1414,7 +1502,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1450,7 +1538,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1485,7 +1573,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1521,7 +1609,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1554,7 +1642,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1587,7 +1675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -1619,7 +1707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1651,7 +1739,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -1689,7 +1777,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -1721,7 +1809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -1753,7 +1841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -1785,7 +1873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
@@ -1817,7 +1905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
@@ -1855,7 +1943,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
@@ -1893,7 +1981,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
@@ -1921,7 +2009,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>13</v>
       </c>
@@ -1949,7 +2037,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>13</v>
       </c>
@@ -1977,7 +2065,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -2005,7 +2093,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>13</v>
       </c>
@@ -2033,7 +2121,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>13</v>
       </c>
@@ -2054,6 +2142,9 @@
       </c>
       <c r="G24" s="4" t="s">
         <v>31</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>225</v>
       </c>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
@@ -2064,7 +2155,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>13</v>
       </c>
@@ -2092,175 +2183,164 @@
         <v>193</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="8">
-        <v>2035</v>
-      </c>
-      <c r="C26" s="7" t="s">
+    <row r="26" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="6">
+        <v>2035</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="G26" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="6">
+        <v>2035</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="G27" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+    </row>
+    <row r="28" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="6">
+        <v>2035</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="G28" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+    </row>
+    <row r="29" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="33">
+        <v>2035</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="F29" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="G29" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="H29" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="I29" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="M29" s="32" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="33">
+        <v>2035</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="F30" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="G30" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+    </row>
+    <row r="31" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="J26" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K26" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="8">
-        <v>2035</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J27" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="8">
-        <v>2035</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K28" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="8">
-        <v>2035</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="J29" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K29" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="8">
-        <v>2035</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="J30" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K30" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="8">
-        <v>2035</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>19</v>
@@ -2269,16 +2349,10 @@
         <v>69</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="J31" s="13" t="s">
         <v>10</v>
@@ -2287,13 +2361,13 @@
         <v>10</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>13</v>
       </c>
@@ -2301,7 +2375,7 @@
         <v>2035</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>206</v>
+        <v>44</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>19</v>
@@ -2310,7 +2384,10 @@
         <v>69</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>211</v>
+        <v>76</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="J32" s="13" t="s">
         <v>10</v>
@@ -2318,14 +2395,8 @@
       <c r="K32" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L32" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="M32" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>13</v>
       </c>
@@ -2333,7 +2404,7 @@
         <v>2035</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>203</v>
+        <v>45</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>19</v>
@@ -2342,7 +2413,13 @@
         <v>69</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>212</v>
+        <v>78</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="J33" s="13" t="s">
         <v>10</v>
@@ -2350,14 +2427,8 @@
       <c r="K33" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L33" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M33" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>13</v>
       </c>
@@ -2365,7 +2436,7 @@
         <v>2035</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>205</v>
+        <v>107</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>19</v>
@@ -2374,7 +2445,13 @@
         <v>69</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>213</v>
+        <v>111</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="J34" s="13" t="s">
         <v>10</v>
@@ -2382,14 +2459,8 @@
       <c r="K34" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L34" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="M34" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>13</v>
       </c>
@@ -2397,7 +2468,7 @@
         <v>2035</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>204</v>
+        <v>110</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>19</v>
@@ -2406,7 +2477,13 @@
         <v>69</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>214</v>
+        <v>112</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="J35" s="13" t="s">
         <v>10</v>
@@ -2414,14 +2491,8 @@
       <c r="K35" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L35" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="M35" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>13</v>
       </c>
@@ -2429,7 +2500,7 @@
         <v>2035</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>215</v>
+        <v>114</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>19</v>
@@ -2438,7 +2509,16 @@
         <v>69</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>211</v>
+        <v>115</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="J36" s="13" t="s">
         <v>10</v>
@@ -2447,13 +2527,13 @@
         <v>10</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>220</v>
+        <v>134</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>13</v>
       </c>
@@ -2461,7 +2541,7 @@
         <v>2035</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>19</v>
@@ -2470,7 +2550,7 @@
         <v>69</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J37" s="13" t="s">
         <v>10</v>
@@ -2479,13 +2559,13 @@
         <v>10</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>13</v>
       </c>
@@ -2493,7 +2573,7 @@
         <v>2035</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>19</v>
@@ -2502,10 +2582,7 @@
         <v>69</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>31</v>
+        <v>212</v>
       </c>
       <c r="J38" s="13" t="s">
         <v>10</v>
@@ -2514,13 +2591,13 @@
         <v>10</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>13</v>
       </c>
@@ -2528,7 +2605,7 @@
         <v>2035</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>19</v>
@@ -2537,533 +2614,819 @@
         <v>69</v>
       </c>
       <c r="F39" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K39" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="M39" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="J39" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K39" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L39" s="7" t="s">
+      <c r="J40" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K40" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K41" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="M41" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="J42" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K42" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K43" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="M39" s="7" t="s">
+      <c r="M44" s="7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="16">
-        <v>2035</v>
-      </c>
-      <c r="C40" s="15" t="s">
+    <row r="45" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G45" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="J45" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K45" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G46" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="J46" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K46" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G47" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="J47" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K47" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C48" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D40" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" s="15" t="s">
+      <c r="D48" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="F40" s="15" t="s">
+      <c r="F48" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="H40" s="15" t="s">
+      <c r="H48" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="I40" s="18" t="s">
+      <c r="I48" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="J40" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K40" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="16">
-        <v>2035</v>
-      </c>
-      <c r="C41" s="15" t="s">
+      <c r="J48" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K48" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C49" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D41" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" s="15" t="s">
+      <c r="D49" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="F41" s="15" t="s">
+      <c r="F49" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="H41" s="15" t="s">
+      <c r="H49" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="I41" s="18" t="s">
+      <c r="I49" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="J41" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K41" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" s="16">
-        <v>2035</v>
-      </c>
-      <c r="C42" s="15" t="s">
+      <c r="J49" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K49" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C50" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D42" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" s="15" t="s">
+      <c r="D50" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="F42" s="15" t="s">
+      <c r="F50" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="G42" s="15" t="s">
+      <c r="G50" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H42" s="15" t="s">
+      <c r="H50" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="I42" s="18" t="s">
+      <c r="I50" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="J42" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K42" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L42" s="15" t="s">
+      <c r="J50" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K50" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L50" s="15" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" s="16">
-        <v>2035</v>
-      </c>
-      <c r="C43" s="15" t="s">
+    <row r="51" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C51" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="D43" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" s="15" t="s">
+      <c r="D51" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="F43" s="15" t="s">
+      <c r="F51" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="H43" s="15" t="s">
+      <c r="H51" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="I43" s="18" t="s">
+      <c r="I51" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="J43" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K43" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" s="16">
-        <v>2035</v>
-      </c>
-      <c r="C44" s="15" t="s">
+      <c r="J51" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K51" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C52" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="D44" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E44" s="15" t="s">
+      <c r="D52" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="F52" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="H44" s="15" t="s">
+      <c r="H52" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="I44" s="18" t="s">
+      <c r="I52" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="J44" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K44" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" s="16">
-        <v>2035</v>
-      </c>
-      <c r="C45" s="15" t="s">
+      <c r="J52" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K52" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C53" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D45" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E45" s="15" t="s">
+      <c r="D53" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="F45" s="15" t="s">
+      <c r="F53" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="G45" s="15" t="s">
+      <c r="G53" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="H45" s="15" t="s">
+      <c r="H53" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="I45" s="18"/>
-      <c r="J45" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K45" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L45" s="15" t="s">
+      <c r="I53" s="18"/>
+      <c r="J53" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K53" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L53" s="15" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" s="26">
-        <v>2035</v>
-      </c>
-      <c r="C46" s="27" t="s">
+    <row r="54" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="26">
+        <v>2035</v>
+      </c>
+      <c r="C54" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="D46" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46" s="25" t="s">
+      <c r="D54" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="F46" s="25" t="s">
+      <c r="F54" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="H46" s="27" t="s">
+      <c r="H54" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="I46" s="27" t="s">
+      <c r="I54" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="J46" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K46" s="28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" s="26">
-        <v>2035</v>
-      </c>
-      <c r="C47" s="27" t="s">
+      <c r="J54" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K54" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="26">
+        <v>2035</v>
+      </c>
+      <c r="C55" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="D47" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E47" s="25" t="s">
+      <c r="D55" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="F47" s="25" t="s">
+      <c r="F55" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="H47" s="27" t="s">
+      <c r="H55" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="I47" s="27" t="s">
+      <c r="I55" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="J47" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K47" s="28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" s="26">
-        <v>2035</v>
-      </c>
-      <c r="C48" s="27" t="s">
+      <c r="J55" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K55" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="26">
+        <v>2035</v>
+      </c>
+      <c r="C56" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="D48" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E48" s="25" t="s">
+      <c r="D56" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="F48" s="25" t="s">
+      <c r="F56" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="G48" s="27" t="s">
+      <c r="G56" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H48" s="27" t="s">
+      <c r="H56" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="I48" s="27" t="s">
+      <c r="I56" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="J48" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K48" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="L48" s="27" t="s">
+      <c r="J56" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K56" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="L56" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="M48" s="27" t="s">
+      <c r="M56" s="27" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C49" s="29" t="s">
+    <row r="57" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C57" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="D49" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E49" s="29" t="s">
+      <c r="D57" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="F49" s="29" t="s">
+      <c r="F57" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="H49" s="29" t="s">
+      <c r="H57" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="I49" s="29" t="s">
+      <c r="I57" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="J49" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K49" s="31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C50" s="29" t="s">
+      <c r="J57" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K57" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C58" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E50" s="29" t="s">
+      <c r="D58" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="F50" s="29" t="s">
+      <c r="F58" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="H50" s="29" t="s">
+      <c r="H58" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="I50" s="29" t="s">
+      <c r="I58" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="J50" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K50" s="31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C51" s="29" t="s">
+      <c r="J58" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K58" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C59" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="D51" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E51" s="29" t="s">
+      <c r="D59" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="F51" s="29" t="s">
+      <c r="F59" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="H51" s="29" t="s">
+      <c r="H59" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="I51" s="29" t="s">
+      <c r="I59" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="J51" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K51" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="L51" s="29" t="s">
+      <c r="J59" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K59" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="L59" s="29" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C52" s="29" t="s">
+    <row r="60" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C60" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D52" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E52" s="29" t="s">
+      <c r="D60" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="F52" s="29" t="s">
+      <c r="F60" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="H52" s="29" t="s">
+      <c r="H60" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="I52" s="29" t="s">
+      <c r="I60" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="J52" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K52" s="31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C53" s="29" t="s">
+      <c r="J60" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K60" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C61" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="D53" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E53" s="29" t="s">
+      <c r="D61" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="F53" s="29" t="s">
+      <c r="F61" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="H53" s="29" t="s">
+      <c r="H61" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="J53" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K53" s="31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C54" s="29" t="s">
+      <c r="J61" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K61" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C62" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="D54" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E54" s="29" t="s">
+      <c r="D62" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="F54" s="29" t="s">
+      <c r="F62" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="G54" s="29" t="s">
+      <c r="G62" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="H54" s="29" t="s">
+      <c r="H62" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="J54" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K54" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="L54" s="29" t="s">
+      <c r="J62" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K62" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="L62" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="M54" s="29" t="s">
+      <c r="M62" s="29" t="s">
         <v>191</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L51" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L59" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I6" r:id="rId1" xr:uid="{2F5DF9E8-6F7C-49D0-A88D-920944076562}"/>
     <hyperlink ref="I13" r:id="rId2" xr:uid="{088533EE-4DDB-4145-8A51-9A459A5B0EE7}"/>
-    <hyperlink ref="I40" r:id="rId3" xr:uid="{7568B75C-5EC3-4B27-BBC3-154FC1450F6B}"/>
+    <hyperlink ref="I48" r:id="rId3" xr:uid="{7568B75C-5EC3-4B27-BBC3-154FC1450F6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ftsang\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atapase\OneDrive - Metropolitan Transportation Commission\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE17D2D4-0959-4F59-B3BF-0729BF8207EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3D58E5-52D8-45A1-BC2D-D4825FB999B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_runs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_runs!$A$1:$L$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_runs!$A$1:$L$62</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="257">
   <si>
     <t>category</t>
   </si>
@@ -764,13 +764,49 @@
     <t>NP run - no EL, MBUF at 4.4c</t>
   </si>
   <si>
-    <t>2035_TM160_NGFr2_NP04_Path2_02</t>
-  </si>
-  <si>
     <t xml:space="preserve">P2 - MBUF at 7.5c (same toll cap as P1_12) </t>
   </si>
   <si>
     <t>P2 - MBUF at 7.5c (try a lower cap, assuming the average household make 4 trips a day)</t>
+  </si>
+  <si>
+    <t>X:\\Projects\\2035_TM160_NGFr2_NP04_Path1_12_40c10c</t>
+  </si>
+  <si>
+    <t>A:\\Projects\\2035_TM160_NGFr2_NP04_Path1_12_50c10c</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP04_Path2_01_LowCap</t>
+  </si>
+  <si>
+    <t>G:\\Projects\\2035_TM160_NGFr2_NP04_Path2_01</t>
+  </si>
+  <si>
+    <t>F:\\Projects\\2035_TM160_NGFr2_NP04_Path2_01_LowCap</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGF_r2_NoProject_06</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGF_r2_NoProject_06_link4.4mb</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGF_r2_NoProject_06_aoc4.4cmb</t>
+  </si>
+  <si>
+    <t>2b</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>I:\\Projects\\2035_TM160_NGF_r2_NoProject_06_aoc4.4cmb</t>
+  </si>
+  <si>
+    <t>B:\\Projects\\2035_TM160_NGF_r2_NoProject_06_link4.4mb</t>
+  </si>
+  <si>
+    <t>V:\\Projects\\2035_TM160_NGF_r2_NoProject_06</t>
   </si>
 </sst>
 </file>
@@ -1345,29 +1381,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M62"/>
+  <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.3984375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="13.09765625" customWidth="1"/>
-    <col min="5" max="5" width="22.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.19921875" customWidth="1"/>
-    <col min="8" max="8" width="47.3984375" customWidth="1"/>
-    <col min="9" max="9" width="59.69921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.69921875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.140625" customWidth="1"/>
+    <col min="8" max="8" width="47.42578125" customWidth="1"/>
+    <col min="9" max="9" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.7109375" style="14" customWidth="1"/>
     <col min="11" max="11" width="15" style="14" customWidth="1"/>
-    <col min="12" max="12" width="56.59765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.09765625" customWidth="1"/>
+    <col min="12" max="12" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1408,7 +1444,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1436,7 +1472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1463,7 +1499,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1502,7 +1538,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1538,7 +1574,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1573,7 +1609,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1609,7 +1645,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1642,7 +1678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1675,7 +1711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -1707,7 +1743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1739,7 +1775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -1777,7 +1813,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -1809,7 +1845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -1841,7 +1877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -1873,7 +1909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
@@ -1905,7 +1941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
@@ -1943,7 +1979,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
@@ -1981,7 +2017,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
@@ -2009,7 +2045,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>13</v>
       </c>
@@ -2037,7 +2073,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>13</v>
       </c>
@@ -2065,7 +2101,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -2093,7 +2129,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>13</v>
       </c>
@@ -2121,7 +2157,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>13</v>
       </c>
@@ -2155,7 +2191,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>13</v>
       </c>
@@ -2183,7 +2219,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>13</v>
       </c>
@@ -2203,7 +2239,7 @@
         <v>232</v>
       </c>
       <c r="G26" s="37" t="s">
-        <v>227</v>
+        <v>31</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>225</v>
@@ -2214,13 +2250,13 @@
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="4" t="s">
-        <v>198</v>
+        <v>244</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>13</v>
       </c>
@@ -2240,12 +2276,18 @@
         <v>232</v>
       </c>
       <c r="G27" s="37" t="s">
-        <v>236</v>
+        <v>31</v>
       </c>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
-    </row>
-    <row r="28" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L27" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>13</v>
       </c>
@@ -2270,7 +2312,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
     </row>
-    <row r="29" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="32" t="s">
         <v>13</v>
       </c>
@@ -2287,10 +2329,10 @@
         <v>224</v>
       </c>
       <c r="F29" s="32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G29" s="35" t="s">
-        <v>227</v>
+        <v>31</v>
       </c>
       <c r="H29" s="32" t="s">
         <v>225</v>
@@ -2301,13 +2343,13 @@
       <c r="J29" s="34"/>
       <c r="K29" s="34"/>
       <c r="L29" s="32" t="s">
-        <v>198</v>
+        <v>247</v>
       </c>
       <c r="M29" s="32" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="32" t="s">
         <v>13</v>
       </c>
@@ -2315,7 +2357,7 @@
         <v>2035</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D30" s="32" t="s">
         <v>19</v>
@@ -2324,15 +2366,21 @@
         <v>224</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G30" s="35" t="s">
-        <v>236</v>
+        <v>31</v>
       </c>
       <c r="J30" s="34"/>
       <c r="K30" s="34"/>
-    </row>
-    <row r="31" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L30" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="M30" s="32" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>13</v>
       </c>
@@ -2367,7 +2415,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>13</v>
       </c>
@@ -2396,7 +2444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>13</v>
       </c>
@@ -2428,7 +2476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>13</v>
       </c>
@@ -2460,7 +2508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>13</v>
       </c>
@@ -2492,7 +2540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>13</v>
       </c>
@@ -2533,7 +2581,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>13</v>
       </c>
@@ -2565,7 +2613,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>13</v>
       </c>
@@ -2597,7 +2645,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>13</v>
       </c>
@@ -2629,7 +2677,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>13</v>
       </c>
@@ -2661,7 +2709,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>13</v>
       </c>
@@ -2693,7 +2741,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>13</v>
       </c>
@@ -2725,7 +2773,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>13</v>
       </c>
@@ -2760,7 +2808,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>13</v>
       </c>
@@ -2792,7 +2840,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>13</v>
       </c>
@@ -2833,7 +2881,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>13</v>
       </c>
@@ -2874,7 +2922,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>13</v>
       </c>
@@ -2915,117 +2963,108 @@
         <v>193</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" s="16">
-        <v>2035</v>
-      </c>
-      <c r="C48" s="15" t="s">
+    <row r="48" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G48" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="M48" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G49" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="M49" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G50" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="M50" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C51" s="15" t="s">
         <v>80</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="H48" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I48" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="J48" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K48" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" s="16">
-        <v>2035</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="H49" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I49" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="J49" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K49" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" s="16">
-        <v>2035</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="I50" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="J50" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K50" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L50" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" s="16">
-        <v>2035</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>118</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>19</v>
@@ -3034,13 +3073,13 @@
         <v>91</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>148</v>
+        <v>83</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="I51" s="18" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="J51" s="17" t="s">
         <v>10</v>
@@ -3049,7 +3088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
         <v>13</v>
       </c>
@@ -3057,7 +3096,7 @@
         <v>2035</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="D52" s="15" t="s">
         <v>19</v>
@@ -3066,13 +3105,13 @@
         <v>91</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="I52" s="18" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="J52" s="17" t="s">
         <v>10</v>
@@ -3081,7 +3120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
         <v>13</v>
       </c>
@@ -3089,7 +3128,7 @@
         <v>2035</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="D53" s="15" t="s">
         <v>19</v>
@@ -3101,12 +3140,14 @@
         <v>126</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>152</v>
+        <v>31</v>
       </c>
       <c r="H53" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="I53" s="18"/>
+      <c r="I53" s="18" t="s">
+        <v>129</v>
+      </c>
       <c r="J53" s="17" t="s">
         <v>10</v>
       </c>
@@ -3117,219 +3158,220 @@
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" s="26">
-        <v>2035</v>
-      </c>
-      <c r="C54" s="27" t="s">
+    <row r="54" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H54" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I54" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="J54" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K54" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="H55" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I55" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="J55" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K55" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="H56" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I56" s="18"/>
+      <c r="J56" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K56" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L56" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="26">
+        <v>2035</v>
+      </c>
+      <c r="C57" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="D54" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E54" s="25" t="s">
+      <c r="D57" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="F54" s="25" t="s">
+      <c r="F57" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="H54" s="27" t="s">
+      <c r="H57" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="I54" s="27" t="s">
+      <c r="I57" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="J54" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K54" s="28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55" s="26">
-        <v>2035</v>
-      </c>
-      <c r="C55" s="27" t="s">
+      <c r="J57" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K57" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" s="26">
+        <v>2035</v>
+      </c>
+      <c r="C58" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="D55" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E55" s="25" t="s">
+      <c r="D58" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="F55" s="25" t="s">
+      <c r="F58" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="H55" s="27" t="s">
+      <c r="H58" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="I55" s="27" t="s">
+      <c r="I58" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="J55" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K55" s="28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56" s="26">
-        <v>2035</v>
-      </c>
-      <c r="C56" s="27" t="s">
+      <c r="J58" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K58" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="26">
+        <v>2035</v>
+      </c>
+      <c r="C59" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="D56" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E56" s="25" t="s">
+      <c r="D59" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="F56" s="25" t="s">
+      <c r="F59" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="G56" s="27" t="s">
+      <c r="G59" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H56" s="27" t="s">
+      <c r="H59" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="I56" s="27" t="s">
+      <c r="I59" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="J56" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K56" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="L56" s="27" t="s">
+      <c r="J59" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K59" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="L59" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="M56" s="27" t="s">
+      <c r="M59" s="27" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C57" s="29" t="s">
+    <row r="60" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C60" s="29" t="s">
         <v>99</v>
-      </c>
-      <c r="D57" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E57" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F57" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="H57" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="I57" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="J57" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K57" s="31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C58" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="D58" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E58" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F58" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="H58" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="I58" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="J58" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K58" s="31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C59" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="D59" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E59" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F59" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="H59" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="I59" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="J59" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K59" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="L59" s="29" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C60" s="29" t="s">
-        <v>141</v>
       </c>
       <c r="D60" s="29" t="s">
         <v>19</v>
@@ -3341,10 +3383,10 @@
         <v>102</v>
       </c>
       <c r="H60" s="29" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="I60" s="29" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="J60" s="31" t="s">
         <v>10</v>
@@ -3353,7 +3395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="29" t="s">
         <v>13</v>
       </c>
@@ -3361,7 +3403,7 @@
         <v>2035</v>
       </c>
       <c r="C61" s="29" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D61" s="29" t="s">
         <v>19</v>
@@ -3373,7 +3415,10 @@
         <v>103</v>
       </c>
       <c r="H61" s="29" t="s">
-        <v>143</v>
+        <v>104</v>
+      </c>
+      <c r="I61" s="29" t="s">
+        <v>105</v>
       </c>
       <c r="J61" s="31" t="s">
         <v>10</v>
@@ -3382,7 +3427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="29" t="s">
         <v>13</v>
       </c>
@@ -3390,7 +3435,7 @@
         <v>2035</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="D62" s="29" t="s">
         <v>19</v>
@@ -3401,32 +3446,128 @@
       <c r="F62" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="G62" s="29" t="s">
+      <c r="H62" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="I62" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="J62" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K62" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="L62" s="29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="D63" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F63" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="H63" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="I63" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="J63" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K63" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C64" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D64" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F64" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="H64" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="J64" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K64" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C65" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D65" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F65" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="G65" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="H62" s="29" t="s">
+      <c r="H65" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="J62" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K62" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="L62" s="29" t="s">
+      <c r="J65" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K65" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="L65" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="M62" s="29" t="s">
+      <c r="M65" s="29" t="s">
         <v>191</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L59" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L62" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I6" r:id="rId1" xr:uid="{2F5DF9E8-6F7C-49D0-A88D-920944076562}"/>
     <hyperlink ref="I13" r:id="rId2" xr:uid="{088533EE-4DDB-4145-8A51-9A459A5B0EE7}"/>
-    <hyperlink ref="I48" r:id="rId3" xr:uid="{7568B75C-5EC3-4B27-BBC3-154FC1450F6B}"/>
+    <hyperlink ref="I51" r:id="rId3" xr:uid="{7568B75C-5EC3-4B27-BBC3-154FC1450F6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atapase\OneDrive - Metropolitan Transportation Commission\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3D58E5-52D8-45A1-BC2D-D4825FB999B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2526FEC-7B2B-4970-BE85-63E9FF5F6EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_runs" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="258">
   <si>
     <t>category</t>
   </si>
@@ -728,9 +728,6 @@
     <t>https://app.asana.com/0/0/1207994951064423/f</t>
   </si>
   <si>
-    <t>2035_TM160_NGFr2_NP04_Path1_12_40c10c</t>
-  </si>
-  <si>
     <t>TBD</t>
   </si>
   <si>
@@ -749,12 +746,6 @@
     <t>to be started</t>
   </si>
   <si>
-    <t>2035_TM160_NGFr2_NP04_Path1_12_50c10c</t>
-  </si>
-  <si>
-    <t>2035_TM160_NGFr2_NP04_Path1_12_30c15c</t>
-  </si>
-  <si>
     <t>2035_TM160_NGF_r2_NoProject_05_add4.4c</t>
   </si>
   <si>
@@ -807,6 +798,18 @@
   </si>
   <si>
     <t>V:\\Projects\\2035_TM160_NGF_r2_NoProject_06</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP06_Path1_12_40c10c</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP06_Path1_12_50c10c</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP06_Path1_12_30c15c</t>
+  </si>
+  <si>
+    <t>P1 - 50c/10c - no local road spd limit red</t>
   </si>
 </sst>
 </file>
@@ -1383,9 +1386,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J59" sqref="J59"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2227,7 +2230,7 @@
         <v>2035</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>19</v>
@@ -2236,7 +2239,7 @@
         <v>28</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G26" s="37" t="s">
         <v>31</v>
@@ -2245,12 +2248,12 @@
         <v>225</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>192</v>
@@ -2264,7 +2267,7 @@
         <v>2035</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>19</v>
@@ -2273,7 +2276,7 @@
         <v>28</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="G27" s="37" t="s">
         <v>31</v>
@@ -2281,7 +2284,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>190</v>
@@ -2295,7 +2298,7 @@
         <v>2035</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>19</v>
@@ -2304,10 +2307,10 @@
         <v>28</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G28" s="37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
@@ -2329,7 +2332,7 @@
         <v>224</v>
       </c>
       <c r="F29" s="32" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G29" s="35" t="s">
         <v>31</v>
@@ -2343,7 +2346,7 @@
       <c r="J29" s="34"/>
       <c r="K29" s="34"/>
       <c r="L29" s="32" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M29" s="32" t="s">
         <v>189</v>
@@ -2357,7 +2360,7 @@
         <v>2035</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D30" s="32" t="s">
         <v>19</v>
@@ -2366,7 +2369,7 @@
         <v>224</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G30" s="35" t="s">
         <v>31</v>
@@ -2374,7 +2377,7 @@
       <c r="J30" s="34"/>
       <c r="K30" s="34"/>
       <c r="L30" s="32" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M30" s="32" t="s">
         <v>188</v>
@@ -2857,7 +2860,7 @@
         <v>69</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G45" s="36" t="s">
         <v>227</v>
@@ -2889,7 +2892,7 @@
         <v>2035</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>19</v>
@@ -2898,7 +2901,7 @@
         <v>69</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G46" s="36" t="s">
         <v>227</v>
@@ -2907,7 +2910,7 @@
         <v>108</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J46" s="13" t="s">
         <v>10</v>
@@ -2930,7 +2933,7 @@
         <v>2035</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>19</v>
@@ -2939,16 +2942,16 @@
         <v>69</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G47" s="36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>108</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J47" s="13" t="s">
         <v>10</v>
@@ -2971,7 +2974,7 @@
         <v>2035</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>19</v>
@@ -2980,7 +2983,7 @@
         <v>69</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G48" s="36" t="s">
         <v>31</v>
@@ -2988,10 +2991,10 @@
       <c r="J48" s="13"/>
       <c r="K48" s="13"/>
       <c r="L48" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="49" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3002,7 +3005,7 @@
         <v>2035</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>19</v>
@@ -3011,7 +3014,7 @@
         <v>69</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G49" s="36" t="s">
         <v>31</v>
@@ -3019,7 +3022,7 @@
       <c r="J49" s="13"/>
       <c r="K49" s="13"/>
       <c r="L49" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M49" s="7" t="s">
         <v>191</v>
@@ -3033,7 +3036,7 @@
         <v>2035</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>19</v>
@@ -3042,7 +3045,7 @@
         <v>69</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G50" s="36" t="s">
         <v>31</v>
@@ -3050,7 +3053,7 @@
       <c r="J50" s="13"/>
       <c r="K50" s="13"/>
       <c r="L50" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M50" s="7" t="s">
         <v>193</v>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atapase\OneDrive - Metropolitan Transportation Commission\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2526FEC-7B2B-4970-BE85-63E9FF5F6EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03FF70C-EC5B-48F2-A7C0-5843DE63EECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_runs" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="260">
   <si>
     <t>category</t>
   </si>
@@ -782,18 +782,9 @@
     <t>2035_TM160_NGF_r2_NoProject_06_link4.4mb</t>
   </si>
   <si>
-    <t>2035_TM160_NGF_r2_NoProject_06_aoc4.4cmb</t>
-  </si>
-  <si>
     <t>2b</t>
   </si>
   <si>
-    <t>xx</t>
-  </si>
-  <si>
-    <t>I:\\Projects\\2035_TM160_NGF_r2_NoProject_06_aoc4.4cmb</t>
-  </si>
-  <si>
     <t>B:\\Projects\\2035_TM160_NGF_r2_NoProject_06_link4.4mb</t>
   </si>
   <si>
@@ -810,6 +801,21 @@
   </si>
   <si>
     <t>P1 - 50c/10c - no local road spd limit red</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGF_r2_NoProject_06_aoc4.4mb</t>
+  </si>
+  <si>
+    <t>I:\\Projects\\2035_TM160_NGF_r2_NoProject_06_aoc4.4mb</t>
+  </si>
+  <si>
+    <t>xxy</t>
+  </si>
+  <si>
+    <t>xxz</t>
+  </si>
+  <si>
+    <t>xxx</t>
   </si>
 </sst>
 </file>
@@ -1387,8 +1393,8 @@
   <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2230,7 +2236,7 @@
         <v>2035</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>19</v>
@@ -2267,7 +2273,7 @@
         <v>2035</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>19</v>
@@ -2276,7 +2282,7 @@
         <v>28</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G27" s="37" t="s">
         <v>31</v>
@@ -2298,7 +2304,7 @@
         <v>2035</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>19</v>
@@ -2983,7 +2989,7 @@
         <v>69</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="G48" s="36" t="s">
         <v>31</v>
@@ -2991,10 +2997,10 @@
       <c r="J48" s="13"/>
       <c r="K48" s="13"/>
       <c r="L48" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="49" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3005,7 +3011,7 @@
         <v>2035</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>19</v>
@@ -3014,7 +3020,7 @@
         <v>69</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="G49" s="36" t="s">
         <v>31</v>
@@ -3022,7 +3028,7 @@
       <c r="J49" s="13"/>
       <c r="K49" s="13"/>
       <c r="L49" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="M49" s="7" t="s">
         <v>191</v>
@@ -3045,7 +3051,7 @@
         <v>69</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="G50" s="36" t="s">
         <v>31</v>
@@ -3053,7 +3059,7 @@
       <c r="J50" s="13"/>
       <c r="K50" s="13"/>
       <c r="L50" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M50" s="7" t="s">
         <v>193</v>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atapase\OneDrive - Metropolitan Transportation Commission\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03FF70C-EC5B-48F2-A7C0-5843DE63EECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EC046F-9E71-47FA-90C7-32BD3EAA18BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="260">
   <si>
     <t>category</t>
   </si>
@@ -1394,7 +1394,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
+      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2568,9 +2568,6 @@
       <c r="F36" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G36" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="H36" s="7" t="s">
         <v>108</v>
       </c>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atapase\OneDrive - Metropolitan Transportation Commission\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EC046F-9E71-47FA-90C7-32BD3EAA18BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49C496E-989B-4FB1-B897-DA9BD8E27872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -707,9 +707,6 @@
     <t>B:\\Projects\\2035_TM160_NGF_r2_NoProject_04_add5.9c</t>
   </si>
   <si>
-    <t>2035_TM160_NGFr2_NP04_Path2_01</t>
-  </si>
-  <si>
     <t>P2_MBUF</t>
   </si>
   <si>
@@ -767,15 +764,6 @@
     <t>A:\\Projects\\2035_TM160_NGFr2_NP04_Path1_12_50c10c</t>
   </si>
   <si>
-    <t>2035_TM160_NGFr2_NP04_Path2_01_LowCap</t>
-  </si>
-  <si>
-    <t>G:\\Projects\\2035_TM160_NGFr2_NP04_Path2_01</t>
-  </si>
-  <si>
-    <t>F:\\Projects\\2035_TM160_NGFr2_NP04_Path2_01_LowCap</t>
-  </si>
-  <si>
     <t>2035_TM160_NGF_r2_NoProject_06</t>
   </si>
   <si>
@@ -816,6 +804,18 @@
   </si>
   <si>
     <t>xxx</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP06_Path2_01</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP06_Path2_01_LowCap</t>
+  </si>
+  <si>
+    <t>G:\\Projects\\2035_TM160_NGFr2_NP06_Path2_01</t>
+  </si>
+  <si>
+    <t>F:\\Projects\\2035_TM160_NGFr2_NP06_Path2_01_LowCap</t>
   </si>
 </sst>
 </file>
@@ -1392,9 +1392,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2189,7 +2189,7 @@
         <v>31</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
@@ -2236,7 +2236,7 @@
         <v>2035</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>19</v>
@@ -2245,21 +2245,21 @@
         <v>28</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G26" s="37" t="s">
         <v>31</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>192</v>
@@ -2273,7 +2273,7 @@
         <v>2035</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>19</v>
@@ -2282,7 +2282,7 @@
         <v>28</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G27" s="37" t="s">
         <v>31</v>
@@ -2290,7 +2290,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>190</v>
@@ -2304,7 +2304,7 @@
         <v>2035</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>19</v>
@@ -2313,10 +2313,10 @@
         <v>28</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G28" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
@@ -2329,30 +2329,30 @@
         <v>2035</v>
       </c>
       <c r="C29" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="D29" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="32" t="s">
-        <v>224</v>
-      </c>
       <c r="F29" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G29" s="35" t="s">
         <v>31</v>
       </c>
       <c r="H29" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="I29" s="32" t="s">
         <v>225</v>
-      </c>
-      <c r="I29" s="32" t="s">
-        <v>226</v>
       </c>
       <c r="J29" s="34"/>
       <c r="K29" s="34"/>
       <c r="L29" s="32" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="M29" s="32" t="s">
         <v>189</v>
@@ -2366,16 +2366,16 @@
         <v>2035</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="D30" s="32" t="s">
         <v>19</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G30" s="35" t="s">
         <v>31</v>
@@ -2383,7 +2383,7 @@
       <c r="J30" s="34"/>
       <c r="K30" s="34"/>
       <c r="L30" s="32" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="M30" s="32" t="s">
         <v>188</v>
@@ -2854,7 +2854,7 @@
         <v>2035</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>19</v>
@@ -2863,16 +2863,16 @@
         <v>69</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G45" s="36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>108</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J45" s="13" t="s">
         <v>10</v>
@@ -2895,7 +2895,7 @@
         <v>2035</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>19</v>
@@ -2904,16 +2904,16 @@
         <v>69</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G46" s="36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>108</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J46" s="13" t="s">
         <v>10</v>
@@ -2936,7 +2936,7 @@
         <v>2035</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>19</v>
@@ -2945,16 +2945,16 @@
         <v>69</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G47" s="36" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>108</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J47" s="13" t="s">
         <v>10</v>
@@ -2977,7 +2977,7 @@
         <v>2035</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>19</v>
@@ -2986,7 +2986,7 @@
         <v>69</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G48" s="36" t="s">
         <v>31</v>
@@ -2994,10 +2994,10 @@
       <c r="J48" s="13"/>
       <c r="K48" s="13"/>
       <c r="L48" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="49" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3008,7 +3008,7 @@
         <v>2035</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>19</v>
@@ -3017,7 +3017,7 @@
         <v>69</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G49" s="36" t="s">
         <v>31</v>
@@ -3025,7 +3025,7 @@
       <c r="J49" s="13"/>
       <c r="K49" s="13"/>
       <c r="L49" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M49" s="7" t="s">
         <v>191</v>
@@ -3039,7 +3039,7 @@
         <v>2035</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>19</v>
@@ -3048,7 +3048,7 @@
         <v>69</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G50" s="36" t="s">
         <v>31</v>
@@ -3056,7 +3056,7 @@
       <c r="J50" s="13"/>
       <c r="K50" s="13"/>
       <c r="L50" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M50" s="7" t="s">
         <v>193</v>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atapase\OneDrive - Metropolitan Transportation Commission\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49C496E-989B-4FB1-B897-DA9BD8E27872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7BCF4A-39E0-4175-A827-507F8ECD8CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_runs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_runs!$A$1:$L$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_runs!$A$1:$L$64</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="264">
   <si>
     <t>category</t>
   </si>
@@ -816,6 +816,18 @@
   </si>
   <si>
     <t>F:\\Projects\\2035_TM160_NGFr2_NP06_Path2_01_LowCap</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGF_r2_NoProject_04_add2.9cT</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGF_r2_NoProject_04_add4.4cT</t>
+  </si>
+  <si>
+    <t>G:\\Projects\\2035_TM160_NGF_r2_NoProject_04_add2.9cT</t>
+  </si>
+  <si>
+    <t>V:\\Projects\\2035_TM160_NGF_r2_NoProject_04_add4.4cT</t>
   </si>
 </sst>
 </file>
@@ -1390,11 +1402,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M65"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2340,9 +2352,7 @@
       <c r="F29" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="G29" s="35" t="s">
-        <v>31</v>
-      </c>
+      <c r="G29" s="35"/>
       <c r="H29" s="32" t="s">
         <v>224</v>
       </c>
@@ -2377,9 +2387,7 @@
       <c r="F30" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="G30" s="35" t="s">
-        <v>31</v>
-      </c>
+      <c r="G30" s="35"/>
       <c r="J30" s="34"/>
       <c r="K30" s="34"/>
       <c r="L30" s="32" t="s">
@@ -2988,9 +2996,7 @@
       <c r="F48" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="G48" s="36" t="s">
-        <v>31</v>
-      </c>
+      <c r="G48" s="36"/>
       <c r="J48" s="13"/>
       <c r="K48" s="13"/>
       <c r="L48" s="7" t="s">
@@ -3019,9 +3025,7 @@
       <c r="F49" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="G49" s="36" t="s">
-        <v>31</v>
-      </c>
+      <c r="G49" s="36"/>
       <c r="J49" s="13"/>
       <c r="K49" s="13"/>
       <c r="L49" s="7" t="s">
@@ -3050,9 +3054,7 @@
       <c r="F50" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="G50" s="36" t="s">
-        <v>31</v>
-      </c>
+      <c r="G50" s="36"/>
       <c r="J50" s="13"/>
       <c r="K50" s="13"/>
       <c r="L50" s="7" t="s">
@@ -3062,68 +3064,66 @@
         <v>193</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" s="16">
-        <v>2035</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="H51" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I51" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="J51" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K51" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" s="16">
-        <v>2035</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="H52" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I52" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="J52" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K52" s="17" t="s">
-        <v>10</v>
+    <row r="51" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G51" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="M51" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G52" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="M52" s="7" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="53" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -3134,7 +3134,7 @@
         <v>2035</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="D53" s="15" t="s">
         <v>19</v>
@@ -3143,25 +3143,19 @@
         <v>91</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="I53" s="18" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="J53" s="17" t="s">
         <v>10</v>
       </c>
       <c r="K53" s="17" t="s">
         <v>10</v>
-      </c>
-      <c r="L53" s="15" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -3172,7 +3166,7 @@
         <v>2035</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="D54" s="15" t="s">
         <v>19</v>
@@ -3181,13 +3175,13 @@
         <v>91</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="H54" s="15" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="I54" s="18" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="J54" s="17" t="s">
         <v>10</v>
@@ -3204,7 +3198,7 @@
         <v>2035</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="D55" s="15" t="s">
         <v>19</v>
@@ -3213,19 +3207,25 @@
         <v>91</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>149</v>
+        <v>126</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="H55" s="15" t="s">
         <v>119</v>
       </c>
       <c r="I55" s="18" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="J55" s="17" t="s">
         <v>10</v>
       </c>
       <c r="K55" s="17" t="s">
         <v>10</v>
+      </c>
+      <c r="L55" s="15" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -3236,7 +3236,7 @@
         <v>2035</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="D56" s="15" t="s">
         <v>19</v>
@@ -3245,87 +3245,87 @@
         <v>91</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H56" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="I56" s="18"/>
+      <c r="I56" s="18" t="s">
+        <v>120</v>
+      </c>
       <c r="J56" s="17" t="s">
         <v>10</v>
       </c>
       <c r="K56" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L56" s="15" t="s">
+    </row>
+    <row r="57" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="H57" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I57" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="J57" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K57" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="H58" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I58" s="18"/>
+      <c r="J58" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K58" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L58" s="15" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" s="26">
-        <v>2035</v>
-      </c>
-      <c r="C57" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="D57" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E57" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="F57" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="H57" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="I57" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="J57" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K57" s="28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" s="26">
-        <v>2035</v>
-      </c>
-      <c r="C58" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="D58" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E58" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="F58" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="H58" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="I58" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="J58" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K58" s="28" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
@@ -3336,7 +3336,7 @@
         <v>2035</v>
       </c>
       <c r="C59" s="27" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="D59" s="25" t="s">
         <v>19</v>
@@ -3345,92 +3345,92 @@
         <v>92</v>
       </c>
       <c r="F59" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="H59" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="I59" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="J59" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K59" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="26">
+        <v>2035</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F60" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="H60" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="I60" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="J60" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K60" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="26">
+        <v>2035</v>
+      </c>
+      <c r="C61" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F61" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="G59" s="27" t="s">
+      <c r="G61" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H59" s="27" t="s">
+      <c r="H61" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="I59" s="27" t="s">
+      <c r="I61" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="J59" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K59" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="L59" s="27" t="s">
+      <c r="J61" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K61" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="L61" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="M59" s="27" t="s">
+      <c r="M61" s="27" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C60" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="D60" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E60" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F60" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="H60" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="I60" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="J60" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K60" s="31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C61" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="D61" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E61" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F61" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="H61" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="I61" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="J61" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K61" s="31" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -3441,7 +3441,7 @@
         <v>2035</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="D62" s="29" t="s">
         <v>19</v>
@@ -3450,22 +3450,19 @@
         <v>117</v>
       </c>
       <c r="F62" s="29" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="H62" s="29" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="I62" s="29" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="J62" s="31" t="s">
         <v>10</v>
       </c>
       <c r="K62" s="31" t="s">
         <v>10</v>
-      </c>
-      <c r="L62" s="29" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="63" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -3476,7 +3473,7 @@
         <v>2035</v>
       </c>
       <c r="C63" s="29" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="D63" s="29" t="s">
         <v>19</v>
@@ -3485,13 +3482,13 @@
         <v>117</v>
       </c>
       <c r="F63" s="29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H63" s="29" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="I63" s="29" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="J63" s="31" t="s">
         <v>10</v>
@@ -3508,7 +3505,7 @@
         <v>2035</v>
       </c>
       <c r="C64" s="29" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="D64" s="29" t="s">
         <v>19</v>
@@ -3517,16 +3514,22 @@
         <v>117</v>
       </c>
       <c r="F64" s="29" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="H64" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
+      </c>
+      <c r="I64" s="29" t="s">
+        <v>128</v>
       </c>
       <c r="J64" s="31" t="s">
         <v>10</v>
       </c>
       <c r="K64" s="31" t="s">
         <v>10</v>
+      </c>
+      <c r="L64" s="29" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -3537,7 +3540,7 @@
         <v>2035</v>
       </c>
       <c r="C65" s="29" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D65" s="29" t="s">
         <v>19</v>
@@ -3546,34 +3549,95 @@
         <v>117</v>
       </c>
       <c r="F65" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="G65" s="29" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="H65" s="29" t="s">
         <v>143</v>
       </c>
+      <c r="I65" s="29" t="s">
+        <v>144</v>
+      </c>
       <c r="J65" s="31" t="s">
         <v>10</v>
       </c>
       <c r="K65" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="L65" s="29" t="s">
+    </row>
+    <row r="66" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C66" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D66" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F66" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="H66" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="J66" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K66" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C67" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D67" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F67" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="G67" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="H67" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="J67" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K67" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="L67" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="M65" s="29" t="s">
+      <c r="M67" s="29" t="s">
         <v>191</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L62" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L64" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I6" r:id="rId1" xr:uid="{2F5DF9E8-6F7C-49D0-A88D-920944076562}"/>
     <hyperlink ref="I13" r:id="rId2" xr:uid="{088533EE-4DDB-4145-8A51-9A459A5B0EE7}"/>
-    <hyperlink ref="I51" r:id="rId3" xr:uid="{7568B75C-5EC3-4B27-BBC3-154FC1450F6B}"/>
+    <hyperlink ref="I53" r:id="rId3" xr:uid="{7568B75C-5EC3-4B27-BBC3-154FC1450F6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atapase\OneDrive - Metropolitan Transportation Commission\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7BCF4A-39E0-4175-A827-507F8ECD8CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E7A9D4-2167-4F81-B6AA-992AB4D139D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_runs" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="264">
   <si>
     <t>category</t>
   </si>
@@ -1405,8 +1405,8 @@
   <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2259,9 +2259,7 @@
       <c r="F26" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="G26" s="37" t="s">
-        <v>31</v>
-      </c>
+      <c r="G26" s="37"/>
       <c r="H26" s="4" t="s">
         <v>224</v>
       </c>
@@ -2296,9 +2294,7 @@
       <c r="F27" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="G27" s="37" t="s">
-        <v>31</v>
-      </c>
+      <c r="G27" s="37"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="4" t="s">
@@ -2327,9 +2323,7 @@
       <c r="F28" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="G28" s="37" t="s">
-        <v>234</v>
-      </c>
+      <c r="G28" s="37"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
     </row>
@@ -2576,6 +2570,9 @@
       <c r="F36" s="7" t="s">
         <v>115</v>
       </c>
+      <c r="G36" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="H36" s="7" t="s">
         <v>108</v>
       </c>
@@ -2805,9 +2802,6 @@
       </c>
       <c r="F43" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="J43" s="13" t="s">
         <v>10</v>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atapase\OneDrive - Metropolitan Transportation Commission\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ftsang\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E7A9D4-2167-4F81-B6AA-992AB4D139D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5477CED-FD67-4ECC-A4A7-A437951F1097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_runs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_runs!$A$1:$L$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_runs!$A$1:$L$65</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="265">
   <si>
     <t>category</t>
   </si>
@@ -716,9 +716,6 @@
     <t>https://app.asana.com/0/0/1207994963427970/f</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>2035_TM160_NGF_r2_NoProject_05</t>
   </si>
   <si>
@@ -740,15 +737,6 @@
     <t>https://app.asana.com/0/0/1207994963427971/f</t>
   </si>
   <si>
-    <t>to be started</t>
-  </si>
-  <si>
-    <t>2035_TM160_NGF_r2_NoProject_05_add4.4c</t>
-  </si>
-  <si>
-    <t>NP run - no EL, AOC+4.4c</t>
-  </si>
-  <si>
     <t>NP run - no EL, MBUF at 4.4c</t>
   </si>
   <si>
@@ -828,6 +816,21 @@
   </si>
   <si>
     <t>V:\\Projects\\2035_TM160_NGF_r2_NoProject_04_add4.4cT</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP06_Path2_02</t>
+  </si>
+  <si>
+    <t>being debugged</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGF_r2_NoProject_06_link4.4mb2</t>
+  </si>
+  <si>
+    <t>https://app.asana.com/0/0/1208050271845385/f</t>
+  </si>
+  <si>
+    <t>P2- MBUF post tollclass=0 bug fix, at 7.5c</t>
   </si>
 </sst>
 </file>
@@ -1402,29 +1405,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.3984375" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.140625" customWidth="1"/>
-    <col min="8" max="8" width="47.42578125" customWidth="1"/>
-    <col min="9" max="9" width="59.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.7109375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="13.09765625" customWidth="1"/>
+    <col min="5" max="5" width="22.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.09765625" customWidth="1"/>
+    <col min="8" max="8" width="47.3984375" customWidth="1"/>
+    <col min="9" max="9" width="59.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.69921875" style="14" customWidth="1"/>
     <col min="11" max="11" width="15" style="14" customWidth="1"/>
-    <col min="12" max="12" width="56.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" customWidth="1"/>
+    <col min="12" max="12" width="56.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1465,7 +1468,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1493,7 +1496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1520,7 +1523,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1559,7 +1562,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1595,7 +1598,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1630,7 +1633,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1666,7 +1669,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1699,7 +1702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1732,7 +1735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -1764,7 +1767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1796,7 +1799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -1834,7 +1837,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -1866,7 +1869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -1898,7 +1901,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -1930,7 +1933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
@@ -1962,7 +1965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
@@ -2000,7 +2003,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
@@ -2038,7 +2041,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
@@ -2066,7 +2069,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>13</v>
       </c>
@@ -2094,7 +2097,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>13</v>
       </c>
@@ -2122,7 +2125,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -2150,7 +2153,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>13</v>
       </c>
@@ -2178,7 +2181,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>13</v>
       </c>
@@ -2212,7 +2215,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>13</v>
       </c>
@@ -2240,7 +2243,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>13</v>
       </c>
@@ -2248,7 +2251,7 @@
         <v>2035</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>19</v>
@@ -2257,25 +2260,25 @@
         <v>28</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G26" s="37"/>
       <c r="H26" s="4" t="s">
         <v>224</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>13</v>
       </c>
@@ -2283,7 +2286,7 @@
         <v>2035</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>19</v>
@@ -2292,19 +2295,19 @@
         <v>28</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G27" s="37"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="4" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>13</v>
       </c>
@@ -2312,7 +2315,7 @@
         <v>2035</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>19</v>
@@ -2321,13 +2324,13 @@
         <v>28</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G28" s="37"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
     </row>
-    <row r="29" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="32" t="s">
         <v>13</v>
       </c>
@@ -2335,7 +2338,7 @@
         <v>2035</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D29" s="32" t="s">
         <v>19</v>
@@ -2344,7 +2347,7 @@
         <v>223</v>
       </c>
       <c r="F29" s="32" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G29" s="35"/>
       <c r="H29" s="32" t="s">
@@ -2356,13 +2359,13 @@
       <c r="J29" s="34"/>
       <c r="K29" s="34"/>
       <c r="L29" s="32" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M29" s="32" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="32" t="s">
         <v>13</v>
       </c>
@@ -2370,7 +2373,7 @@
         <v>2035</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D30" s="32" t="s">
         <v>19</v>
@@ -2379,62 +2382,58 @@
         <v>223</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G30" s="35"/>
       <c r="J30" s="34"/>
       <c r="K30" s="34"/>
       <c r="L30" s="32" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M30" s="32" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="8">
-        <v>2035</v>
-      </c>
-      <c r="C31" s="7" t="s">
+    <row r="31" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="33">
+        <v>2035</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="F31" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="G31" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="I31" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+    </row>
+    <row r="32" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K31" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="M31" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="8">
-        <v>2035</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>19</v>
@@ -2443,10 +2442,10 @@
         <v>69</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J32" s="13" t="s">
         <v>10</v>
@@ -2454,8 +2453,14 @@
       <c r="K32" s="13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L32" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>13</v>
       </c>
@@ -2463,7 +2468,7 @@
         <v>2035</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>19</v>
@@ -2472,13 +2477,10 @@
         <v>69</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J33" s="13" t="s">
         <v>10</v>
@@ -2487,7 +2489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>13</v>
       </c>
@@ -2495,7 +2497,7 @@
         <v>2035</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>19</v>
@@ -2504,13 +2506,13 @@
         <v>69</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="J34" s="13" t="s">
         <v>10</v>
@@ -2519,7 +2521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>13</v>
       </c>
@@ -2527,7 +2529,7 @@
         <v>2035</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>19</v>
@@ -2536,13 +2538,13 @@
         <v>69</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>108</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J35" s="13" t="s">
         <v>10</v>
@@ -2551,7 +2553,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>13</v>
       </c>
@@ -2559,7 +2561,7 @@
         <v>2035</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>19</v>
@@ -2568,16 +2570,13 @@
         <v>69</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>108</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J36" s="13" t="s">
         <v>10</v>
@@ -2585,14 +2584,8 @@
       <c r="K36" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L36" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="M36" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>13</v>
       </c>
@@ -2600,7 +2593,7 @@
         <v>2035</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>206</v>
+        <v>114</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>19</v>
@@ -2609,7 +2602,16 @@
         <v>69</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>211</v>
+        <v>115</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="J37" s="13" t="s">
         <v>10</v>
@@ -2618,13 +2620,13 @@
         <v>10</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>208</v>
+        <v>134</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>13</v>
       </c>
@@ -2632,7 +2634,7 @@
         <v>2035</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>19</v>
@@ -2641,7 +2643,7 @@
         <v>69</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J38" s="13" t="s">
         <v>10</v>
@@ -2650,13 +2652,13 @@
         <v>10</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>13</v>
       </c>
@@ -2664,7 +2666,7 @@
         <v>2035</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>19</v>
@@ -2673,7 +2675,7 @@
         <v>69</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J39" s="13" t="s">
         <v>10</v>
@@ -2682,13 +2684,13 @@
         <v>10</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>13</v>
       </c>
@@ -2696,7 +2698,7 @@
         <v>2035</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>19</v>
@@ -2705,7 +2707,7 @@
         <v>69</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J40" s="13" t="s">
         <v>10</v>
@@ -2714,13 +2716,13 @@
         <v>10</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>13</v>
       </c>
@@ -2728,7 +2730,7 @@
         <v>2035</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>19</v>
@@ -2737,7 +2739,7 @@
         <v>69</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="J41" s="13" t="s">
         <v>10</v>
@@ -2746,13 +2748,13 @@
         <v>10</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>13</v>
       </c>
@@ -2760,7 +2762,7 @@
         <v>2035</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>19</v>
@@ -2769,7 +2771,7 @@
         <v>69</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J42" s="13" t="s">
         <v>10</v>
@@ -2778,13 +2780,13 @@
         <v>10</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>13</v>
       </c>
@@ -2792,7 +2794,7 @@
         <v>2035</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>19</v>
@@ -2801,7 +2803,7 @@
         <v>69</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J43" s="13" t="s">
         <v>10</v>
@@ -2810,13 +2812,13 @@
         <v>10</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>13</v>
       </c>
@@ -2824,7 +2826,7 @@
         <v>2035</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>19</v>
@@ -2833,7 +2835,7 @@
         <v>69</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J44" s="13" t="s">
         <v>10</v>
@@ -2842,13 +2844,13 @@
         <v>10</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>13</v>
       </c>
@@ -2856,7 +2858,7 @@
         <v>2035</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>19</v>
@@ -2865,16 +2867,7 @@
         <v>69</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G45" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="J45" s="13" t="s">
         <v>10</v>
@@ -2889,7 +2882,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>13</v>
       </c>
@@ -2897,7 +2890,7 @@
         <v>2035</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>19</v>
@@ -2906,31 +2899,21 @@
         <v>69</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="G46" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="J46" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K46" s="13" t="s">
-        <v>10</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
       <c r="L46" s="7" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="M46" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>13</v>
       </c>
@@ -2938,7 +2921,7 @@
         <v>2035</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>19</v>
@@ -2947,31 +2930,21 @@
         <v>69</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="G47" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="J47" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K47" s="13" t="s">
-        <v>10</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
       <c r="L47" s="7" t="s">
-        <v>222</v>
+        <v>259</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>13</v>
       </c>
@@ -2979,7 +2952,7 @@
         <v>2035</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>19</v>
@@ -2988,19 +2961,29 @@
         <v>69</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="G48" s="36"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
+      <c r="H48" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="J48" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K48" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="L48" s="7" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>13</v>
       </c>
@@ -3008,7 +2991,7 @@
         <v>2035</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>19</v>
@@ -3017,19 +3000,29 @@
         <v>69</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="G49" s="36"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
+      <c r="H49" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="J49" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K49" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="L49" s="7" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>13</v>
       </c>
@@ -3037,7 +3030,7 @@
         <v>2035</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>19</v>
@@ -3046,19 +3039,19 @@
         <v>69</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G50" s="36"/>
       <c r="J50" s="13"/>
       <c r="K50" s="13"/>
       <c r="L50" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M50" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>13</v>
       </c>
@@ -3066,7 +3059,7 @@
         <v>2035</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>19</v>
@@ -3075,21 +3068,19 @@
         <v>69</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G51" s="36" t="s">
-        <v>31</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="G51" s="36"/>
       <c r="J51" s="13"/>
       <c r="K51" s="13"/>
       <c r="L51" s="7" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="M51" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>13</v>
       </c>
@@ -3097,7 +3088,7 @@
         <v>2035</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>19</v>
@@ -3106,61 +3097,58 @@
         <v>69</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G52" s="36" t="s">
-        <v>31</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="G52" s="36"/>
       <c r="J52" s="13"/>
       <c r="K52" s="13"/>
       <c r="L52" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="M52" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G53" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I53" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="M52" s="7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" s="16">
-        <v>2035</v>
-      </c>
-      <c r="C53" s="15" t="s">
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+    </row>
+    <row r="54" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C54" s="15" t="s">
         <v>80</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="H53" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I53" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="J53" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K53" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" s="16">
-        <v>2035</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>84</v>
       </c>
       <c r="D54" s="15" t="s">
         <v>19</v>
@@ -3169,13 +3157,13 @@
         <v>91</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H54" s="15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I54" s="18" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J54" s="17" t="s">
         <v>10</v>
@@ -3184,7 +3172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
         <v>13</v>
       </c>
@@ -3192,7 +3180,7 @@
         <v>2035</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="D55" s="15" t="s">
         <v>19</v>
@@ -3201,16 +3189,13 @@
         <v>91</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="H55" s="15" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="I55" s="18" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="J55" s="17" t="s">
         <v>10</v>
@@ -3218,11 +3203,8 @@
       <c r="K55" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L55" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="15" t="s">
         <v>13</v>
       </c>
@@ -3230,7 +3212,7 @@
         <v>2035</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D56" s="15" t="s">
         <v>19</v>
@@ -3239,13 +3221,16 @@
         <v>91</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>148</v>
+        <v>126</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="H56" s="15" t="s">
         <v>119</v>
       </c>
       <c r="I56" s="18" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="J56" s="17" t="s">
         <v>10</v>
@@ -3253,8 +3238,11 @@
       <c r="K56" s="17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L56" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
         <v>13</v>
       </c>
@@ -3262,7 +3250,7 @@
         <v>2035</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="D57" s="15" t="s">
         <v>19</v>
@@ -3271,7 +3259,7 @@
         <v>91</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H57" s="15" t="s">
         <v>119</v>
@@ -3286,7 +3274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
         <v>13</v>
       </c>
@@ -3294,7 +3282,7 @@
         <v>2035</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D58" s="15" t="s">
         <v>19</v>
@@ -3303,66 +3291,66 @@
         <v>91</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H58" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="I58" s="18"/>
+      <c r="I58" s="18" t="s">
+        <v>120</v>
+      </c>
       <c r="J58" s="17" t="s">
         <v>10</v>
       </c>
       <c r="K58" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L58" s="15" t="s">
+    </row>
+    <row r="59" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I59" s="18"/>
+      <c r="J59" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K59" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L59" s="15" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="59" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" s="26">
-        <v>2035</v>
-      </c>
-      <c r="C59" s="27" t="s">
+    <row r="60" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="26">
+        <v>2035</v>
+      </c>
+      <c r="C60" s="27" t="s">
         <v>89</v>
-      </c>
-      <c r="D59" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E59" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="F59" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="H59" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="I59" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="J59" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K59" s="28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" s="26">
-        <v>2035</v>
-      </c>
-      <c r="C60" s="27" t="s">
-        <v>88</v>
       </c>
       <c r="D60" s="25" t="s">
         <v>19</v>
@@ -3371,13 +3359,13 @@
         <v>92</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H60" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I60" s="27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J60" s="28" t="s">
         <v>10</v>
@@ -3386,7 +3374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="25" t="s">
         <v>13</v>
       </c>
@@ -3394,7 +3382,7 @@
         <v>2035</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="D61" s="25" t="s">
         <v>19</v>
@@ -3403,71 +3391,71 @@
         <v>92</v>
       </c>
       <c r="F61" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="H61" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="I61" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="J61" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K61" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="26">
+        <v>2035</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F62" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="G61" s="27" t="s">
+      <c r="G62" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H61" s="27" t="s">
+      <c r="H62" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="I61" s="27" t="s">
+      <c r="I62" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="J61" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K61" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="L61" s="27" t="s">
+      <c r="J62" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K62" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="L62" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="M61" s="27" t="s">
+      <c r="M62" s="27" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="62" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B62" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C62" s="29" t="s">
+    <row r="63" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C63" s="29" t="s">
         <v>99</v>
-      </c>
-      <c r="D62" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E62" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F62" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="H62" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="I62" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="J62" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K62" s="31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C63" s="29" t="s">
-        <v>100</v>
       </c>
       <c r="D63" s="29" t="s">
         <v>19</v>
@@ -3476,13 +3464,13 @@
         <v>117</v>
       </c>
       <c r="F63" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H63" s="29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I63" s="29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J63" s="31" t="s">
         <v>10</v>
@@ -3491,7 +3479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="29" t="s">
         <v>13</v>
       </c>
@@ -3499,7 +3487,7 @@
         <v>2035</v>
       </c>
       <c r="C64" s="29" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="D64" s="29" t="s">
         <v>19</v>
@@ -3508,13 +3496,13 @@
         <v>117</v>
       </c>
       <c r="F64" s="29" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="H64" s="29" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="I64" s="29" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="J64" s="31" t="s">
         <v>10</v>
@@ -3522,11 +3510,8 @@
       <c r="K64" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="L64" s="29" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="29" t="s">
         <v>13</v>
       </c>
@@ -3534,7 +3519,7 @@
         <v>2035</v>
       </c>
       <c r="C65" s="29" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="D65" s="29" t="s">
         <v>19</v>
@@ -3543,13 +3528,13 @@
         <v>117</v>
       </c>
       <c r="F65" s="29" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="H65" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I65" s="29" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="J65" s="31" t="s">
         <v>10</v>
@@ -3557,8 +3542,11 @@
       <c r="K65" s="31" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L65" s="29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="29" t="s">
         <v>13</v>
       </c>
@@ -3566,7 +3554,7 @@
         <v>2035</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D66" s="29" t="s">
         <v>19</v>
@@ -3575,11 +3563,14 @@
         <v>117</v>
       </c>
       <c r="F66" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H66" s="29" t="s">
         <v>143</v>
       </c>
+      <c r="I66" s="29" t="s">
+        <v>144</v>
+      </c>
       <c r="J66" s="31" t="s">
         <v>10</v>
       </c>
@@ -3587,7 +3578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="29" t="s">
         <v>13</v>
       </c>
@@ -3595,7 +3586,7 @@
         <v>2035</v>
       </c>
       <c r="C67" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D67" s="29" t="s">
         <v>19</v>
@@ -3604,10 +3595,7 @@
         <v>117</v>
       </c>
       <c r="F67" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="G67" s="29" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="H67" s="29" t="s">
         <v>143</v>
@@ -3618,20 +3606,52 @@
       <c r="K67" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="L67" s="29" t="s">
+    </row>
+    <row r="68" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C68" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D68" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F68" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="G68" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="H68" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="J68" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K68" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="L68" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="M67" s="29" t="s">
+      <c r="M68" s="29" t="s">
         <v>191</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L64" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L65" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I6" r:id="rId1" xr:uid="{2F5DF9E8-6F7C-49D0-A88D-920944076562}"/>
     <hyperlink ref="I13" r:id="rId2" xr:uid="{088533EE-4DDB-4145-8A51-9A459A5B0EE7}"/>
-    <hyperlink ref="I53" r:id="rId3" xr:uid="{7568B75C-5EC3-4B27-BBC3-154FC1450F6B}"/>
+    <hyperlink ref="I54" r:id="rId3" xr:uid="{7568B75C-5EC3-4B27-BBC3-154FC1450F6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ftsang\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5477CED-FD67-4ECC-A4A7-A437951F1097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194491E1-8E85-43F1-A5CA-83B27A88A8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="all_runs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_runs!$A$1:$L$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_runs!$A$1:$L$67</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="271">
   <si>
     <t>category</t>
   </si>
@@ -831,6 +831,24 @@
   </si>
   <si>
     <t>P2- MBUF post tollclass=0 bug fix, at 7.5c</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGF_r2_NoProject_06_add2.9cT</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGF_r2_NoProject_06_add4.4cT</t>
+  </si>
+  <si>
+    <t>aoc based mbuf at 5c, no cap, network with more transit</t>
+  </si>
+  <si>
+    <t>aoc based mbuf at 7.5c, no cap, network with more transit</t>
+  </si>
+  <si>
+    <t>NGF_Networks_NGFround2_P2_01</t>
+  </si>
+  <si>
+    <t>https://app.asana.com/0/1203644633064654/1208050271846456/f</t>
   </si>
 </sst>
 </file>
@@ -1405,11 +1423,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A51:XFD51"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -2904,6 +2922,9 @@
       <c r="G46" s="36" t="s">
         <v>31</v>
       </c>
+      <c r="H46" s="7" t="s">
+        <v>269</v>
+      </c>
       <c r="J46" s="13"/>
       <c r="K46" s="13"/>
       <c r="L46" s="7" t="s">
@@ -2934,6 +2955,9 @@
       </c>
       <c r="G47" s="36" t="s">
         <v>31</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>269</v>
       </c>
       <c r="J47" s="13"/>
       <c r="K47" s="13"/>
@@ -3140,69 +3164,67 @@
       <c r="J53" s="13"/>
       <c r="K53" s="13"/>
     </row>
-    <row r="54" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" s="16">
-        <v>2035</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="H54" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I54" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="J54" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K54" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55" s="16">
-        <v>2035</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F55" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="H55" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I55" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="J55" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K55" s="17" t="s">
-        <v>10</v>
-      </c>
+    <row r="54" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G54" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+    </row>
+    <row r="55" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G55" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
     </row>
     <row r="56" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="15" t="s">
@@ -3212,7 +3234,7 @@
         <v>2035</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="D56" s="15" t="s">
         <v>19</v>
@@ -3221,25 +3243,19 @@
         <v>91</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="I56" s="18" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="J56" s="17" t="s">
         <v>10</v>
       </c>
       <c r="K56" s="17" t="s">
         <v>10</v>
-      </c>
-      <c r="L56" s="15" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -3250,7 +3266,7 @@
         <v>2035</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="D57" s="15" t="s">
         <v>19</v>
@@ -3259,13 +3275,13 @@
         <v>91</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="H57" s="15" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="I57" s="18" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="J57" s="17" t="s">
         <v>10</v>
@@ -3282,7 +3298,7 @@
         <v>2035</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="D58" s="15" t="s">
         <v>19</v>
@@ -3291,19 +3307,25 @@
         <v>91</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>149</v>
+        <v>126</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="H58" s="15" t="s">
         <v>119</v>
       </c>
       <c r="I58" s="18" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="J58" s="17" t="s">
         <v>10</v>
       </c>
       <c r="K58" s="17" t="s">
         <v>10</v>
+      </c>
+      <c r="L58" s="15" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -3314,7 +3336,7 @@
         <v>2035</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="D59" s="15" t="s">
         <v>19</v>
@@ -3323,87 +3345,87 @@
         <v>91</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="G59" s="15" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H59" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="I59" s="18"/>
+      <c r="I59" s="18" t="s">
+        <v>120</v>
+      </c>
       <c r="J59" s="17" t="s">
         <v>10</v>
       </c>
       <c r="K59" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L59" s="15" t="s">
+    </row>
+    <row r="60" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="H60" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I60" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="J60" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K60" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="H61" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I61" s="18"/>
+      <c r="J61" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K61" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L61" s="15" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" s="26">
-        <v>2035</v>
-      </c>
-      <c r="C60" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="D60" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E60" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="F60" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="H60" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="I60" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="J60" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K60" s="28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" s="26">
-        <v>2035</v>
-      </c>
-      <c r="C61" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="D61" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E61" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="F61" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="H61" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="I61" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="J61" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K61" s="28" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.3">
@@ -3414,7 +3436,7 @@
         <v>2035</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="D62" s="25" t="s">
         <v>19</v>
@@ -3423,92 +3445,92 @@
         <v>92</v>
       </c>
       <c r="F62" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="H62" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="I62" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="J62" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K62" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" s="26">
+        <v>2035</v>
+      </c>
+      <c r="C63" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D63" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F63" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="H63" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="I63" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="J63" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K63" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="26">
+        <v>2035</v>
+      </c>
+      <c r="C64" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F64" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="G62" s="27" t="s">
+      <c r="G64" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H62" s="27" t="s">
+      <c r="H64" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="I62" s="27" t="s">
+      <c r="I64" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="J62" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K62" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="L62" s="27" t="s">
+      <c r="J64" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K64" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="L64" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="M62" s="27" t="s">
+      <c r="M64" s="27" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C63" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="D63" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E63" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F63" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="H63" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="I63" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="J63" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K63" s="31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B64" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C64" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="D64" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E64" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F64" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="H64" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="I64" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="J64" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K64" s="31" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -3519,7 +3541,7 @@
         <v>2035</v>
       </c>
       <c r="C65" s="29" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="D65" s="29" t="s">
         <v>19</v>
@@ -3528,22 +3550,19 @@
         <v>117</v>
       </c>
       <c r="F65" s="29" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="H65" s="29" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="I65" s="29" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="J65" s="31" t="s">
         <v>10</v>
       </c>
       <c r="K65" s="31" t="s">
         <v>10</v>
-      </c>
-      <c r="L65" s="29" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -3554,7 +3573,7 @@
         <v>2035</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="D66" s="29" t="s">
         <v>19</v>
@@ -3563,13 +3582,13 @@
         <v>117</v>
       </c>
       <c r="F66" s="29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H66" s="29" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="I66" s="29" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="J66" s="31" t="s">
         <v>10</v>
@@ -3586,7 +3605,7 @@
         <v>2035</v>
       </c>
       <c r="C67" s="29" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="D67" s="29" t="s">
         <v>19</v>
@@ -3595,16 +3614,22 @@
         <v>117</v>
       </c>
       <c r="F67" s="29" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="H67" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
+      </c>
+      <c r="I67" s="29" t="s">
+        <v>128</v>
       </c>
       <c r="J67" s="31" t="s">
         <v>10</v>
       </c>
       <c r="K67" s="31" t="s">
         <v>10</v>
+      </c>
+      <c r="L67" s="29" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -3615,7 +3640,7 @@
         <v>2035</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D68" s="29" t="s">
         <v>19</v>
@@ -3624,34 +3649,95 @@
         <v>117</v>
       </c>
       <c r="F68" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="G68" s="29" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="H68" s="29" t="s">
         <v>143</v>
       </c>
+      <c r="I68" s="29" t="s">
+        <v>144</v>
+      </c>
       <c r="J68" s="31" t="s">
         <v>10</v>
       </c>
       <c r="K68" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="L68" s="29" t="s">
+    </row>
+    <row r="69" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C69" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D69" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F69" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="H69" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="J69" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K69" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C70" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D70" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F70" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="G70" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="H70" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="J70" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K70" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="L70" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="M68" s="29" t="s">
+      <c r="M70" s="29" t="s">
         <v>191</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L65" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L67" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I6" r:id="rId1" xr:uid="{2F5DF9E8-6F7C-49D0-A88D-920944076562}"/>
     <hyperlink ref="I13" r:id="rId2" xr:uid="{088533EE-4DDB-4145-8A51-9A459A5B0EE7}"/>
-    <hyperlink ref="I54" r:id="rId3" xr:uid="{7568B75C-5EC3-4B27-BBC3-154FC1450F6B}"/>
+    <hyperlink ref="I56" r:id="rId3" xr:uid="{7568B75C-5EC3-4B27-BBC3-154FC1450F6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ftsang\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194491E1-8E85-43F1-A5CA-83B27A88A8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F874A005-F7AC-4084-B809-515DC6978F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="all_runs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_runs!$A$1:$L$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_runs!$A$1:$L$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="280">
   <si>
     <t>category</t>
   </si>
@@ -791,9 +791,6 @@
     <t>xxz</t>
   </si>
   <si>
-    <t>xxx</t>
-  </si>
-  <si>
     <t>2035_TM160_NGFr2_NP06_Path2_01</t>
   </si>
   <si>
@@ -849,6 +846,36 @@
   </si>
   <si>
     <t>https://app.asana.com/0/1203644633064654/1208050271846456/f</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGF_r2_NoProject_07</t>
+  </si>
+  <si>
+    <t>https://app.asana.com/0/1203644633064654/1208068566505509/f</t>
+  </si>
+  <si>
+    <t>in progress</t>
+  </si>
+  <si>
+    <t>same trn hes as NoProject_06 but with EL on</t>
+  </si>
+  <si>
+    <t>https://app.asana.com/0/1203644633064654/1208025230758033/f</t>
+  </si>
+  <si>
+    <t>updated trn hes (less trn hes than NoProject_04 and 05); no EL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linked-based MBUF test after the tollclass=0 bug fix </t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP04_Path1_12_highTrnHes</t>
+  </si>
+  <si>
+    <t>P1 - 30c/10c - no local road spd limit red (but use old i.e. higher trn hes)</t>
+  </si>
+  <si>
+    <t>https://app.asana.com/0/0/1208068566505517/f</t>
   </si>
 </sst>
 </file>
@@ -1423,11 +1450,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -2241,7 +2268,7 @@
         <v>2035</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>179</v>
+        <v>277</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>19</v>
@@ -2250,16 +2277,19 @@
         <v>28</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>184</v>
+        <v>278</v>
+      </c>
+      <c r="G25" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
-      <c r="L25" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>193</v>
-      </c>
     </row>
     <row r="26" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
@@ -2269,7 +2299,7 @@
         <v>2035</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>243</v>
+        <v>179</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>19</v>
@@ -2278,22 +2308,15 @@
         <v>28</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="G26" s="37"/>
-      <c r="H26" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>228</v>
+        <v>184</v>
       </c>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="4" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2304,7 +2327,7 @@
         <v>2035</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>19</v>
@@ -2313,16 +2336,22 @@
         <v>28</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="G27" s="37"/>
+      <c r="H27" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>228</v>
+      </c>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2333,7 +2362,7 @@
         <v>2035</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>19</v>
@@ -2342,46 +2371,40 @@
         <v>28</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="G28" s="37"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
-    </row>
-    <row r="29" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="33">
-        <v>2035</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="F29" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="G29" s="35"/>
-      <c r="H29" s="32" t="s">
-        <v>224</v>
-      </c>
-      <c r="I29" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="M29" s="32" t="s">
-        <v>189</v>
-      </c>
+      <c r="L28" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="6">
+        <v>2035</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="G29" s="37"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
     </row>
     <row r="30" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="32" t="s">
@@ -2391,7 +2414,7 @@
         <v>2035</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D30" s="32" t="s">
         <v>19</v>
@@ -2400,16 +2423,22 @@
         <v>223</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G30" s="35"/>
+      <c r="H30" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="I30" s="32" t="s">
+        <v>225</v>
+      </c>
       <c r="J30" s="34"/>
       <c r="K30" s="34"/>
       <c r="L30" s="32" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M30" s="32" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -2420,7 +2449,7 @@
         <v>2035</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D31" s="32" t="s">
         <v>19</v>
@@ -2429,54 +2458,48 @@
         <v>223</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="G31" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="H31" s="32" t="s">
-        <v>224</v>
-      </c>
-      <c r="I31" s="32" t="s">
-        <v>263</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="G31" s="35"/>
       <c r="J31" s="34"/>
       <c r="K31" s="34"/>
-    </row>
-    <row r="32" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="8">
-        <v>2035</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="J32" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K32" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="M32" s="7" t="s">
-        <v>189</v>
-      </c>
+      <c r="L31" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="M31" s="32" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="33">
+        <v>2035</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="G32" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="I32" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
     </row>
     <row r="33" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
@@ -2486,7 +2509,7 @@
         <v>2035</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>19</v>
@@ -2495,16 +2518,22 @@
         <v>69</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J33" s="13" t="s">
         <v>10</v>
       </c>
       <c r="K33" s="13" t="s">
         <v>10</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2515,7 +2544,7 @@
         <v>2035</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>19</v>
@@ -2524,13 +2553,10 @@
         <v>69</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J34" s="13" t="s">
         <v>10</v>
@@ -2547,7 +2573,7 @@
         <v>2035</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>19</v>
@@ -2556,13 +2582,13 @@
         <v>69</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="J35" s="13" t="s">
         <v>10</v>
@@ -2579,7 +2605,7 @@
         <v>2035</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>19</v>
@@ -2588,13 +2614,13 @@
         <v>69</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>108</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J36" s="13" t="s">
         <v>10</v>
@@ -2611,7 +2637,7 @@
         <v>2035</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>19</v>
@@ -2620,28 +2646,19 @@
         <v>69</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>108</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J37" s="13" t="s">
         <v>10</v>
       </c>
       <c r="K37" s="13" t="s">
         <v>10</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="M37" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2652,7 +2669,7 @@
         <v>2035</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>206</v>
+        <v>114</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>19</v>
@@ -2661,7 +2678,16 @@
         <v>69</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>211</v>
+        <v>115</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="J38" s="13" t="s">
         <v>10</v>
@@ -2670,10 +2696,10 @@
         <v>10</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>208</v>
+        <v>134</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2684,7 +2710,7 @@
         <v>2035</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>19</v>
@@ -2693,7 +2719,7 @@
         <v>69</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J39" s="13" t="s">
         <v>10</v>
@@ -2702,10 +2728,10 @@
         <v>10</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2716,7 +2742,7 @@
         <v>2035</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>19</v>
@@ -2725,7 +2751,7 @@
         <v>69</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J40" s="13" t="s">
         <v>10</v>
@@ -2734,10 +2760,10 @@
         <v>10</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2748,7 +2774,7 @@
         <v>2035</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>19</v>
@@ -2757,7 +2783,7 @@
         <v>69</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J41" s="13" t="s">
         <v>10</v>
@@ -2766,10 +2792,10 @@
         <v>10</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2780,7 +2806,7 @@
         <v>2035</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>19</v>
@@ -2789,7 +2815,7 @@
         <v>69</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="J42" s="13" t="s">
         <v>10</v>
@@ -2798,10 +2824,10 @@
         <v>10</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2812,7 +2838,7 @@
         <v>2035</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>19</v>
@@ -2821,7 +2847,7 @@
         <v>69</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J43" s="13" t="s">
         <v>10</v>
@@ -2830,10 +2856,10 @@
         <v>10</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2844,7 +2870,7 @@
         <v>2035</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>19</v>
@@ -2853,7 +2879,7 @@
         <v>69</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J44" s="13" t="s">
         <v>10</v>
@@ -2862,10 +2888,10 @@
         <v>10</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2876,7 +2902,7 @@
         <v>2035</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>19</v>
@@ -2885,7 +2911,7 @@
         <v>69</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J45" s="13" t="s">
         <v>10</v>
@@ -2894,10 +2920,10 @@
         <v>10</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2908,7 +2934,7 @@
         <v>2035</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>19</v>
@@ -2917,21 +2943,19 @@
         <v>69</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G46" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
+        <v>214</v>
+      </c>
+      <c r="J46" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K46" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="L46" s="7" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="M46" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2942,7 +2966,7 @@
         <v>2035</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>19</v>
@@ -2957,15 +2981,15 @@
         <v>31</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J47" s="13"/>
       <c r="K47" s="13"/>
       <c r="L47" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>240</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2976,7 +3000,7 @@
         <v>2035</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>19</v>
@@ -2985,26 +3009,21 @@
         <v>69</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G48" s="36"/>
+        <v>250</v>
+      </c>
+      <c r="G48" s="36" t="s">
+        <v>31</v>
+      </c>
       <c r="H48" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="J48" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K48" s="13" t="s">
-        <v>10</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
       <c r="L48" s="7" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>193</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3015,7 +3034,7 @@
         <v>2035</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>19</v>
@@ -3024,14 +3043,14 @@
         <v>69</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G49" s="36"/>
       <c r="H49" s="7" t="s">
         <v>108</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="J49" s="13" t="s">
         <v>10</v>
@@ -3054,7 +3073,7 @@
         <v>2035</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>19</v>
@@ -3063,16 +3082,26 @@
         <v>69</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="G50" s="36"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
+      <c r="H50" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="J50" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K50" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="L50" s="7" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="M50" s="7" t="s">
-        <v>240</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3083,7 +3112,7 @@
         <v>2035</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>19</v>
@@ -3092,16 +3121,24 @@
         <v>69</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G51" s="36"/>
+        <v>275</v>
+      </c>
+      <c r="G51" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>274</v>
+      </c>
       <c r="J51" s="13"/>
       <c r="K51" s="13"/>
       <c r="L51" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="M51" s="7" t="s">
-        <v>191</v>
+        <v>240</v>
       </c>
     </row>
     <row r="52" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3112,7 +3149,7 @@
         <v>2035</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>19</v>
@@ -3121,16 +3158,16 @@
         <v>69</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G52" s="36"/>
       <c r="J52" s="13"/>
       <c r="K52" s="13"/>
       <c r="L52" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="M52" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3141,7 +3178,7 @@
         <v>2035</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>19</v>
@@ -3152,17 +3189,15 @@
       <c r="F53" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="G53" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="I53" s="7" t="s">
-        <v>263</v>
-      </c>
+      <c r="G53" s="36"/>
       <c r="J53" s="13"/>
       <c r="K53" s="13"/>
+      <c r="L53" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="M53" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="54" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
@@ -3172,7 +3207,7 @@
         <v>2035</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>19</v>
@@ -3181,16 +3216,16 @@
         <v>69</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="G54" s="36" t="s">
-        <v>31</v>
+        <v>260</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>269</v>
+        <v>108</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="J54" s="13"/>
       <c r="K54" s="13"/>
@@ -3203,7 +3238,7 @@
         <v>2035</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>19</v>
@@ -3212,82 +3247,86 @@
         <v>69</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G55" s="36" t="s">
         <v>31</v>
       </c>
       <c r="H55" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="I55" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="I55" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="J55" s="13"/>
       <c r="K55" s="13"/>
     </row>
-    <row r="56" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56" s="16">
-        <v>2035</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F56" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="H56" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I56" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="J56" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K56" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" s="16">
-        <v>2035</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F57" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="H57" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I57" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="J57" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K57" s="17" t="s">
-        <v>10</v>
+    <row r="56" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G56" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+    </row>
+    <row r="57" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G57" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="M57" s="7" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="58" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -3298,7 +3337,7 @@
         <v>2035</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="D58" s="15" t="s">
         <v>19</v>
@@ -3307,25 +3346,19 @@
         <v>91</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="I58" s="18" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="J58" s="17" t="s">
         <v>10</v>
       </c>
       <c r="K58" s="17" t="s">
         <v>10</v>
-      </c>
-      <c r="L58" s="15" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -3336,7 +3369,7 @@
         <v>2035</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="D59" s="15" t="s">
         <v>19</v>
@@ -3345,13 +3378,13 @@
         <v>91</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="H59" s="15" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="I59" s="18" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="J59" s="17" t="s">
         <v>10</v>
@@ -3368,7 +3401,7 @@
         <v>2035</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="D60" s="15" t="s">
         <v>19</v>
@@ -3377,19 +3410,25 @@
         <v>91</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>149</v>
+        <v>126</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="H60" s="15" t="s">
         <v>119</v>
       </c>
       <c r="I60" s="18" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="J60" s="17" t="s">
         <v>10</v>
       </c>
       <c r="K60" s="17" t="s">
         <v>10</v>
+      </c>
+      <c r="L60" s="15" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -3400,7 +3439,7 @@
         <v>2035</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>19</v>
@@ -3409,87 +3448,87 @@
         <v>91</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="G61" s="15" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H61" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="I61" s="18"/>
+      <c r="I61" s="18" t="s">
+        <v>120</v>
+      </c>
       <c r="J61" s="17" t="s">
         <v>10</v>
       </c>
       <c r="K61" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L61" s="15" t="s">
+    </row>
+    <row r="62" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="H62" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I62" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="J62" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K62" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G63" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="H63" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I63" s="18"/>
+      <c r="J63" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K63" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L63" s="15" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B62" s="26">
-        <v>2035</v>
-      </c>
-      <c r="C62" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="D62" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E62" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="F62" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="H62" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="I62" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="J62" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K62" s="28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" s="26">
-        <v>2035</v>
-      </c>
-      <c r="C63" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="D63" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E63" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="F63" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="H63" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="I63" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="J63" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K63" s="28" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.3">
@@ -3500,7 +3539,7 @@
         <v>2035</v>
       </c>
       <c r="C64" s="27" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="D64" s="25" t="s">
         <v>19</v>
@@ -3509,92 +3548,92 @@
         <v>92</v>
       </c>
       <c r="F64" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="H64" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="I64" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="J64" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K64" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" s="26">
+        <v>2035</v>
+      </c>
+      <c r="C65" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D65" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F65" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="H65" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="I65" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="J65" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K65" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" s="26">
+        <v>2035</v>
+      </c>
+      <c r="C66" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D66" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F66" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="G64" s="27" t="s">
+      <c r="G66" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H64" s="27" t="s">
+      <c r="H66" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="I64" s="27" t="s">
+      <c r="I66" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="J64" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K64" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="L64" s="27" t="s">
+      <c r="J66" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K66" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="L66" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="M64" s="27" t="s">
+      <c r="M66" s="27" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B65" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C65" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="D65" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E65" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F65" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="H65" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="I65" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="J65" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K65" s="31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B66" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C66" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="D66" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E66" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F66" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="H66" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="I66" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="J66" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K66" s="31" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -3605,7 +3644,7 @@
         <v>2035</v>
       </c>
       <c r="C67" s="29" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="D67" s="29" t="s">
         <v>19</v>
@@ -3614,22 +3653,19 @@
         <v>117</v>
       </c>
       <c r="F67" s="29" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="H67" s="29" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="I67" s="29" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="J67" s="31" t="s">
         <v>10</v>
       </c>
       <c r="K67" s="31" t="s">
         <v>10</v>
-      </c>
-      <c r="L67" s="29" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -3640,7 +3676,7 @@
         <v>2035</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="D68" s="29" t="s">
         <v>19</v>
@@ -3649,13 +3685,13 @@
         <v>117</v>
       </c>
       <c r="F68" s="29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H68" s="29" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="I68" s="29" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="J68" s="31" t="s">
         <v>10</v>
@@ -3672,7 +3708,7 @@
         <v>2035</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="D69" s="29" t="s">
         <v>19</v>
@@ -3681,16 +3717,22 @@
         <v>117</v>
       </c>
       <c r="F69" s="29" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="H69" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
+      </c>
+      <c r="I69" s="29" t="s">
+        <v>128</v>
       </c>
       <c r="J69" s="31" t="s">
         <v>10</v>
       </c>
       <c r="K69" s="31" t="s">
         <v>10</v>
+      </c>
+      <c r="L69" s="29" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -3701,7 +3743,7 @@
         <v>2035</v>
       </c>
       <c r="C70" s="29" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D70" s="29" t="s">
         <v>19</v>
@@ -3710,34 +3752,95 @@
         <v>117</v>
       </c>
       <c r="F70" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="G70" s="29" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="H70" s="29" t="s">
         <v>143</v>
       </c>
+      <c r="I70" s="29" t="s">
+        <v>144</v>
+      </c>
       <c r="J70" s="31" t="s">
         <v>10</v>
       </c>
       <c r="K70" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="L70" s="29" t="s">
+    </row>
+    <row r="71" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C71" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D71" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F71" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="H71" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="J71" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K71" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C72" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D72" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F72" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="G72" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="H72" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="J72" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K72" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="L72" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="M70" s="29" t="s">
+      <c r="M72" s="29" t="s">
         <v>191</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L67" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L69" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I6" r:id="rId1" xr:uid="{2F5DF9E8-6F7C-49D0-A88D-920944076562}"/>
     <hyperlink ref="I13" r:id="rId2" xr:uid="{088533EE-4DDB-4145-8A51-9A459A5B0EE7}"/>
-    <hyperlink ref="I56" r:id="rId3" xr:uid="{7568B75C-5EC3-4B27-BBC3-154FC1450F6B}"/>
+    <hyperlink ref="I58" r:id="rId3" xr:uid="{7568B75C-5EC3-4B27-BBC3-154FC1450F6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ftsang\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atapase\OneDrive - Metropolitan Transportation Commission\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F874A005-F7AC-4084-B809-515DC6978F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6452AA0-F7D6-466C-A503-BEAB6FCF3BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_runs" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="283">
   <si>
     <t>category</t>
   </si>
@@ -876,6 +876,15 @@
   </si>
   <si>
     <t>https://app.asana.com/0/0/1208068566505517/f</t>
+  </si>
+  <si>
+    <t>F:\\Projects\\2035_TM160_NGFr2_NP06_Path2_02</t>
+  </si>
+  <si>
+    <t>G:\\Projects\\2035_TM160_NGF_r2_NoProject_06_add2.9cT</t>
+  </si>
+  <si>
+    <t>B:\\Projects\\2035_TM160_NGF_r2_NoProject_06_add4.4cT</t>
   </si>
 </sst>
 </file>
@@ -1453,8 +1462,8 @@
   <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -2500,6 +2509,12 @@
       </c>
       <c r="J32" s="34"/>
       <c r="K32" s="34"/>
+      <c r="L32" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="M32" s="32" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="33" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
@@ -3260,6 +3275,12 @@
       </c>
       <c r="J55" s="13"/>
       <c r="K55" s="13"/>
+      <c r="L55" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="M55" s="7" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="56" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
@@ -3291,6 +3312,12 @@
       </c>
       <c r="J56" s="13"/>
       <c r="K56" s="13"/>
+      <c r="L56" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="M56" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="57" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
@@ -3322,12 +3349,6 @@
       </c>
       <c r="J57" s="13"/>
       <c r="K57" s="13"/>
-      <c r="L57" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="M57" s="7" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="58" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
@@ -3430,6 +3451,9 @@
       <c r="L60" s="15" t="s">
         <v>132</v>
       </c>
+      <c r="M60" s="15" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="61" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="15" t="s">
@@ -3530,6 +3554,9 @@
       <c r="L63" s="15" t="s">
         <v>132</v>
       </c>
+      <c r="M63" s="15" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="64" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="25" t="s">
@@ -3733,6 +3760,9 @@
       </c>
       <c r="L69" s="29" t="s">
         <v>136</v>
+      </c>
+      <c r="M69" s="29" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="70" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atapase\OneDrive - Metropolitan Transportation Commission\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6452AA0-F7D6-466C-A503-BEAB6FCF3BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D0A3BD-135C-4CA0-9E1E-4DDFF60EB4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="284">
   <si>
     <t>category</t>
   </si>
@@ -885,6 +885,9 @@
   </si>
   <si>
     <t>B:\\Projects\\2035_TM160_NGF_r2_NoProject_06_add4.4cT</t>
+  </si>
+  <si>
+    <t>B:\\Projects\\2035_TM160_NGF_r2_NoProject_05</t>
   </si>
 </sst>
 </file>
@@ -1462,19 +1465,20 @@
   <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.3984375" customWidth="1"/>
-    <col min="3" max="3" width="43" customWidth="1"/>
+    <col min="3" max="3" width="48.09765625" customWidth="1"/>
     <col min="4" max="4" width="13.09765625" customWidth="1"/>
-    <col min="5" max="5" width="22.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.8984375" customWidth="1"/>
     <col min="6" max="6" width="51.09765625" customWidth="1"/>
+    <col min="7" max="7" width="8.796875" customWidth="1"/>
     <col min="8" max="8" width="47.3984375" customWidth="1"/>
-    <col min="9" max="9" width="59.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="59.69921875" customWidth="1"/>
     <col min="10" max="10" width="43.69921875" style="14" customWidth="1"/>
     <col min="11" max="11" width="15" style="14" customWidth="1"/>
     <col min="12" max="12" width="56.59765625" bestFit="1" customWidth="1"/>
@@ -3060,7 +3064,9 @@
       <c r="F49" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="G49" s="36"/>
+      <c r="G49" s="36" t="s">
+        <v>31</v>
+      </c>
       <c r="H49" s="7" t="s">
         <v>108</v>
       </c>
@@ -3074,7 +3080,7 @@
         <v>10</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>222</v>
+        <v>283</v>
       </c>
       <c r="M49" s="7" t="s">
         <v>193</v>
@@ -3111,12 +3117,6 @@
       </c>
       <c r="K50" s="13" t="s">
         <v>10</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="M50" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="51" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3550,12 +3550,6 @@
       </c>
       <c r="K63" s="17" t="s">
         <v>10</v>
-      </c>
-      <c r="L63" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="M63" s="15" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="64" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.3">

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atapase\OneDrive - Metropolitan Transportation Commission\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D0A3BD-135C-4CA0-9E1E-4DDFF60EB4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AB9639-8D04-48CF-9F50-73C8C006DA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="285">
   <si>
     <t>category</t>
   </si>
@@ -888,6 +888,9 @@
   </si>
   <si>
     <t>B:\\Projects\\2035_TM160_NGF_r2_NoProject_05</t>
+  </si>
+  <si>
+    <t>G:\\Projects\\2035_TM160_NGFr2_NP04_Path1_12_highTrnHes</t>
   </si>
 </sst>
 </file>
@@ -1465,8 +1468,8 @@
   <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -2293,7 +2296,7 @@
         <v>278</v>
       </c>
       <c r="G25" s="37" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>224</v>
@@ -2303,6 +2306,12 @@
       </c>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
+      <c r="L25" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="26" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atapase\OneDrive - Metropolitan Transportation Commission\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ftsang\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AB9639-8D04-48CF-9F50-73C8C006DA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2A8D4A-6160-46DA-80FA-E766D6AF08DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_runs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_runs!$A$1:$L$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_runs!$A$1:$L$74</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="304">
   <si>
     <t>category</t>
   </si>
@@ -785,12 +786,6 @@
     <t>I:\\Projects\\2035_TM160_NGF_r2_NoProject_06_aoc4.4mb</t>
   </si>
   <si>
-    <t>xxy</t>
-  </si>
-  <si>
-    <t>xxz</t>
-  </si>
-  <si>
     <t>2035_TM160_NGFr2_NP06_Path2_01</t>
   </si>
   <si>
@@ -891,6 +886,69 @@
   </si>
   <si>
     <t>G:\\Projects\\2035_TM160_NGFr2_NP04_Path1_12_highTrnHes</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP07_Path5_01</t>
+  </si>
+  <si>
+    <t>P5 with NP07 (which has lower trn hes than NP04)</t>
+  </si>
+  <si>
+    <t>https://app.asana.com/0/0/1208104778991669/f</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP07_Path4_01</t>
+  </si>
+  <si>
+    <t>https://app.asana.com/0/1203644633064654/1208104778991687/f</t>
+  </si>
+  <si>
+    <t>P4 with NP07 (which has lower trn hes than NP04)</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP07_Path6_01</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGF_r2_NoProject_07_aoc2.9cTR</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGF_r2_NoProject_07_aoc4.4cTR</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGF_r2_NoProject_07_aoc1.5cTR</t>
+  </si>
+  <si>
+    <t>NoProject_AOCmbuf_TransitRoadway</t>
+  </si>
+  <si>
+    <t>P6 with NP07 (which has lower trn hes than NP04)</t>
+  </si>
+  <si>
+    <t>https://app.asana.com/0/1203644633064654/1208104778994762/f</t>
+  </si>
+  <si>
+    <t>https://app.asana.com/0/0/1208104778991691/f</t>
+  </si>
+  <si>
+    <t>aoc based mbuf at 7.5c, no cap, network with more transit + road diet</t>
+  </si>
+  <si>
+    <t>aoc based mbuf at 5c, no cap, network with more transit + road diet</t>
+  </si>
+  <si>
+    <t>aoc based mbuf at 2.5c, no cap, network with more transit + road diet</t>
+  </si>
+  <si>
+    <t>NGF_Networks_NGFround2_P2_04</t>
+  </si>
+  <si>
+    <t>https://app.asana.com/0/1203644633064654/1208107743449387/f</t>
+  </si>
+  <si>
+    <t>https://app.asana.com/0/1203644633064654/1208107743449388/f</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1094,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1113,6 +1171,9 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -1465,11 +1526,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M72"/>
+  <dimension ref="A1:M78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -2284,7 +2345,7 @@
         <v>2035</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>19</v>
@@ -2293,7 +2354,7 @@
         <v>28</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G25" s="37" t="s">
         <v>31</v>
@@ -2302,12 +2363,12 @@
         <v>224</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>189</v>
@@ -2436,7 +2497,7 @@
         <v>2035</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D30" s="32" t="s">
         <v>19</v>
@@ -2457,7 +2518,7 @@
       <c r="J30" s="34"/>
       <c r="K30" s="34"/>
       <c r="L30" s="32" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M30" s="32" t="s">
         <v>189</v>
@@ -2471,7 +2532,7 @@
         <v>2035</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D31" s="32" t="s">
         <v>19</v>
@@ -2486,7 +2547,7 @@
       <c r="J31" s="34"/>
       <c r="K31" s="34"/>
       <c r="L31" s="32" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M31" s="32" t="s">
         <v>188</v>
@@ -2500,7 +2561,7 @@
         <v>2035</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D32" s="32" t="s">
         <v>19</v>
@@ -2509,7 +2570,7 @@
         <v>223</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>31</v>
@@ -2518,12 +2579,12 @@
         <v>224</v>
       </c>
       <c r="I32" s="32" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J32" s="34"/>
       <c r="K32" s="34"/>
       <c r="L32" s="32" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M32" s="32" t="s">
         <v>188</v>
@@ -2994,7 +3055,7 @@
         <v>2035</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>19</v>
@@ -3002,19 +3063,16 @@
       <c r="E47" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F47" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G47" s="36" t="s">
+      <c r="G47" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J47" s="13"/>
       <c r="K47" s="13"/>
       <c r="L47" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M47" s="7" t="s">
         <v>189</v>
@@ -3028,7 +3086,7 @@
         <v>2035</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>19</v>
@@ -3036,19 +3094,16 @@
       <c r="E48" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F48" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G48" s="36" t="s">
+      <c r="G48" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J48" s="13"/>
       <c r="K48" s="13"/>
       <c r="L48" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M48" s="7" t="s">
         <v>240</v>
@@ -3073,7 +3128,7 @@
       <c r="F49" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="G49" s="36" t="s">
+      <c r="G49" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H49" s="7" t="s">
@@ -3089,7 +3144,7 @@
         <v>10</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M49" s="7" t="s">
         <v>193</v>
@@ -3114,7 +3169,6 @@
       <c r="F50" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="G50" s="36"/>
       <c r="H50" s="7" t="s">
         <v>108</v>
       </c>
@@ -3145,16 +3199,16 @@
         <v>69</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G51" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="G51" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>108</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J51" s="13"/>
       <c r="K51" s="13"/>
@@ -3180,9 +3234,6 @@
       </c>
       <c r="E52" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="G52" s="36"/>
       <c r="J52" s="13"/>
@@ -3210,9 +3261,6 @@
       <c r="E53" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F53" s="7" t="s">
-        <v>250</v>
-      </c>
       <c r="G53" s="36"/>
       <c r="J53" s="13"/>
       <c r="K53" s="13"/>
@@ -3231,7 +3279,7 @@
         <v>2035</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>19</v>
@@ -3240,16 +3288,16 @@
         <v>69</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G54" s="36" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>108</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J54" s="13"/>
       <c r="K54" s="13"/>
@@ -3262,7 +3310,7 @@
         <v>2035</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>19</v>
@@ -3271,21 +3319,21 @@
         <v>69</v>
       </c>
       <c r="F55" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="G55" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>268</v>
-      </c>
       <c r="I55" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J55" s="13"/>
       <c r="K55" s="13"/>
       <c r="L55" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M55" s="7" t="s">
         <v>189</v>
@@ -3299,7 +3347,7 @@
         <v>2035</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>19</v>
@@ -3308,21 +3356,21 @@
         <v>69</v>
       </c>
       <c r="F56" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="I56" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="G56" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="J56" s="13"/>
       <c r="K56" s="13"/>
       <c r="L56" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="M56" s="7" t="s">
         <v>193</v>
@@ -3336,7 +3384,7 @@
         <v>2035</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>19</v>
@@ -3345,124 +3393,112 @@
         <v>69</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G57" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>108</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J57" s="13"/>
       <c r="K57" s="13"/>
     </row>
-    <row r="58" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" s="16">
-        <v>2035</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F58" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="H58" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I58" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="J58" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K58" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" s="16">
-        <v>2035</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F59" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="H59" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I59" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="J59" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K59" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" s="16">
-        <v>2035</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F60" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H60" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="I60" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="J60" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K60" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L60" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="M60" s="15" t="s">
-        <v>190</v>
-      </c>
+    <row r="58" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G58" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
+    </row>
+    <row r="59" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G59" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+    </row>
+    <row r="60" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G60" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
     </row>
     <row r="61" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="15" t="s">
@@ -3472,7 +3508,7 @@
         <v>2035</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>19</v>
@@ -3481,13 +3517,13 @@
         <v>91</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>148</v>
+        <v>83</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="I61" s="18" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="J61" s="17" t="s">
         <v>10</v>
@@ -3504,7 +3540,7 @@
         <v>2035</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="D62" s="15" t="s">
         <v>19</v>
@@ -3513,13 +3549,13 @@
         <v>91</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="I62" s="18" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="J62" s="17" t="s">
         <v>10</v>
@@ -3536,7 +3572,7 @@
         <v>2035</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>19</v>
@@ -3548,286 +3584,290 @@
         <v>126</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>152</v>
+        <v>31</v>
       </c>
       <c r="H63" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="I63" s="18"/>
+      <c r="I63" s="18" t="s">
+        <v>129</v>
+      </c>
       <c r="J63" s="17" t="s">
         <v>10</v>
       </c>
       <c r="K63" s="17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B64" s="26">
-        <v>2035</v>
-      </c>
-      <c r="C64" s="27" t="s">
+      <c r="L63" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="M63" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H64" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I64" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="J64" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K64" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="H65" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I65" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="J65" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K65" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="H66" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I66" s="18"/>
+      <c r="J66" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K66" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="G67" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I67" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
+    </row>
+    <row r="68" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="26">
+        <v>2035</v>
+      </c>
+      <c r="C68" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="D64" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E64" s="25" t="s">
+      <c r="D68" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="F64" s="25" t="s">
+      <c r="F68" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="H64" s="27" t="s">
+      <c r="H68" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="I64" s="27" t="s">
+      <c r="I68" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="J64" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K64" s="28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B65" s="26">
-        <v>2035</v>
-      </c>
-      <c r="C65" s="27" t="s">
+      <c r="J68" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K68" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" s="26">
+        <v>2035</v>
+      </c>
+      <c r="C69" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="D65" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E65" s="25" t="s">
+      <c r="D69" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="F65" s="25" t="s">
+      <c r="F69" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="H65" s="27" t="s">
+      <c r="H69" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="I65" s="27" t="s">
+      <c r="I69" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="J65" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K65" s="28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B66" s="26">
-        <v>2035</v>
-      </c>
-      <c r="C66" s="27" t="s">
+      <c r="J69" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K69" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="26">
+        <v>2035</v>
+      </c>
+      <c r="C70" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="D66" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E66" s="25" t="s">
+      <c r="D70" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="F66" s="25" t="s">
+      <c r="F70" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="G66" s="27" t="s">
+      <c r="G70" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H66" s="27" t="s">
+      <c r="H70" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="I66" s="27" t="s">
+      <c r="I70" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="J66" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K66" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="L66" s="27" t="s">
+      <c r="J70" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K70" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="L70" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="M66" s="27" t="s">
+      <c r="M70" s="27" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C67" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="D67" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E67" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F67" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="H67" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="I67" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="J67" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K67" s="31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B68" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C68" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="D68" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E68" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F68" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="H68" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="I68" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="J68" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K68" s="31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B69" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C69" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="D69" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E69" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F69" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="H69" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="I69" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="J69" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K69" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="L69" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="M69" s="29" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B70" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C70" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="D70" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E70" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F70" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="H70" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="I70" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="J70" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K70" s="31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B71" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C71" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="D71" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E71" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F71" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="H71" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="J71" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K71" s="31" t="s">
-        <v>10</v>
-      </c>
+    <row r="71" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" s="26">
+        <v>2035</v>
+      </c>
+      <c r="C71" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="D71" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F71" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="G71" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="H71" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="I71" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="J71" s="28"/>
+      <c r="K71" s="28"/>
     </row>
     <row r="72" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="29" t="s">
@@ -3837,7 +3877,7 @@
         <v>2035</v>
       </c>
       <c r="C72" s="29" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="D72" s="29" t="s">
         <v>19</v>
@@ -3846,34 +3886,228 @@
         <v>117</v>
       </c>
       <c r="F72" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="H72" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="I72" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="J72" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K72" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C73" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D73" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F73" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="H73" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="I73" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="J73" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K73" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C74" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D74" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F74" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="G72" s="29" t="s">
+      <c r="H74" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="I74" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="J74" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K74" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="L74" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="M74" s="29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C75" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="D75" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F75" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="H75" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="I75" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="J75" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K75" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C76" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D76" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F76" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="H76" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="J76" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K76" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C77" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D77" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F77" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="G77" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="H72" s="29" t="s">
+      <c r="H77" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="J72" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K72" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="L72" s="29" t="s">
+      <c r="J77" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K77" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="L77" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="M72" s="29" t="s">
+      <c r="M77" s="29" t="s">
         <v>191</v>
       </c>
     </row>
+    <row r="78" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C78" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="D78" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F78" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="G78" s="39" t="s">
+        <v>270</v>
+      </c>
+      <c r="H78" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="I78" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="J78" s="31"/>
+      <c r="K78" s="31"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L69" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L74" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I6" r:id="rId1" xr:uid="{2F5DF9E8-6F7C-49D0-A88D-920944076562}"/>
     <hyperlink ref="I13" r:id="rId2" xr:uid="{088533EE-4DDB-4145-8A51-9A459A5B0EE7}"/>
-    <hyperlink ref="I58" r:id="rId3" xr:uid="{7568B75C-5EC3-4B27-BBC3-154FC1450F6B}"/>
+    <hyperlink ref="I61" r:id="rId3" xr:uid="{7568B75C-5EC3-4B27-BBC3-154FC1450F6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ftsang\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atapase\OneDrive - Metropolitan Transportation Commission\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2A8D4A-6160-46DA-80FA-E766D6AF08DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECA784F-4DF3-401F-BD50-7A52FAD4A5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_runs" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_runs!$A$1:$L$74</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="310">
   <si>
     <t>category</t>
   </si>
@@ -495,9 +494,6 @@
     <t>2035_TM160_NGFr2_NP04_Path6_02</t>
   </si>
   <si>
-    <t>may not need to run this</t>
-  </si>
-  <si>
     <t>2035_TM160_NGFr2_NP04_Path1_03</t>
   </si>
   <si>
@@ -948,7 +944,28 @@
     <t>https://app.asana.com/0/1203644633064654/1208107743449388/f</t>
   </si>
   <si>
-    <t>done</t>
+    <t>A:\\Projects\\2035_TM160_NGF_r2_NoProject_07_aoc2.9cTR</t>
+  </si>
+  <si>
+    <t>X:\\Projects\\2035_TM160_NGF_r2_NoProject_07_aoc4.4cTR</t>
+  </si>
+  <si>
+    <t>B:\\Projects\\2035_TM160_NGF_r2_NoProject_07_aoc1.5cTR</t>
+  </si>
+  <si>
+    <t>V:\\Projects\\2035_TM160_NGF_r2_NoProject_07</t>
+  </si>
+  <si>
+    <t>F:\\Projects\\2035_TM160_NGFr2_NP07_Path6_01</t>
+  </si>
+  <si>
+    <t>V:\\Projects\\2035_TM160_NGFr2_NP07_Path5_01</t>
+  </si>
+  <si>
+    <t>G:\\Projects\\2035_TM160_NGFr2_NP07_Path4_01</t>
+  </si>
+  <si>
+    <t>H:\\Projects\\2035_TM160_NGFr2_NP06_Path1_12_30c15c</t>
   </si>
 </sst>
 </file>
@@ -1528,28 +1545,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.3984375" customWidth="1"/>
-    <col min="3" max="3" width="48.09765625" customWidth="1"/>
-    <col min="4" max="4" width="13.09765625" customWidth="1"/>
-    <col min="5" max="5" width="22.8984375" customWidth="1"/>
-    <col min="6" max="6" width="51.09765625" customWidth="1"/>
-    <col min="7" max="7" width="8.796875" customWidth="1"/>
-    <col min="8" max="8" width="47.3984375" customWidth="1"/>
-    <col min="9" max="9" width="59.69921875" customWidth="1"/>
-    <col min="10" max="10" width="43.69921875" style="14" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="51.140625" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" customWidth="1"/>
+    <col min="8" max="8" width="47.42578125" customWidth="1"/>
+    <col min="9" max="9" width="59.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="14" customWidth="1"/>
     <col min="11" max="11" width="15" style="14" customWidth="1"/>
-    <col min="12" max="12" width="56.59765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.09765625" customWidth="1"/>
+    <col min="12" max="12" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1587,10 +1604,10 @@
         <v>130</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1618,7 +1635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1626,7 +1643,7 @@
         <v>2035</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>19</v>
@@ -1635,17 +1652,17 @@
         <v>16</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
       <c r="L3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1681,10 +1698,10 @@
         <v>137</v>
       </c>
       <c r="M4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1720,7 +1737,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1755,7 +1772,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1791,7 +1808,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1824,7 +1841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1857,7 +1874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -1889,7 +1906,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1921,7 +1938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -1956,10 +1973,10 @@
         <v>131</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -1991,7 +2008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -2023,7 +2040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -2031,7 +2048,7 @@
         <v>2035</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>19</v>
@@ -2040,14 +2057,14 @@
         <v>28</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H15" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>158</v>
-      </c>
       <c r="J15" s="12" t="s">
         <v>10</v>
       </c>
@@ -2055,7 +2072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
@@ -2063,7 +2080,7 @@
         <v>2035</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>19</v>
@@ -2072,30 +2089,30 @@
         <v>28</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>157</v>
-      </c>
       <c r="I16" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="6">
+        <v>2035</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="6">
-        <v>2035</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>19</v>
@@ -2104,13 +2121,13 @@
         <v>28</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J17" s="12" t="s">
         <v>10</v>
@@ -2119,13 +2136,13 @@
         <v>10</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
@@ -2133,7 +2150,7 @@
         <v>2035</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>19</v>
@@ -2142,13 +2159,13 @@
         <v>28</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J18" s="12" t="s">
         <v>10</v>
@@ -2157,13 +2174,13 @@
         <v>10</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
@@ -2171,7 +2188,7 @@
         <v>2035</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>19</v>
@@ -2180,18 +2197,18 @@
         <v>28</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>13</v>
       </c>
@@ -2199,7 +2216,7 @@
         <v>2035</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>19</v>
@@ -2208,18 +2225,18 @@
         <v>28</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>13</v>
       </c>
@@ -2227,7 +2244,7 @@
         <v>2035</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>19</v>
@@ -2236,18 +2253,18 @@
         <v>28</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -2255,7 +2272,7 @@
         <v>2035</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>19</v>
@@ -2264,18 +2281,18 @@
         <v>28</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>13</v>
       </c>
@@ -2283,7 +2300,7 @@
         <v>2035</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>19</v>
@@ -2292,18 +2309,18 @@
         <v>28</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>13</v>
       </c>
@@ -2311,7 +2328,7 @@
         <v>2035</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>19</v>
@@ -2320,24 +2337,24 @@
         <v>28</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>31</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>13</v>
       </c>
@@ -2345,7 +2362,7 @@
         <v>2035</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>19</v>
@@ -2354,27 +2371,25 @@
         <v>28</v>
       </c>
       <c r="F25" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="G25" s="37"/>
+      <c r="H25" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>276</v>
-      </c>
-      <c r="G25" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>277</v>
       </c>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>13</v>
       </c>
@@ -2382,7 +2397,7 @@
         <v>2035</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>19</v>
@@ -2391,18 +2406,18 @@
         <v>28</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>13</v>
       </c>
@@ -2410,7 +2425,7 @@
         <v>2035</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>19</v>
@@ -2419,25 +2434,27 @@
         <v>28</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="G27" s="37"/>
+        <v>228</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="H27" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>13</v>
       </c>
@@ -2445,7 +2462,7 @@
         <v>2035</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>19</v>
@@ -2454,19 +2471,21 @@
         <v>28</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="G28" s="37"/>
+        <v>245</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
       <c r="L28" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>13</v>
       </c>
@@ -2474,7 +2493,7 @@
         <v>2035</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>19</v>
@@ -2483,13 +2502,21 @@
         <v>28</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="G29" s="37"/>
+        <v>228</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
-    </row>
-    <row r="30" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L29" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="32" t="s">
         <v>13</v>
       </c>
@@ -2497,34 +2524,34 @@
         <v>2035</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D30" s="32" t="s">
         <v>19</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G30" s="35"/>
       <c r="H30" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="I30" s="32" t="s">
         <v>224</v>
-      </c>
-      <c r="I30" s="32" t="s">
-        <v>225</v>
       </c>
       <c r="J30" s="34"/>
       <c r="K30" s="34"/>
       <c r="L30" s="32" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M30" s="32" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="32" t="s">
         <v>13</v>
       </c>
@@ -2532,28 +2559,28 @@
         <v>2035</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D31" s="32" t="s">
         <v>19</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G31" s="35"/>
       <c r="J31" s="34"/>
       <c r="K31" s="34"/>
       <c r="L31" s="32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M31" s="32" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="32" t="s">
         <v>13</v>
       </c>
@@ -2561,36 +2588,34 @@
         <v>2035</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D32" s="32" t="s">
         <v>19</v>
       </c>
       <c r="E32" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="G32" s="35"/>
+      <c r="H32" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="F32" s="32" t="s">
-        <v>261</v>
-      </c>
-      <c r="G32" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" s="32" t="s">
-        <v>224</v>
-      </c>
       <c r="I32" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J32" s="34"/>
       <c r="K32" s="34"/>
       <c r="L32" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M32" s="32" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>13</v>
       </c>
@@ -2622,10 +2647,10 @@
         <v>133</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>13</v>
       </c>
@@ -2654,7 +2679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>13</v>
       </c>
@@ -2686,7 +2711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>13</v>
       </c>
@@ -2718,7 +2743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>13</v>
       </c>
@@ -2750,7 +2775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>13</v>
       </c>
@@ -2769,9 +2794,6 @@
       <c r="F38" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G38" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="H38" s="7" t="s">
         <v>108</v>
       </c>
@@ -2788,10 +2810,10 @@
         <v>134</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>13</v>
       </c>
@@ -2799,7 +2821,7 @@
         <v>2035</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>19</v>
@@ -2808,7 +2830,7 @@
         <v>69</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J39" s="13" t="s">
         <v>10</v>
@@ -2817,13 +2839,13 @@
         <v>10</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>13</v>
       </c>
@@ -2831,7 +2853,7 @@
         <v>2035</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>19</v>
@@ -2840,7 +2862,7 @@
         <v>69</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J40" s="13" t="s">
         <v>10</v>
@@ -2849,13 +2871,13 @@
         <v>10</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>13</v>
       </c>
@@ -2863,7 +2885,7 @@
         <v>2035</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>19</v>
@@ -2872,7 +2894,7 @@
         <v>69</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J41" s="13" t="s">
         <v>10</v>
@@ -2881,13 +2903,13 @@
         <v>10</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>13</v>
       </c>
@@ -2895,7 +2917,7 @@
         <v>2035</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>19</v>
@@ -2904,30 +2926,30 @@
         <v>69</v>
       </c>
       <c r="F42" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="J42" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K42" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="J42" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K42" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="M42" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" s="8">
-        <v>2035</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>19</v>
@@ -2936,7 +2958,7 @@
         <v>69</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J43" s="13" t="s">
         <v>10</v>
@@ -2945,13 +2967,13 @@
         <v>10</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>13</v>
       </c>
@@ -2959,7 +2981,7 @@
         <v>2035</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>19</v>
@@ -2968,7 +2990,7 @@
         <v>69</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J44" s="13" t="s">
         <v>10</v>
@@ -2977,13 +2999,13 @@
         <v>10</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>13</v>
       </c>
@@ -2991,7 +3013,7 @@
         <v>2035</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>19</v>
@@ -3000,7 +3022,7 @@
         <v>69</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J45" s="13" t="s">
         <v>10</v>
@@ -3009,13 +3031,13 @@
         <v>10</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>13</v>
       </c>
@@ -3023,7 +3045,7 @@
         <v>2035</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>19</v>
@@ -3032,7 +3054,7 @@
         <v>69</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J46" s="13" t="s">
         <v>10</v>
@@ -3041,13 +3063,13 @@
         <v>10</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M46" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>13</v>
       </c>
@@ -3055,7 +3077,7 @@
         <v>2035</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>19</v>
@@ -3063,22 +3085,19 @@
       <c r="E47" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G47" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="H47" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J47" s="13"/>
       <c r="K47" s="13"/>
       <c r="L47" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>13</v>
       </c>
@@ -3086,7 +3105,7 @@
         <v>2035</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>19</v>
@@ -3094,22 +3113,19 @@
       <c r="E48" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G48" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="H48" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J48" s="13"/>
       <c r="K48" s="13"/>
       <c r="L48" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>13</v>
       </c>
@@ -3117,7 +3133,7 @@
         <v>2035</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>19</v>
@@ -3126,16 +3142,13 @@
         <v>69</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>31</v>
+        <v>230</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>108</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J49" s="13" t="s">
         <v>10</v>
@@ -3144,13 +3157,13 @@
         <v>10</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>13</v>
       </c>
@@ -3158,7 +3171,7 @@
         <v>2035</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>19</v>
@@ -3167,13 +3180,13 @@
         <v>69</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>108</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J50" s="13" t="s">
         <v>10</v>
@@ -3182,7 +3195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>13</v>
       </c>
@@ -3190,7 +3203,7 @@
         <v>2035</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>19</v>
@@ -3199,27 +3212,24 @@
         <v>69</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>108</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J51" s="13"/>
       <c r="K51" s="13"/>
       <c r="L51" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M51" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>13</v>
       </c>
@@ -3227,7 +3237,7 @@
         <v>2035</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>19</v>
@@ -3239,13 +3249,13 @@
       <c r="J52" s="13"/>
       <c r="K52" s="13"/>
       <c r="L52" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M52" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>13</v>
       </c>
@@ -3253,7 +3263,7 @@
         <v>2035</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>19</v>
@@ -3265,13 +3275,13 @@
       <c r="J53" s="13"/>
       <c r="K53" s="13"/>
       <c r="L53" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M53" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>13</v>
       </c>
@@ -3279,7 +3289,7 @@
         <v>2035</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>19</v>
@@ -3288,21 +3298,21 @@
         <v>69</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G54" s="36" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>108</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J54" s="13"/>
       <c r="K54" s="13"/>
     </row>
-    <row r="55" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>13</v>
       </c>
@@ -3310,7 +3320,7 @@
         <v>2035</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>19</v>
@@ -3319,27 +3329,24 @@
         <v>69</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>31</v>
+        <v>263</v>
       </c>
       <c r="H55" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="I55" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="I55" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="J55" s="13"/>
       <c r="K55" s="13"/>
       <c r="L55" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M55" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>13</v>
       </c>
@@ -3347,7 +3354,7 @@
         <v>2035</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>19</v>
@@ -3356,27 +3363,24 @@
         <v>69</v>
       </c>
       <c r="F56" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H56" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="G56" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H56" s="7" t="s">
+      <c r="I56" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="J56" s="13"/>
       <c r="K56" s="13"/>
       <c r="L56" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M56" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>13</v>
       </c>
@@ -3384,7 +3388,7 @@
         <v>2035</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>19</v>
@@ -3393,7 +3397,7 @@
         <v>69</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>31</v>
@@ -3402,12 +3406,18 @@
         <v>108</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J57" s="13"/>
       <c r="K57" s="13"/>
-    </row>
-    <row r="58" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L57" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="M57" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>13</v>
       </c>
@@ -3415,30 +3425,36 @@
         <v>2035</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G58" s="36" t="s">
-        <v>270</v>
+        <v>31</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J58" s="13"/>
       <c r="K58" s="13"/>
-    </row>
-    <row r="59" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L58" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="M58" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>13</v>
       </c>
@@ -3446,30 +3462,36 @@
         <v>2035</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G59" s="36" t="s">
-        <v>303</v>
+        <v>31</v>
       </c>
       <c r="H59" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="I59" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="I59" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="J59" s="13"/>
       <c r="K59" s="13"/>
-    </row>
-    <row r="60" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L59" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="M59" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>13</v>
       </c>
@@ -3477,30 +3499,36 @@
         <v>2035</v>
       </c>
       <c r="C60" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="D60" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>293</v>
-      </c>
       <c r="F60" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G60" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="H60" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="G60" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>300</v>
-      </c>
       <c r="I60" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J60" s="13"/>
       <c r="K60" s="13"/>
-    </row>
-    <row r="61" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L60" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="M60" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
         <v>13</v>
       </c>
@@ -3532,7 +3560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
         <v>13</v>
       </c>
@@ -3564,7 +3592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="15" t="s">
         <v>13</v>
       </c>
@@ -3583,9 +3611,6 @@
       <c r="F63" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="G63" s="15" t="s">
-        <v>31</v>
-      </c>
       <c r="H63" s="15" t="s">
         <v>119</v>
       </c>
@@ -3602,10 +3627,10 @@
         <v>132</v>
       </c>
       <c r="M63" s="15" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
         <v>13</v>
       </c>
@@ -3637,7 +3662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="15" t="s">
         <v>13</v>
       </c>
@@ -3669,7 +3694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
         <v>13</v>
       </c>
@@ -3688,9 +3713,6 @@
       <c r="F66" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="G66" s="15" t="s">
-        <v>152</v>
-      </c>
       <c r="H66" s="15" t="s">
         <v>119</v>
       </c>
@@ -3702,7 +3724,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
         <v>13</v>
       </c>
@@ -3710,7 +3732,7 @@
         <v>2035</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>19</v>
@@ -3719,21 +3741,27 @@
         <v>91</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G67" s="40" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H67" s="15" t="s">
         <v>119</v>
       </c>
       <c r="I67" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J67" s="17"/>
       <c r="K67" s="17"/>
-    </row>
-    <row r="68" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L67" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="M67" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="25" t="s">
         <v>13</v>
       </c>
@@ -3765,7 +3793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="25" t="s">
         <v>13</v>
       </c>
@@ -3797,7 +3825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="25" t="s">
         <v>13</v>
       </c>
@@ -3816,9 +3844,6 @@
       <c r="F70" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="G70" s="27" t="s">
-        <v>31</v>
-      </c>
       <c r="H70" s="27" t="s">
         <v>145</v>
       </c>
@@ -3835,10 +3860,10 @@
         <v>135</v>
       </c>
       <c r="M70" s="27" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="25" t="s">
         <v>13</v>
       </c>
@@ -3846,7 +3871,7 @@
         <v>2035</v>
       </c>
       <c r="C71" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D71" s="25" t="s">
         <v>19</v>
@@ -3855,21 +3880,27 @@
         <v>92</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G71" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H71" s="27" t="s">
         <v>145</v>
       </c>
       <c r="I71" s="27" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J71" s="28"/>
       <c r="K71" s="28"/>
-    </row>
-    <row r="72" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L71" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="M71" s="27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="29" t="s">
         <v>13</v>
       </c>
@@ -3901,7 +3932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="29" t="s">
         <v>13</v>
       </c>
@@ -3933,7 +3964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="29" t="s">
         <v>13</v>
       </c>
@@ -3968,10 +3999,10 @@
         <v>136</v>
       </c>
       <c r="M74" s="29" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="29" t="s">
         <v>13</v>
       </c>
@@ -4003,7 +4034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="29" t="s">
         <v>13</v>
       </c>
@@ -4032,7 +4063,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="29" t="s">
         <v>13</v>
       </c>
@@ -4051,9 +4082,6 @@
       <c r="F77" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="G77" s="29" t="s">
-        <v>31</v>
-      </c>
       <c r="H77" s="29" t="s">
         <v>143</v>
       </c>
@@ -4064,13 +4092,13 @@
         <v>10</v>
       </c>
       <c r="L77" s="29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M77" s="29" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="29" t="s">
         <v>13</v>
       </c>
@@ -4078,7 +4106,7 @@
         <v>2035</v>
       </c>
       <c r="C78" s="29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D78" s="29" t="s">
         <v>19</v>
@@ -4087,19 +4115,25 @@
         <v>117</v>
       </c>
       <c r="F78" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G78" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H78" s="29" t="s">
         <v>143</v>
       </c>
       <c r="I78" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J78" s="31"/>
       <c r="K78" s="31"/>
+      <c r="L78" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="M78" s="29" t="s">
+        <v>187</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L74" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atapase\OneDrive - Metropolitan Transportation Commission\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECA784F-4DF3-401F-BD50-7A52FAD4A5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2F71D5-C201-4D39-A35A-8B943C202404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1546,7 +1546,7 @@
   <dimension ref="A1:M78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atapase\OneDrive - Metropolitan Transportation Commission\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2F71D5-C201-4D39-A35A-8B943C202404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CE5E45-4D9F-403A-8D5F-32D12AD43393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="310">
   <si>
     <t>category</t>
   </si>
@@ -1545,9 +1545,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3611,6 +3611,9 @@
       <c r="F63" s="15" t="s">
         <v>126</v>
       </c>
+      <c r="G63" s="15" t="s">
+        <v>31</v>
+      </c>
       <c r="H63" s="15" t="s">
         <v>119</v>
       </c>
@@ -3844,6 +3847,9 @@
       <c r="F70" s="25" t="s">
         <v>124</v>
       </c>
+      <c r="G70" s="27" t="s">
+        <v>31</v>
+      </c>
       <c r="H70" s="27" t="s">
         <v>145</v>
       </c>
@@ -4081,6 +4087,9 @@
       </c>
       <c r="F77" s="29" t="s">
         <v>127</v>
+      </c>
+      <c r="G77" s="29" t="s">
+        <v>31</v>
       </c>
       <c r="H77" s="29" t="s">
         <v>143</v>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atapase\OneDrive - Metropolitan Transportation Commission\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CE5E45-4D9F-403A-8D5F-32D12AD43393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FAA62B-3179-40C5-9455-4066C81F6346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_runs" sheetId="1" r:id="rId1"/>
@@ -1111,7 +1111,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1188,9 +1188,7 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -1547,7 +1545,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H73" sqref="H73"/>
+      <selection pane="bottomLeft" activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3746,8 +3744,8 @@
       <c r="F67" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="G67" s="40" t="s">
-        <v>269</v>
+      <c r="G67" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="H67" s="15" t="s">
         <v>119</v>
@@ -3888,8 +3886,8 @@
       <c r="F71" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="G71" s="38" t="s">
-        <v>269</v>
+      <c r="G71" s="27" t="s">
+        <v>31</v>
       </c>
       <c r="H71" s="27" t="s">
         <v>145</v>
@@ -4126,7 +4124,7 @@
       <c r="F78" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="G78" s="39" t="s">
+      <c r="G78" s="38" t="s">
         <v>269</v>
       </c>
       <c r="H78" s="29" t="s">

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atapase\OneDrive - Metropolitan Transportation Commission\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FAA62B-3179-40C5-9455-4066C81F6346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26778CE-97D9-4A64-B473-67B5ED784208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -743,12 +743,6 @@
     <t>P2 - MBUF at 7.5c (try a lower cap, assuming the average household make 4 trips a day)</t>
   </si>
   <si>
-    <t>X:\\Projects\\2035_TM160_NGFr2_NP04_Path1_12_40c10c</t>
-  </si>
-  <si>
-    <t>A:\\Projects\\2035_TM160_NGFr2_NP04_Path1_12_50c10c</t>
-  </si>
-  <si>
     <t>2035_TM160_NGF_r2_NoProject_06</t>
   </si>
   <si>
@@ -966,6 +960,12 @@
   </si>
   <si>
     <t>H:\\Projects\\2035_TM160_NGFr2_NP06_Path1_12_30c15c</t>
+  </si>
+  <si>
+    <t>X:\\Projects\\2035_TM160_NGFr2_NP06_Path1_12_40c10c</t>
+  </si>
+  <si>
+    <t>A:\\Projects\\2035_TM160_NGFr2_NP06_Path1_12_50c10c</t>
   </si>
 </sst>
 </file>
@@ -1543,9 +1543,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2360,7 +2360,7 @@
         <v>2035</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>19</v>
@@ -2369,19 +2369,19 @@
         <v>28</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G25" s="37"/>
       <c r="H25" s="4" t="s">
         <v>223</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>188</v>
@@ -2423,7 +2423,7 @@
         <v>2035</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>19</v>
@@ -2446,7 +2446,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="4" t="s">
-        <v>235</v>
+        <v>308</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>191</v>
@@ -2460,7 +2460,7 @@
         <v>2035</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>19</v>
@@ -2469,7 +2469,7 @@
         <v>28</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>31</v>
@@ -2477,7 +2477,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
       <c r="L28" s="4" t="s">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>189</v>
@@ -2491,7 +2491,7 @@
         <v>2035</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>19</v>
@@ -2508,7 +2508,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>186</v>
@@ -2522,7 +2522,7 @@
         <v>2035</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D30" s="32" t="s">
         <v>19</v>
@@ -2543,7 +2543,7 @@
       <c r="J30" s="34"/>
       <c r="K30" s="34"/>
       <c r="L30" s="32" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M30" s="32" t="s">
         <v>188</v>
@@ -2557,7 +2557,7 @@
         <v>2035</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D31" s="32" t="s">
         <v>19</v>
@@ -2572,7 +2572,7 @@
       <c r="J31" s="34"/>
       <c r="K31" s="34"/>
       <c r="L31" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M31" s="32" t="s">
         <v>187</v>
@@ -2586,7 +2586,7 @@
         <v>2035</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D32" s="32" t="s">
         <v>19</v>
@@ -2595,19 +2595,19 @@
         <v>222</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G32" s="35"/>
       <c r="H32" s="32" t="s">
         <v>223</v>
       </c>
       <c r="I32" s="32" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J32" s="34"/>
       <c r="K32" s="34"/>
       <c r="L32" s="32" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M32" s="32" t="s">
         <v>187</v>
@@ -3075,7 +3075,7 @@
         <v>2035</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>19</v>
@@ -3084,12 +3084,12 @@
         <v>69</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J47" s="13"/>
       <c r="K47" s="13"/>
       <c r="L47" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M47" s="7" t="s">
         <v>188</v>
@@ -3103,7 +3103,7 @@
         <v>2035</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>19</v>
@@ -3112,15 +3112,15 @@
         <v>69</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J48" s="13"/>
       <c r="K48" s="13"/>
       <c r="L48" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="49" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3155,7 +3155,7 @@
         <v>10</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M49" s="7" t="s">
         <v>192</v>
@@ -3201,7 +3201,7 @@
         <v>2035</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>19</v>
@@ -3210,21 +3210,21 @@
         <v>69</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>108</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J51" s="13"/>
       <c r="K51" s="13"/>
       <c r="L51" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M51" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="52" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3235,7 +3235,7 @@
         <v>2035</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>19</v>
@@ -3247,7 +3247,7 @@
       <c r="J52" s="13"/>
       <c r="K52" s="13"/>
       <c r="L52" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M52" s="7" t="s">
         <v>190</v>
@@ -3261,7 +3261,7 @@
         <v>2035</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>19</v>
@@ -3273,7 +3273,7 @@
       <c r="J53" s="13"/>
       <c r="K53" s="13"/>
       <c r="L53" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M53" s="7" t="s">
         <v>192</v>
@@ -3287,7 +3287,7 @@
         <v>2035</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>19</v>
@@ -3296,16 +3296,16 @@
         <v>69</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G54" s="36" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>108</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J54" s="13"/>
       <c r="K54" s="13"/>
@@ -3318,7 +3318,7 @@
         <v>2035</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>19</v>
@@ -3327,18 +3327,18 @@
         <v>69</v>
       </c>
       <c r="F55" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H55" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="H55" s="7" t="s">
-        <v>265</v>
-      </c>
       <c r="I55" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J55" s="13"/>
       <c r="K55" s="13"/>
       <c r="L55" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M55" s="7" t="s">
         <v>188</v>
@@ -3352,7 +3352,7 @@
         <v>2035</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>19</v>
@@ -3361,18 +3361,18 @@
         <v>69</v>
       </c>
       <c r="F56" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="I56" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="J56" s="13"/>
       <c r="K56" s="13"/>
       <c r="L56" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M56" s="7" t="s">
         <v>192</v>
@@ -3386,7 +3386,7 @@
         <v>2035</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>19</v>
@@ -3395,7 +3395,7 @@
         <v>69</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>31</v>
@@ -3404,15 +3404,15 @@
         <v>108</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J57" s="13"/>
       <c r="K57" s="13"/>
       <c r="L57" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="M57" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="58" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3423,30 +3423,30 @@
         <v>2035</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G58" s="36" t="s">
         <v>31</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J58" s="13"/>
       <c r="K58" s="13"/>
       <c r="L58" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M58" s="7" t="s">
         <v>189</v>
@@ -3460,30 +3460,30 @@
         <v>2035</v>
       </c>
       <c r="C59" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="D59" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="F59" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G59" s="36" t="s">
         <v>31</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J59" s="13"/>
       <c r="K59" s="13"/>
       <c r="L59" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="M59" s="7" t="s">
         <v>191</v>
@@ -3497,30 +3497,30 @@
         <v>2035</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G60" s="36" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H60" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="I60" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="I60" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="J60" s="13"/>
       <c r="K60" s="13"/>
       <c r="L60" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M60" s="7" t="s">
         <v>186</v>
@@ -3733,7 +3733,7 @@
         <v>2035</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>19</v>
@@ -3742,7 +3742,7 @@
         <v>91</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G67" s="15" t="s">
         <v>31</v>
@@ -3751,12 +3751,12 @@
         <v>119</v>
       </c>
       <c r="I67" s="18" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J67" s="17"/>
       <c r="K67" s="17"/>
       <c r="L67" s="15" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M67" s="15" t="s">
         <v>188</v>
@@ -3875,7 +3875,7 @@
         <v>2035</v>
       </c>
       <c r="C71" s="27" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D71" s="25" t="s">
         <v>19</v>
@@ -3884,7 +3884,7 @@
         <v>92</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G71" s="27" t="s">
         <v>31</v>
@@ -3893,15 +3893,15 @@
         <v>145</v>
       </c>
       <c r="I71" s="27" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J71" s="28"/>
       <c r="K71" s="28"/>
       <c r="L71" s="27" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="M71" s="27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="72" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -4113,7 +4113,7 @@
         <v>2035</v>
       </c>
       <c r="C78" s="29" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D78" s="29" t="s">
         <v>19</v>
@@ -4122,21 +4122,21 @@
         <v>117</v>
       </c>
       <c r="F78" s="29" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G78" s="38" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H78" s="29" t="s">
         <v>143</v>
       </c>
       <c r="I78" s="29" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J78" s="31"/>
       <c r="K78" s="31"/>
       <c r="L78" s="29" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="M78" s="29" t="s">
         <v>187</v>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atapase\OneDrive - Metropolitan Transportation Commission\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26778CE-97D9-4A64-B473-67B5ED784208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEFCD62-4243-4AA4-8DB7-DB7964A05D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="310">
   <si>
     <t>category</t>
   </si>
@@ -1111,7 +1111,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1188,7 +1188,6 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -1543,9 +1542,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2434,9 +2433,6 @@
       <c r="F27" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="H27" s="4" t="s">
         <v>223</v>
       </c>
@@ -2471,9 +2467,6 @@
       <c r="F28" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
       <c r="L28" s="4" t="s">
@@ -2501,9 +2494,6 @@
       </c>
       <c r="F29" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
@@ -3471,9 +3461,7 @@
       <c r="F59" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="G59" s="36" t="s">
-        <v>31</v>
-      </c>
+      <c r="G59" s="36"/>
       <c r="H59" s="7" t="s">
         <v>297</v>
       </c>
@@ -3609,9 +3597,6 @@
       <c r="F63" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="G63" s="15" t="s">
-        <v>31</v>
-      </c>
       <c r="H63" s="15" t="s">
         <v>119</v>
       </c>
@@ -3845,9 +3830,6 @@
       <c r="F70" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="G70" s="27" t="s">
-        <v>31</v>
-      </c>
       <c r="H70" s="27" t="s">
         <v>145</v>
       </c>
@@ -4086,9 +4068,6 @@
       <c r="F77" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="G77" s="29" t="s">
-        <v>31</v>
-      </c>
       <c r="H77" s="29" t="s">
         <v>143</v>
       </c>
@@ -4124,8 +4103,8 @@
       <c r="F78" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="G78" s="38" t="s">
-        <v>267</v>
+      <c r="G78" s="29" t="s">
+        <v>31</v>
       </c>
       <c r="H78" s="29" t="s">
         <v>143</v>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atapase\OneDrive - Metropolitan Transportation Commission\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEFCD62-4243-4AA4-8DB7-DB7964A05D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5242FE1-DC36-48CD-A1A1-E8ED36CA5BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="308">
   <si>
     <t>category</t>
   </si>
@@ -803,9 +803,6 @@
     <t>2035_TM160_NGFr2_NP06_Path2_02</t>
   </si>
   <si>
-    <t>being debugged</t>
-  </si>
-  <si>
     <t>2035_TM160_NGF_r2_NoProject_06_link4.4mb2</t>
   </si>
   <si>
@@ -837,9 +834,6 @@
   </si>
   <si>
     <t>https://app.asana.com/0/1203644633064654/1208068566505509/f</t>
-  </si>
-  <si>
-    <t>in progress</t>
   </si>
   <si>
     <t>same trn hes as NoProject_06 but with EL on</t>
@@ -1543,8 +1537,8 @@
   <dimension ref="A1:M78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G69" sqref="G69"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2196,6 +2190,9 @@
       <c r="F19" s="4" t="s">
         <v>199</v>
       </c>
+      <c r="G19" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="4" t="s">
@@ -2359,7 +2356,7 @@
         <v>2035</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>19</v>
@@ -2368,19 +2365,19 @@
         <v>28</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G25" s="37"/>
       <c r="H25" s="4" t="s">
         <v>223</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>188</v>
@@ -2442,7 +2439,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>191</v>
@@ -2470,7 +2467,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
       <c r="L28" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>189</v>
@@ -2498,7 +2495,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>186</v>
@@ -2585,19 +2582,19 @@
         <v>222</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G32" s="35"/>
       <c r="H32" s="32" t="s">
         <v>223</v>
       </c>
       <c r="I32" s="32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J32" s="34"/>
       <c r="K32" s="34"/>
       <c r="L32" s="32" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M32" s="32" t="s">
         <v>187</v>
@@ -3074,7 +3071,7 @@
         <v>69</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J47" s="13"/>
       <c r="K47" s="13"/>
@@ -3102,7 +3099,7 @@
         <v>69</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J48" s="13"/>
       <c r="K48" s="13"/>
@@ -3145,7 +3142,7 @@
         <v>10</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M49" s="7" t="s">
         <v>192</v>
@@ -3200,13 +3197,13 @@
         <v>69</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>108</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J51" s="13"/>
       <c r="K51" s="13"/>
@@ -3277,7 +3274,7 @@
         <v>2035</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>19</v>
@@ -3286,16 +3283,14 @@
         <v>69</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G54" s="36" t="s">
-        <v>255</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="G54" s="36"/>
       <c r="H54" s="7" t="s">
         <v>108</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J54" s="13"/>
       <c r="K54" s="13"/>
@@ -3308,7 +3303,7 @@
         <v>2035</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>19</v>
@@ -3317,18 +3312,18 @@
         <v>69</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H55" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="I55" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="I55" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="J55" s="13"/>
       <c r="K55" s="13"/>
       <c r="L55" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M55" s="7" t="s">
         <v>188</v>
@@ -3342,7 +3337,7 @@
         <v>2035</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>19</v>
@@ -3351,18 +3346,18 @@
         <v>69</v>
       </c>
       <c r="F56" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H56" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="H56" s="7" t="s">
+      <c r="I56" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="J56" s="13"/>
       <c r="K56" s="13"/>
       <c r="L56" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M56" s="7" t="s">
         <v>192</v>
@@ -3376,7 +3371,7 @@
         <v>2035</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>19</v>
@@ -3385,7 +3380,7 @@
         <v>69</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>31</v>
@@ -3394,12 +3389,12 @@
         <v>108</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J57" s="13"/>
       <c r="K57" s="13"/>
       <c r="L57" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="M57" s="7" t="s">
         <v>237</v>
@@ -3413,30 +3408,30 @@
         <v>2035</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G58" s="36" t="s">
         <v>31</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J58" s="13"/>
       <c r="K58" s="13"/>
       <c r="L58" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M58" s="7" t="s">
         <v>189</v>
@@ -3450,28 +3445,28 @@
         <v>2035</v>
       </c>
       <c r="C59" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="D59" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>290</v>
-      </c>
       <c r="F59" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G59" s="36"/>
       <c r="H59" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J59" s="13"/>
       <c r="K59" s="13"/>
       <c r="L59" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M59" s="7" t="s">
         <v>191</v>
@@ -3485,30 +3480,28 @@
         <v>2035</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G60" s="36" t="s">
-        <v>267</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="G60" s="36"/>
       <c r="H60" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="I60" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="I60" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="J60" s="13"/>
       <c r="K60" s="13"/>
       <c r="L60" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M60" s="7" t="s">
         <v>186</v>
@@ -3718,7 +3711,7 @@
         <v>2035</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>19</v>
@@ -3727,7 +3720,7 @@
         <v>91</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G67" s="15" t="s">
         <v>31</v>
@@ -3736,12 +3729,12 @@
         <v>119</v>
       </c>
       <c r="I67" s="18" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J67" s="17"/>
       <c r="K67" s="17"/>
       <c r="L67" s="15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="M67" s="15" t="s">
         <v>188</v>
@@ -3857,7 +3850,7 @@
         <v>2035</v>
       </c>
       <c r="C71" s="27" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D71" s="25" t="s">
         <v>19</v>
@@ -3866,7 +3859,7 @@
         <v>92</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G71" s="27" t="s">
         <v>31</v>
@@ -3875,12 +3868,12 @@
         <v>145</v>
       </c>
       <c r="I71" s="27" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J71" s="28"/>
       <c r="K71" s="28"/>
       <c r="L71" s="27" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="M71" s="27" t="s">
         <v>237</v>
@@ -4092,7 +4085,7 @@
         <v>2035</v>
       </c>
       <c r="C78" s="29" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D78" s="29" t="s">
         <v>19</v>
@@ -4101,7 +4094,7 @@
         <v>117</v>
       </c>
       <c r="F78" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G78" s="29" t="s">
         <v>31</v>
@@ -4110,12 +4103,12 @@
         <v>143</v>
       </c>
       <c r="I78" s="29" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J78" s="31"/>
       <c r="K78" s="31"/>
       <c r="L78" s="29" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M78" s="29" t="s">
         <v>187</v>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atapase\OneDrive - Metropolitan Transportation Commission\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5242FE1-DC36-48CD-A1A1-E8ED36CA5BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8896F328-995F-41A5-B02B-BB244F8B0749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_runs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_runs!$A$1:$L$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_runs!$A$1:$L$76</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="315">
   <si>
     <t>category</t>
   </si>
@@ -960,6 +960,27 @@
   </si>
   <si>
     <t>A:\\Projects\\2035_TM160_NGFr2_NP06_Path1_12_50c10c</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGF_r2_NoProject_07_add2.9c</t>
+  </si>
+  <si>
+    <t>G:\\Projects\\2035_TM160_NGF_r2_NoProject_07_add2.9c</t>
+  </si>
+  <si>
+    <t>NoProject_AOCmbuf</t>
+  </si>
+  <si>
+    <t>aoc based mbuf at 5c, no cap, no complementary strategies</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP04_Path1_12_NoComp</t>
+  </si>
+  <si>
+    <t>V:\\Projects\\2035_TM160_NGFr2_NP04_Path1_12_NoComp</t>
+  </si>
+  <si>
+    <t>P1 - 30c/10c - no complementary strategies</t>
   </si>
 </sst>
 </file>
@@ -1534,11 +1555,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M78"/>
+  <dimension ref="A1:M80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2391,7 +2412,7 @@
         <v>2035</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>178</v>
+        <v>312</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>19</v>
@@ -2400,15 +2421,18 @@
         <v>28</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>183</v>
+        <v>314</v>
+      </c>
+      <c r="G26" s="37" t="s">
+        <v>31</v>
       </c>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="4" t="s">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>192</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2419,7 +2443,7 @@
         <v>2035</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>240</v>
+        <v>178</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>19</v>
@@ -2428,21 +2452,15 @@
         <v>28</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="4" t="s">
-        <v>306</v>
+        <v>197</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2453,7 +2471,7 @@
         <v>2035</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>19</v>
@@ -2462,15 +2480,21 @@
         <v>28</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>243</v>
+        <v>228</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
       <c r="L28" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2481,7 +2505,7 @@
         <v>2035</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>19</v>
@@ -2490,50 +2514,43 @@
         <v>28</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="6">
+        <v>2035</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="M29" s="4" t="s">
+      <c r="M30" s="4" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="33">
-        <v>2035</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>246</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="F30" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="G30" s="35"/>
-      <c r="H30" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="I30" s="32" t="s">
-        <v>224</v>
-      </c>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="32" t="s">
-        <v>248</v>
-      </c>
-      <c r="M30" s="32" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.2">
@@ -2544,7 +2561,7 @@
         <v>2035</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D31" s="32" t="s">
         <v>19</v>
@@ -2553,16 +2570,22 @@
         <v>222</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G31" s="35"/>
+      <c r="H31" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="I31" s="32" t="s">
+        <v>224</v>
+      </c>
       <c r="J31" s="34"/>
       <c r="K31" s="34"/>
       <c r="L31" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M31" s="32" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.2">
@@ -2573,7 +2596,7 @@
         <v>2035</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D32" s="32" t="s">
         <v>19</v>
@@ -2582,57 +2605,51 @@
         <v>222</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="G32" s="35"/>
-      <c r="H32" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="I32" s="32" t="s">
-        <v>256</v>
-      </c>
       <c r="J32" s="34"/>
       <c r="K32" s="34"/>
       <c r="L32" s="32" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="M32" s="32" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="8">
-        <v>2035</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="J33" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K33" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="M33" s="7" t="s">
-        <v>188</v>
+    <row r="33" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="33">
+        <v>2035</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="F33" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="G33" s="35"/>
+      <c r="H33" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="I33" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="M33" s="32" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2643,7 +2660,7 @@
         <v>2035</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>19</v>
@@ -2652,16 +2669,22 @@
         <v>69</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J34" s="13" t="s">
         <v>10</v>
       </c>
       <c r="K34" s="13" t="s">
         <v>10</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2672,7 +2695,7 @@
         <v>2035</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>19</v>
@@ -2681,13 +2704,10 @@
         <v>69</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J35" s="13" t="s">
         <v>10</v>
@@ -2704,7 +2724,7 @@
         <v>2035</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>19</v>
@@ -2713,13 +2733,13 @@
         <v>69</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="J36" s="13" t="s">
         <v>10</v>
@@ -2736,7 +2756,7 @@
         <v>2035</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>19</v>
@@ -2745,13 +2765,13 @@
         <v>69</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>108</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J37" s="13" t="s">
         <v>10</v>
@@ -2768,7 +2788,7 @@
         <v>2035</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>19</v>
@@ -2777,25 +2797,19 @@
         <v>69</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>108</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J38" s="13" t="s">
         <v>10</v>
       </c>
       <c r="K38" s="13" t="s">
         <v>10</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="M38" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2806,7 +2820,7 @@
         <v>2035</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>205</v>
+        <v>114</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>19</v>
@@ -2815,7 +2829,13 @@
         <v>69</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>210</v>
+        <v>115</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="J39" s="13" t="s">
         <v>10</v>
@@ -2824,10 +2844,10 @@
         <v>10</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>207</v>
+        <v>134</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2838,7 +2858,7 @@
         <v>2035</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>19</v>
@@ -2847,7 +2867,7 @@
         <v>69</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J40" s="13" t="s">
         <v>10</v>
@@ -2856,10 +2876,10 @@
         <v>10</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2870,7 +2890,7 @@
         <v>2035</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>19</v>
@@ -2879,7 +2899,7 @@
         <v>69</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J41" s="13" t="s">
         <v>10</v>
@@ -2888,10 +2908,10 @@
         <v>10</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2902,7 +2922,7 @@
         <v>2035</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>19</v>
@@ -2911,7 +2931,7 @@
         <v>69</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J42" s="13" t="s">
         <v>10</v>
@@ -2920,10 +2940,10 @@
         <v>10</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2934,7 +2954,7 @@
         <v>2035</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>19</v>
@@ -2943,7 +2963,7 @@
         <v>69</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J43" s="13" t="s">
         <v>10</v>
@@ -2952,10 +2972,10 @@
         <v>10</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2966,7 +2986,7 @@
         <v>2035</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>19</v>
@@ -2975,7 +2995,7 @@
         <v>69</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J44" s="13" t="s">
         <v>10</v>
@@ -2984,10 +3004,10 @@
         <v>10</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2998,7 +3018,7 @@
         <v>2035</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>19</v>
@@ -3007,7 +3027,7 @@
         <v>69</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J45" s="13" t="s">
         <v>10</v>
@@ -3016,10 +3036,10 @@
         <v>10</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3030,7 +3050,7 @@
         <v>2035</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>19</v>
@@ -3039,7 +3059,7 @@
         <v>69</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J46" s="13" t="s">
         <v>10</v>
@@ -3048,10 +3068,10 @@
         <v>10</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M46" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3062,7 +3082,7 @@
         <v>2035</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>19</v>
@@ -3070,16 +3090,20 @@
       <c r="E47" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H47" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
+      <c r="F47" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="J47" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K47" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="L47" s="7" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3090,7 +3114,7 @@
         <v>2035</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>19</v>
@@ -3104,10 +3128,10 @@
       <c r="J48" s="13"/>
       <c r="K48" s="13"/>
       <c r="L48" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>237</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3118,7 +3142,7 @@
         <v>2035</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>19</v>
@@ -3126,26 +3150,16 @@
       <c r="E49" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F49" s="7" t="s">
-        <v>230</v>
-      </c>
       <c r="H49" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="J49" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K49" s="13" t="s">
-        <v>10</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
       <c r="L49" s="7" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>192</v>
+        <v>237</v>
       </c>
     </row>
     <row r="50" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3156,7 +3170,7 @@
         <v>2035</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>19</v>
@@ -3165,19 +3179,25 @@
         <v>69</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>108</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="J50" s="13" t="s">
         <v>10</v>
       </c>
       <c r="K50" s="13" t="s">
         <v>10</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="M50" s="7" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="51" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3188,7 +3208,7 @@
         <v>2035</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>19</v>
@@ -3197,21 +3217,19 @@
         <v>69</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>108</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="M51" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
+      </c>
+      <c r="J51" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K51" s="13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3222,7 +3240,7 @@
         <v>2035</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>19</v>
@@ -3230,14 +3248,22 @@
       <c r="E52" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G52" s="36"/>
+      <c r="F52" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>267</v>
+      </c>
       <c r="J52" s="13"/>
       <c r="K52" s="13"/>
       <c r="L52" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="M52" s="7" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
     </row>
     <row r="53" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3248,7 +3274,7 @@
         <v>2035</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>19</v>
@@ -3260,10 +3286,10 @@
       <c r="J53" s="13"/>
       <c r="K53" s="13"/>
       <c r="L53" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="M53" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="54" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3274,7 +3300,7 @@
         <v>2035</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>19</v>
@@ -3282,18 +3308,15 @@
       <c r="E54" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F54" s="7" t="s">
-        <v>269</v>
-      </c>
       <c r="G54" s="36"/>
-      <c r="H54" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="I54" s="7" t="s">
-        <v>256</v>
-      </c>
       <c r="J54" s="13"/>
       <c r="K54" s="13"/>
+      <c r="L54" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="M54" s="7" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="55" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
@@ -3303,7 +3326,7 @@
         <v>2035</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>19</v>
@@ -3312,22 +3335,17 @@
         <v>69</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>260</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="G55" s="36"/>
       <c r="H55" s="7" t="s">
-        <v>262</v>
+        <v>108</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="J55" s="13"/>
       <c r="K55" s="13"/>
-      <c r="L55" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="M55" s="7" t="s">
-        <v>188</v>
-      </c>
     </row>
     <row r="56" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
@@ -3337,7 +3355,7 @@
         <v>2035</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>19</v>
@@ -3346,7 +3364,7 @@
         <v>69</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>262</v>
@@ -3357,10 +3375,10 @@
       <c r="J56" s="13"/>
       <c r="K56" s="13"/>
       <c r="L56" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M56" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3371,7 +3389,7 @@
         <v>2035</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>19</v>
@@ -3380,24 +3398,21 @@
         <v>69</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>31</v>
+        <v>261</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>108</v>
+        <v>262</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J57" s="13"/>
       <c r="K57" s="13"/>
       <c r="L57" s="7" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="M57" s="7" t="s">
-        <v>237</v>
+        <v>192</v>
       </c>
     </row>
     <row r="58" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3408,33 +3423,33 @@
         <v>2035</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>288</v>
+        <v>69</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G58" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="G58" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>295</v>
+        <v>108</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="J58" s="13"/>
       <c r="K58" s="13"/>
       <c r="L58" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M58" s="7" t="s">
-        <v>189</v>
+        <v>237</v>
       </c>
     </row>
     <row r="59" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3445,7 +3460,7 @@
         <v>2035</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>19</v>
@@ -3454,22 +3469,24 @@
         <v>288</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G59" s="36"/>
+        <v>293</v>
+      </c>
+      <c r="G59" s="36" t="s">
+        <v>31</v>
+      </c>
       <c r="H59" s="7" t="s">
         <v>295</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="J59" s="13"/>
       <c r="K59" s="13"/>
       <c r="L59" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M59" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="60" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3480,7 +3497,7 @@
         <v>2035</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>19</v>
@@ -3489,86 +3506,91 @@
         <v>288</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G60" s="36"/>
       <c r="H60" s="7" t="s">
         <v>295</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J60" s="13"/>
       <c r="K60" s="13"/>
       <c r="L60" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="M60" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G61" s="36"/>
+      <c r="H61" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="M60" s="7" t="s">
+      <c r="M61" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" s="16">
-        <v>2035</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D61" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F61" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="H61" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I61" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="J61" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K61" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B62" s="16">
-        <v>2035</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F62" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="H62" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I62" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="J62" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K62" s="17" t="s">
-        <v>10</v>
+    <row r="62" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G62" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="M62" s="7" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -3579,7 +3601,7 @@
         <v>2035</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>19</v>
@@ -3588,25 +3610,19 @@
         <v>91</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="I63" s="18" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="J63" s="17" t="s">
         <v>10</v>
       </c>
       <c r="K63" s="17" t="s">
         <v>10</v>
-      </c>
-      <c r="L63" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="M63" s="15" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="64" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -3617,7 +3633,7 @@
         <v>2035</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>19</v>
@@ -3626,13 +3642,13 @@
         <v>91</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="H64" s="15" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="I64" s="18" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="J64" s="17" t="s">
         <v>10</v>
@@ -3649,7 +3665,7 @@
         <v>2035</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="D65" s="15" t="s">
         <v>19</v>
@@ -3658,19 +3674,25 @@
         <v>91</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="H65" s="15" t="s">
         <v>119</v>
       </c>
       <c r="I65" s="18" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="J65" s="17" t="s">
         <v>10</v>
       </c>
       <c r="K65" s="17" t="s">
         <v>10</v>
+      </c>
+      <c r="L65" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="M65" s="15" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -3681,7 +3703,7 @@
         <v>2035</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="D66" s="15" t="s">
         <v>19</v>
@@ -3690,12 +3712,14 @@
         <v>91</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="H66" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="I66" s="18"/>
+      <c r="I66" s="18" t="s">
+        <v>120</v>
+      </c>
       <c r="J66" s="17" t="s">
         <v>10</v>
       </c>
@@ -3711,7 +3735,7 @@
         <v>2035</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>281</v>
+        <v>146</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>19</v>
@@ -3720,88 +3744,86 @@
         <v>91</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="G67" s="15" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="H67" s="15" t="s">
         <v>119</v>
       </c>
       <c r="I67" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="J67" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K67" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="H68" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I68" s="18"/>
+      <c r="J68" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K68" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H69" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I69" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="J67" s="17"/>
-      <c r="K67" s="17"/>
-      <c r="L67" s="15" t="s">
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
+      <c r="L69" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="M67" s="15" t="s">
+      <c r="M69" s="15" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B68" s="26">
-        <v>2035</v>
-      </c>
-      <c r="C68" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="D68" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E68" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="F68" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="H68" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="I68" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="J68" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K68" s="28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B69" s="26">
-        <v>2035</v>
-      </c>
-      <c r="C69" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="D69" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E69" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="F69" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="H69" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="I69" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="J69" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K69" s="28" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
@@ -3812,7 +3834,7 @@
         <v>2035</v>
       </c>
       <c r="C70" s="27" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="D70" s="25" t="s">
         <v>19</v>
@@ -3821,25 +3843,19 @@
         <v>92</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="H70" s="27" t="s">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="I70" s="27" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="J70" s="28" t="s">
         <v>10</v>
       </c>
       <c r="K70" s="28" t="s">
         <v>10</v>
-      </c>
-      <c r="L70" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="M70" s="27" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="71" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
@@ -3850,7 +3866,7 @@
         <v>2035</v>
       </c>
       <c r="C71" s="27" t="s">
-        <v>278</v>
+        <v>88</v>
       </c>
       <c r="D71" s="25" t="s">
         <v>19</v>
@@ -3859,88 +3875,94 @@
         <v>92</v>
       </c>
       <c r="F71" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="H71" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="I71" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="J71" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K71" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" s="26">
+        <v>2035</v>
+      </c>
+      <c r="C72" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D72" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F72" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="H72" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="I72" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="J72" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K72" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="L72" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="M72" s="27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" s="26">
+        <v>2035</v>
+      </c>
+      <c r="C73" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="D73" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F73" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="G71" s="27" t="s">
+      <c r="G73" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H71" s="27" t="s">
+      <c r="H73" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="I71" s="27" t="s">
+      <c r="I73" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="J71" s="28"/>
-      <c r="K71" s="28"/>
-      <c r="L71" s="27" t="s">
+      <c r="J73" s="28"/>
+      <c r="K73" s="28"/>
+      <c r="L73" s="27" t="s">
         <v>303</v>
       </c>
-      <c r="M71" s="27" t="s">
+      <c r="M73" s="27" t="s">
         <v>237</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B72" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C72" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="D72" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E72" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F72" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="H72" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="I72" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="J72" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K72" s="31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C73" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="D73" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E73" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F73" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="H73" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="I73" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="J73" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K73" s="31" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -3951,7 +3973,7 @@
         <v>2035</v>
       </c>
       <c r="C74" s="29" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="D74" s="29" t="s">
         <v>19</v>
@@ -3960,25 +3982,19 @@
         <v>117</v>
       </c>
       <c r="F74" s="29" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="H74" s="29" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="I74" s="29" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="J74" s="31" t="s">
         <v>10</v>
       </c>
       <c r="K74" s="31" t="s">
         <v>10</v>
-      </c>
-      <c r="L74" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="M74" s="29" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="75" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -3989,7 +4005,7 @@
         <v>2035</v>
       </c>
       <c r="C75" s="29" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="D75" s="29" t="s">
         <v>19</v>
@@ -3998,13 +4014,13 @@
         <v>117</v>
       </c>
       <c r="F75" s="29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H75" s="29" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="I75" s="29" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="J75" s="31" t="s">
         <v>10</v>
@@ -4021,7 +4037,7 @@
         <v>2035</v>
       </c>
       <c r="C76" s="29" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="D76" s="29" t="s">
         <v>19</v>
@@ -4030,16 +4046,25 @@
         <v>117</v>
       </c>
       <c r="F76" s="29" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="H76" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
+      </c>
+      <c r="I76" s="29" t="s">
+        <v>128</v>
       </c>
       <c r="J76" s="31" t="s">
         <v>10</v>
       </c>
       <c r="K76" s="31" t="s">
         <v>10</v>
+      </c>
+      <c r="L76" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="M76" s="29" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="77" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -4050,7 +4075,7 @@
         <v>2035</v>
       </c>
       <c r="C77" s="29" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D77" s="29" t="s">
         <v>19</v>
@@ -4059,22 +4084,19 @@
         <v>117</v>
       </c>
       <c r="F77" s="29" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="H77" s="29" t="s">
         <v>143</v>
       </c>
+      <c r="I77" s="29" t="s">
+        <v>144</v>
+      </c>
       <c r="J77" s="31" t="s">
         <v>10</v>
       </c>
       <c r="K77" s="31" t="s">
         <v>10</v>
-      </c>
-      <c r="L77" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="M77" s="29" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="78" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -4085,7 +4107,7 @@
         <v>2035</v>
       </c>
       <c r="C78" s="29" t="s">
-        <v>284</v>
+        <v>150</v>
       </c>
       <c r="D78" s="29" t="s">
         <v>19</v>
@@ -4094,33 +4116,97 @@
         <v>117</v>
       </c>
       <c r="F78" s="29" t="s">
-        <v>289</v>
-      </c>
-      <c r="G78" s="29" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="H78" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="I78" s="29" t="s">
+      <c r="J78" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K78" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C79" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D79" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E79" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F79" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="H79" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="J79" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K79" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="L79" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="M79" s="29" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C80" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="D80" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E80" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F80" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="G80" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="H80" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="I80" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="J78" s="31"/>
-      <c r="K78" s="31"/>
-      <c r="L78" s="29" t="s">
+      <c r="J80" s="31"/>
+      <c r="K80" s="31"/>
+      <c r="L80" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="M78" s="29" t="s">
+      <c r="M80" s="29" t="s">
         <v>187</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L74" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L76" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I6" r:id="rId1" xr:uid="{2F5DF9E8-6F7C-49D0-A88D-920944076562}"/>
     <hyperlink ref="I13" r:id="rId2" xr:uid="{088533EE-4DDB-4145-8A51-9A459A5B0EE7}"/>
-    <hyperlink ref="I61" r:id="rId3" xr:uid="{7568B75C-5EC3-4B27-BBC3-154FC1450F6B}"/>
+    <hyperlink ref="I63" r:id="rId3" xr:uid="{7568B75C-5EC3-4B27-BBC3-154FC1450F6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atapase\OneDrive - Metropolitan Transportation Commission\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8896F328-995F-41A5-B02B-BB244F8B0749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3944AFF-B8E1-4220-87A7-085234C28BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="all_runs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_runs!$A$1:$L$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_runs!$A$1:$L$77</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="318">
   <si>
     <t>category</t>
   </si>
@@ -981,6 +981,15 @@
   </si>
   <si>
     <t>P1 - 30c/10c - no complementary strategies</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGF_r2_NoProject_07_wFFSreduction</t>
+  </si>
+  <si>
+    <t>V:\\Projects\\2035_TM160_NGF_r2_NoProject_07_wFFSreduction</t>
+  </si>
+  <si>
+    <t>same as NoProject07 + vision zero local road speed limits</t>
   </si>
 </sst>
 </file>
@@ -1555,11 +1564,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M80"/>
+  <dimension ref="A1:M81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3460,33 +3469,27 @@
         <v>2035</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>288</v>
+        <v>69</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G59" s="36" t="s">
+        <v>317</v>
+      </c>
+      <c r="G59" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="I59" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="J59" s="13"/>
       <c r="K59" s="13"/>
       <c r="L59" s="7" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="M59" s="7" t="s">
-        <v>189</v>
+        <v>237</v>
       </c>
     </row>
     <row r="60" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3497,7 +3500,7 @@
         <v>2035</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>19</v>
@@ -3506,22 +3509,24 @@
         <v>288</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G60" s="36"/>
+        <v>293</v>
+      </c>
+      <c r="G60" s="36" t="s">
+        <v>31</v>
+      </c>
       <c r="H60" s="7" t="s">
         <v>295</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="J60" s="13"/>
       <c r="K60" s="13"/>
       <c r="L60" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M60" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="61" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3532,7 +3537,7 @@
         <v>2035</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>19</v>
@@ -3541,22 +3546,22 @@
         <v>288</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G61" s="36"/>
       <c r="H61" s="7" t="s">
         <v>295</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J61" s="13"/>
       <c r="K61" s="13"/>
       <c r="L61" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M61" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="62" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3567,62 +3572,65 @@
         <v>2035</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G62" s="36" t="s">
-        <v>31</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="G62" s="36"/>
       <c r="H62" s="7" t="s">
         <v>295</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>297</v>
       </c>
       <c r="J62" s="13"/>
       <c r="K62" s="13"/>
       <c r="L62" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="M62" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G63" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="M62" s="7" t="s">
+      <c r="M63" s="7" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" s="16">
-        <v>2035</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F63" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="H63" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I63" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="J63" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K63" s="17" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -3633,7 +3641,7 @@
         <v>2035</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>19</v>
@@ -3642,13 +3650,13 @@
         <v>91</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H64" s="15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I64" s="18" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J64" s="17" t="s">
         <v>10</v>
@@ -3665,7 +3673,7 @@
         <v>2035</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="D65" s="15" t="s">
         <v>19</v>
@@ -3674,25 +3682,19 @@
         <v>91</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H65" s="15" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="I65" s="18" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="J65" s="17" t="s">
         <v>10</v>
       </c>
       <c r="K65" s="17" t="s">
         <v>10</v>
-      </c>
-      <c r="L65" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="M65" s="15" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -3703,7 +3705,7 @@
         <v>2035</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D66" s="15" t="s">
         <v>19</v>
@@ -3712,19 +3714,25 @@
         <v>91</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="H66" s="15" t="s">
         <v>119</v>
       </c>
       <c r="I66" s="18" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="J66" s="17" t="s">
         <v>10</v>
       </c>
       <c r="K66" s="17" t="s">
         <v>10</v>
+      </c>
+      <c r="L66" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="M66" s="15" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="67" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -3735,7 +3743,7 @@
         <v>2035</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>19</v>
@@ -3744,7 +3752,7 @@
         <v>91</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H67" s="15" t="s">
         <v>119</v>
@@ -3767,7 +3775,7 @@
         <v>2035</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D68" s="15" t="s">
         <v>19</v>
@@ -3776,12 +3784,14 @@
         <v>91</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="H68" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="I68" s="18"/>
+      <c r="I68" s="18" t="s">
+        <v>120</v>
+      </c>
       <c r="J68" s="17" t="s">
         <v>10</v>
       </c>
@@ -3797,7 +3807,7 @@
         <v>2035</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>281</v>
+        <v>147</v>
       </c>
       <c r="D69" s="15" t="s">
         <v>19</v>
@@ -3806,56 +3816,54 @@
         <v>91</v>
       </c>
       <c r="F69" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="G69" s="15" t="s">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="H69" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="I69" s="18" t="s">
+      <c r="I69" s="18"/>
+      <c r="J69" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K69" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="16">
+        <v>2035</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F70" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="G70" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H70" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I70" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="J69" s="17"/>
-      <c r="K69" s="17"/>
-      <c r="L69" s="15" t="s">
+      <c r="J70" s="17"/>
+      <c r="K70" s="17"/>
+      <c r="L70" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="M69" s="15" t="s">
+      <c r="M70" s="15" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B70" s="26">
-        <v>2035</v>
-      </c>
-      <c r="C70" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="D70" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E70" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="F70" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="H70" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="I70" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="J70" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K70" s="28" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
@@ -3866,7 +3874,7 @@
         <v>2035</v>
       </c>
       <c r="C71" s="27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D71" s="25" t="s">
         <v>19</v>
@@ -3875,13 +3883,13 @@
         <v>92</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H71" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I71" s="27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J71" s="28" t="s">
         <v>10</v>
@@ -3898,7 +3906,7 @@
         <v>2035</v>
       </c>
       <c r="C72" s="27" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="D72" s="25" t="s">
         <v>19</v>
@@ -3907,25 +3915,19 @@
         <v>92</v>
       </c>
       <c r="F72" s="25" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="H72" s="27" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="I72" s="27" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="J72" s="28" t="s">
         <v>10</v>
       </c>
       <c r="K72" s="28" t="s">
         <v>10</v>
-      </c>
-      <c r="L72" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="M72" s="27" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="73" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
@@ -3936,7 +3938,7 @@
         <v>2035</v>
       </c>
       <c r="C73" s="27" t="s">
-        <v>278</v>
+        <v>123</v>
       </c>
       <c r="D73" s="25" t="s">
         <v>19</v>
@@ -3945,56 +3947,62 @@
         <v>92</v>
       </c>
       <c r="F73" s="25" t="s">
-        <v>279</v>
-      </c>
-      <c r="G73" s="27" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="H73" s="27" t="s">
         <v>145</v>
       </c>
       <c r="I73" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="J73" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K73" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="L73" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="M73" s="27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" s="26">
+        <v>2035</v>
+      </c>
+      <c r="C74" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="D74" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F74" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="G74" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="H74" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="I74" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="J73" s="28"/>
-      <c r="K73" s="28"/>
-      <c r="L73" s="27" t="s">
+      <c r="J74" s="28"/>
+      <c r="K74" s="28"/>
+      <c r="L74" s="27" t="s">
         <v>303</v>
       </c>
-      <c r="M73" s="27" t="s">
+      <c r="M74" s="27" t="s">
         <v>237</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B74" s="30">
-        <v>2035</v>
-      </c>
-      <c r="C74" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="D74" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E74" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F74" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="H74" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="I74" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="J74" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K74" s="31" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -4005,7 +4013,7 @@
         <v>2035</v>
       </c>
       <c r="C75" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D75" s="29" t="s">
         <v>19</v>
@@ -4014,13 +4022,13 @@
         <v>117</v>
       </c>
       <c r="F75" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H75" s="29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I75" s="29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J75" s="31" t="s">
         <v>10</v>
@@ -4037,7 +4045,7 @@
         <v>2035</v>
       </c>
       <c r="C76" s="29" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="D76" s="29" t="s">
         <v>19</v>
@@ -4046,25 +4054,19 @@
         <v>117</v>
       </c>
       <c r="F76" s="29" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="H76" s="29" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="I76" s="29" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="J76" s="31" t="s">
         <v>10</v>
       </c>
       <c r="K76" s="31" t="s">
         <v>10</v>
-      </c>
-      <c r="L76" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="M76" s="29" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="77" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -4075,7 +4077,7 @@
         <v>2035</v>
       </c>
       <c r="C77" s="29" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="D77" s="29" t="s">
         <v>19</v>
@@ -4084,19 +4086,25 @@
         <v>117</v>
       </c>
       <c r="F77" s="29" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="H77" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I77" s="29" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="J77" s="31" t="s">
         <v>10</v>
       </c>
       <c r="K77" s="31" t="s">
         <v>10</v>
+      </c>
+      <c r="L77" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="M77" s="29" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="78" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -4107,7 +4115,7 @@
         <v>2035</v>
       </c>
       <c r="C78" s="29" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D78" s="29" t="s">
         <v>19</v>
@@ -4116,11 +4124,14 @@
         <v>117</v>
       </c>
       <c r="F78" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H78" s="29" t="s">
         <v>143</v>
       </c>
+      <c r="I78" s="29" t="s">
+        <v>144</v>
+      </c>
       <c r="J78" s="31" t="s">
         <v>10</v>
       </c>
@@ -4136,7 +4147,7 @@
         <v>2035</v>
       </c>
       <c r="C79" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D79" s="29" t="s">
         <v>19</v>
@@ -4145,7 +4156,7 @@
         <v>117</v>
       </c>
       <c r="F79" s="29" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="H79" s="29" t="s">
         <v>143</v>
@@ -4156,12 +4167,6 @@
       <c r="K79" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="L79" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="M79" s="29" t="s">
-        <v>190</v>
-      </c>
     </row>
     <row r="80" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="29" t="s">
@@ -4171,7 +4176,7 @@
         <v>2035</v>
       </c>
       <c r="C80" s="29" t="s">
-        <v>284</v>
+        <v>151</v>
       </c>
       <c r="D80" s="29" t="s">
         <v>19</v>
@@ -4180,33 +4185,68 @@
         <v>117</v>
       </c>
       <c r="F80" s="29" t="s">
-        <v>289</v>
-      </c>
-      <c r="G80" s="29" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="H80" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="I80" s="29" t="s">
+      <c r="J80" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K80" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="L80" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="M80" s="29" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C81" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="D81" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F81" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="G81" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="H81" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="I81" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="J80" s="31"/>
-      <c r="K80" s="31"/>
-      <c r="L80" s="29" t="s">
+      <c r="J81" s="31"/>
+      <c r="K81" s="31"/>
+      <c r="L81" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="M80" s="29" t="s">
+      <c r="M81" s="29" t="s">
         <v>187</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L76" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L77" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I6" r:id="rId1" xr:uid="{2F5DF9E8-6F7C-49D0-A88D-920944076562}"/>
     <hyperlink ref="I13" r:id="rId2" xr:uid="{088533EE-4DDB-4145-8A51-9A459A5B0EE7}"/>
-    <hyperlink ref="I63" r:id="rId3" xr:uid="{7568B75C-5EC3-4B27-BBC3-154FC1450F6B}"/>
+    <hyperlink ref="I64" r:id="rId3" xr:uid="{7568B75C-5EC3-4B27-BBC3-154FC1450F6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atapase\OneDrive - Metropolitan Transportation Commission\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3944AFF-B8E1-4220-87A7-085234C28BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BA5EA7-8EB6-47D1-A745-6D746096F82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_runs" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="326">
   <si>
     <t>category</t>
   </si>
@@ -990,6 +990,30 @@
   </si>
   <si>
     <t>same as NoProject07 + vision zero local road speed limits</t>
+  </si>
+  <si>
+    <t>https://app.asana.com/0/1203644633064654/1208321467422880/f</t>
+  </si>
+  <si>
+    <t>P8_EL_DualEL_ConvOnly</t>
+  </si>
+  <si>
+    <t>P8 10c flat tolls with NP07</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP07_Path8_01_10cents</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP07_Path8_01_30cents</t>
+  </si>
+  <si>
+    <t>F:\\Projects\\2035_TM160_NGFr2_NP07_Path8_01_10cents</t>
+  </si>
+  <si>
+    <t>A:\\Projects\\2035_TM160_NGFr2_NP07_Path8_01_30cents</t>
+  </si>
+  <si>
+    <t>P8 30c flat tolls with NP07</t>
   </si>
 </sst>
 </file>
@@ -1075,7 +1099,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1118,6 +1142,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1135,7 +1165,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1212,6 +1242,13 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -1564,11 +1601,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M81"/>
+  <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L88" sqref="L88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3483,6 +3520,9 @@
       <c r="G59" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="I59" s="7" t="s">
+        <v>318</v>
+      </c>
       <c r="J59" s="13"/>
       <c r="K59" s="13"/>
       <c r="L59" s="7" t="s">
@@ -4238,6 +4278,68 @@
       </c>
       <c r="M81" s="29" t="s">
         <v>187</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" s="39">
+        <v>2035</v>
+      </c>
+      <c r="C82" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="D82" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="F82" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="G82" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="J82" s="40"/>
+      <c r="K82" s="40"/>
+      <c r="L82" s="38" t="s">
+        <v>323</v>
+      </c>
+      <c r="M82" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" s="39">
+        <v>2035</v>
+      </c>
+      <c r="C83" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="D83" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="F83" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="G83" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="J83" s="40"/>
+      <c r="K83" s="40"/>
+      <c r="L83" s="38" t="s">
+        <v>324</v>
+      </c>
+      <c r="M83" s="38" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atapase\OneDrive - Metropolitan Transportation Commission\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BA5EA7-8EB6-47D1-A745-6D746096F82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476F8AA7-8B38-4177-BC84-F66B82267227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_runs" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="329">
   <si>
     <t>category</t>
   </si>
@@ -1014,6 +1014,15 @@
   </si>
   <si>
     <t>P8 30c flat tolls with NP07</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP07_Path8_01</t>
+  </si>
+  <si>
+    <t>P8 dynamic tolls with NP07</t>
+  </si>
+  <si>
+    <t>A:\\Projects\\2035_TM160_NGFr2_NP07_Path8_01</t>
   </si>
 </sst>
 </file>
@@ -1601,11 +1610,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M83"/>
+  <dimension ref="A1:T84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L88" sqref="L88"/>
+      <selection pane="bottomLeft" activeCell="L83" sqref="L83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4243,7 +4252,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="81" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="29" t="s">
         <v>13</v>
       </c>
@@ -4280,7 +4289,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="82" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="38" t="s">
         <v>13</v>
       </c>
@@ -4288,7 +4297,7 @@
         <v>2035</v>
       </c>
       <c r="C82" s="38" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="D82" s="38" t="s">
         <v>19</v>
@@ -4297,21 +4306,30 @@
         <v>319</v>
       </c>
       <c r="F82" s="38" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="G82" s="38" t="s">
         <v>31</v>
       </c>
+      <c r="H82" s="38"/>
+      <c r="I82" s="38"/>
       <c r="J82" s="40"/>
       <c r="K82" s="40"/>
       <c r="L82" s="38" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="M82" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+      <c r="N82" s="38"/>
+      <c r="O82" s="38"/>
+      <c r="P82" s="38"/>
+      <c r="Q82" s="38"/>
+      <c r="R82" s="38"/>
+      <c r="S82" s="38"/>
+      <c r="T82" s="38"/>
+    </row>
+    <row r="83" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="38" t="s">
         <v>13</v>
       </c>
@@ -4319,7 +4337,7 @@
         <v>2035</v>
       </c>
       <c r="C83" s="38" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D83" s="38" t="s">
         <v>19</v>
@@ -4328,7 +4346,7 @@
         <v>319</v>
       </c>
       <c r="F83" s="38" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G83" s="38" t="s">
         <v>31</v>
@@ -4336,9 +4354,40 @@
       <c r="J83" s="40"/>
       <c r="K83" s="40"/>
       <c r="L83" s="38" t="s">
+        <v>323</v>
+      </c>
+      <c r="M83" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" s="39">
+        <v>2035</v>
+      </c>
+      <c r="C84" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="D84" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E84" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="F84" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="G84" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="J84" s="40"/>
+      <c r="K84" s="40"/>
+      <c r="L84" s="38" t="s">
         <v>324</v>
       </c>
-      <c r="M83" s="38" t="s">
+      <c r="M84" s="38" t="s">
         <v>189</v>
       </c>
     </row>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atapase\OneDrive - Metropolitan Transportation Commission\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476F8AA7-8B38-4177-BC84-F66B82267227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D507D4C5-B762-448F-AA45-C920FCA669A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_runs" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="332">
   <si>
     <t>category</t>
   </si>
@@ -1023,6 +1023,15 @@
   </si>
   <si>
     <t>A:\\Projects\\2035_TM160_NGFr2_NP07_Path8_01</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP07_Path8_02</t>
+  </si>
+  <si>
+    <t>P8 dynamic tolls with NP07 with P5 Geographic scope</t>
+  </si>
+  <si>
+    <t>V:\\Projects\\2035_TM160_NGFr2_NP07_Path8_02</t>
   </si>
 </sst>
 </file>
@@ -1610,11 +1619,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T84"/>
+  <dimension ref="A1:T85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L83" sqref="L83"/>
+      <selection pane="bottomLeft" activeCell="L84" sqref="L84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4329,7 +4338,7 @@
       <c r="S82" s="38"/>
       <c r="T82" s="38"/>
     </row>
-    <row r="83" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="38" t="s">
         <v>13</v>
       </c>
@@ -4337,7 +4346,7 @@
         <v>2035</v>
       </c>
       <c r="C83" s="38" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="D83" s="38" t="s">
         <v>19</v>
@@ -4346,19 +4355,28 @@
         <v>319</v>
       </c>
       <c r="F83" s="38" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="G83" s="38" t="s">
         <v>31</v>
       </c>
+      <c r="H83" s="38"/>
+      <c r="I83" s="38"/>
       <c r="J83" s="40"/>
       <c r="K83" s="40"/>
       <c r="L83" s="38" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="M83" s="38" t="s">
-        <v>187</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="N83" s="38"/>
+      <c r="O83" s="38"/>
+      <c r="P83" s="38"/>
+      <c r="Q83" s="38"/>
+      <c r="R83" s="38"/>
+      <c r="S83" s="38"/>
+      <c r="T83" s="38"/>
     </row>
     <row r="84" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="38" t="s">
@@ -4368,7 +4386,7 @@
         <v>2035</v>
       </c>
       <c r="C84" s="38" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D84" s="38" t="s">
         <v>19</v>
@@ -4377,7 +4395,7 @@
         <v>319</v>
       </c>
       <c r="F84" s="38" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G84" s="38" t="s">
         <v>31</v>
@@ -4385,9 +4403,40 @@
       <c r="J84" s="40"/>
       <c r="K84" s="40"/>
       <c r="L84" s="38" t="s">
+        <v>323</v>
+      </c>
+      <c r="M84" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" s="39">
+        <v>2035</v>
+      </c>
+      <c r="C85" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="D85" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E85" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="F85" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="G85" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="J85" s="40"/>
+      <c r="K85" s="40"/>
+      <c r="L85" s="38" t="s">
         <v>324</v>
       </c>
-      <c r="M84" s="38" t="s">
+      <c r="M85" s="38" t="s">
         <v>189</v>
       </c>
     </row>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atapase\OneDrive - Metropolitan Transportation Commission\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D507D4C5-B762-448F-AA45-C920FCA669A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94063A61-B8B9-4B1B-8C90-D57BB7B194D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="335">
   <si>
     <t>category</t>
   </si>
@@ -1032,6 +1032,15 @@
   </si>
   <si>
     <t>V:\\Projects\\2035_TM160_NGFr2_NP07_Path8_02</t>
+  </si>
+  <si>
+    <t>2035_TM160_NGFr2_NP07_Path6A_01</t>
+  </si>
+  <si>
+    <t>P6 with NP07 without capacity expansion</t>
+  </si>
+  <si>
+    <t>V:\\Projects\\2035_TM160_NGFr2_NP07_Path6A_01</t>
   </si>
 </sst>
 </file>
@@ -1619,11 +1628,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T85"/>
+  <dimension ref="A1:T86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L84" sqref="L84"/>
+      <selection pane="bottomLeft" activeCell="L83" sqref="L83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4299,44 +4308,38 @@
       </c>
     </row>
     <row r="82" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B82" s="39">
-        <v>2035</v>
-      </c>
-      <c r="C82" s="38" t="s">
-        <v>326</v>
-      </c>
-      <c r="D82" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="E82" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="F82" s="38" t="s">
-        <v>327</v>
-      </c>
-      <c r="G82" s="38" t="s">
+      <c r="A82" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" s="30">
+        <v>2035</v>
+      </c>
+      <c r="C82" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="D82" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F82" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="G82" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="H82" s="38"/>
-      <c r="I82" s="38"/>
-      <c r="J82" s="40"/>
-      <c r="K82" s="40"/>
-      <c r="L82" s="38" t="s">
-        <v>328</v>
-      </c>
-      <c r="M82" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="N82" s="38"/>
-      <c r="O82" s="38"/>
-      <c r="P82" s="38"/>
-      <c r="Q82" s="38"/>
-      <c r="R82" s="38"/>
-      <c r="S82" s="38"/>
-      <c r="T82" s="38"/>
+      <c r="I82" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="J82" s="31"/>
+      <c r="K82" s="31"/>
+      <c r="L82" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="M82" s="29" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="83" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="38" t="s">
@@ -4346,7 +4349,7 @@
         <v>2035</v>
       </c>
       <c r="C83" s="38" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D83" s="38" t="s">
         <v>19</v>
@@ -4355,7 +4358,7 @@
         <v>319</v>
       </c>
       <c r="F83" s="38" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G83" s="38" t="s">
         <v>31</v>
@@ -4365,10 +4368,10 @@
       <c r="J83" s="40"/>
       <c r="K83" s="40"/>
       <c r="L83" s="38" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="M83" s="38" t="s">
-        <v>237</v>
+        <v>189</v>
       </c>
       <c r="N83" s="38"/>
       <c r="O83" s="38"/>
@@ -4378,7 +4381,7 @@
       <c r="S83" s="38"/>
       <c r="T83" s="38"/>
     </row>
-    <row r="84" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="38" t="s">
         <v>13</v>
       </c>
@@ -4386,7 +4389,7 @@
         <v>2035</v>
       </c>
       <c r="C84" s="38" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="D84" s="38" t="s">
         <v>19</v>
@@ -4395,19 +4398,28 @@
         <v>319</v>
       </c>
       <c r="F84" s="38" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="G84" s="38" t="s">
         <v>31</v>
       </c>
+      <c r="H84" s="38"/>
+      <c r="I84" s="38"/>
       <c r="J84" s="40"/>
       <c r="K84" s="40"/>
       <c r="L84" s="38" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="M84" s="38" t="s">
-        <v>187</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="N84" s="38"/>
+      <c r="O84" s="38"/>
+      <c r="P84" s="38"/>
+      <c r="Q84" s="38"/>
+      <c r="R84" s="38"/>
+      <c r="S84" s="38"/>
+      <c r="T84" s="38"/>
     </row>
     <row r="85" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="38" t="s">
@@ -4417,7 +4429,7 @@
         <v>2035</v>
       </c>
       <c r="C85" s="38" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D85" s="38" t="s">
         <v>19</v>
@@ -4426,7 +4438,7 @@
         <v>319</v>
       </c>
       <c r="F85" s="38" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G85" s="38" t="s">
         <v>31</v>
@@ -4434,9 +4446,40 @@
       <c r="J85" s="40"/>
       <c r="K85" s="40"/>
       <c r="L85" s="38" t="s">
+        <v>323</v>
+      </c>
+      <c r="M85" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86" s="39">
+        <v>2035</v>
+      </c>
+      <c r="C86" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="D86" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="F86" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="G86" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="J86" s="40"/>
+      <c r="K86" s="40"/>
+      <c r="L86" s="38" t="s">
         <v>324</v>
       </c>
-      <c r="M85" s="38" t="s">
+      <c r="M86" s="38" t="s">
         <v>189</v>
       </c>
     </row>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atapase\OneDrive - Metropolitan Transportation Commission\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94063A61-B8B9-4B1B-8C90-D57BB7B194D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA3FEF8-F62F-4878-9D03-76A0CFAE04EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="335">
   <si>
     <t>category</t>
   </si>
@@ -1630,9 +1630,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L83" sqref="L83"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2496,9 +2496,7 @@
       <c r="F26" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="G26" s="37" t="s">
-        <v>31</v>
-      </c>
+      <c r="G26" s="37"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="4" t="s">
@@ -3507,9 +3505,6 @@
       <c r="F58" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="G58" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="H58" s="7" t="s">
         <v>108</v>
       </c>
@@ -3544,9 +3539,6 @@
       <c r="F59" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="G59" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="I59" s="7" t="s">
         <v>318</v>
       </c>
@@ -3578,9 +3570,7 @@
       <c r="F60" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="G60" s="36" t="s">
-        <v>31</v>
-      </c>
+      <c r="G60" s="36"/>
       <c r="H60" s="7" t="s">
         <v>295</v>
       </c>
@@ -3915,9 +3905,6 @@
       <c r="F70" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="G70" s="15" t="s">
-        <v>31</v>
-      </c>
       <c r="H70" s="15" t="s">
         <v>119</v>
       </c>
@@ -4054,9 +4041,6 @@
       <c r="F74" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="G74" s="27" t="s">
-        <v>31</v>
-      </c>
       <c r="H74" s="27" t="s">
         <v>145</v>
       </c>
@@ -4289,9 +4273,6 @@
       <c r="F81" s="29" t="s">
         <v>289</v>
       </c>
-      <c r="G81" s="29" t="s">
-        <v>31</v>
-      </c>
       <c r="H81" s="29" t="s">
         <v>143</v>
       </c>
@@ -4325,9 +4306,6 @@
       </c>
       <c r="F82" s="29" t="s">
         <v>333</v>
-      </c>
-      <c r="G82" s="29" t="s">
-        <v>31</v>
       </c>
       <c r="I82" s="29" t="s">
         <v>291</v>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atapase\OneDrive - Metropolitan Transportation Commission\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA3FEF8-F62F-4878-9D03-76A0CFAE04EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB68E1A-F8B3-415F-AD43-2823D5E5D421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="335">
   <si>
     <t>category</t>
   </si>
@@ -1631,8 +1631,8 @@
   <dimension ref="A1:T86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G76" sqref="G76"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2496,7 +2496,9 @@
       <c r="F26" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="G26" s="37"/>
+      <c r="G26" s="37" t="s">
+        <v>31</v>
+      </c>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="4" t="s">
@@ -3505,6 +3507,9 @@
       <c r="F58" s="7" t="s">
         <v>266</v>
       </c>
+      <c r="G58" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="H58" s="7" t="s">
         <v>108</v>
       </c>
@@ -3539,6 +3544,9 @@
       <c r="F59" s="7" t="s">
         <v>317</v>
       </c>
+      <c r="G59" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="I59" s="7" t="s">
         <v>318</v>
       </c>
@@ -3570,7 +3578,9 @@
       <c r="F60" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="G60" s="36"/>
+      <c r="G60" s="36" t="s">
+        <v>31</v>
+      </c>
       <c r="H60" s="7" t="s">
         <v>295</v>
       </c>
@@ -3905,6 +3915,9 @@
       <c r="F70" s="15" t="s">
         <v>283</v>
       </c>
+      <c r="G70" s="15" t="s">
+        <v>31</v>
+      </c>
       <c r="H70" s="15" t="s">
         <v>119</v>
       </c>
@@ -4041,6 +4054,9 @@
       <c r="F74" s="25" t="s">
         <v>279</v>
       </c>
+      <c r="G74" s="27" t="s">
+        <v>31</v>
+      </c>
       <c r="H74" s="27" t="s">
         <v>145</v>
       </c>
@@ -4273,6 +4289,9 @@
       <c r="F81" s="29" t="s">
         <v>289</v>
       </c>
+      <c r="G81" s="29" t="s">
+        <v>31</v>
+      </c>
       <c r="H81" s="29" t="s">
         <v>143</v>
       </c>
@@ -4306,6 +4325,9 @@
       </c>
       <c r="F82" s="29" t="s">
         <v>333</v>
+      </c>
+      <c r="G82" s="29" t="s">
+        <v>31</v>
       </c>
       <c r="I82" s="29" t="s">
         <v>291</v>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atapase\OneDrive - Metropolitan Transportation Commission\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB68E1A-F8B3-415F-AD43-2823D5E5D421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343E23CD-77F6-4945-A389-CFB743896748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="335">
   <si>
     <t>category</t>
   </si>
@@ -1631,8 +1631,8 @@
   <dimension ref="A1:T86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F70" sqref="F70"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2427,9 +2427,6 @@
       <c r="F24" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="H24" s="4" t="s">
         <v>223</v>
       </c>
@@ -2496,9 +2493,7 @@
       <c r="F26" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="G26" s="37" t="s">
-        <v>31</v>
-      </c>
+      <c r="G26" s="37"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="4" t="s">
@@ -3544,9 +3539,6 @@
       <c r="F59" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="G59" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="I59" s="7" t="s">
         <v>318</v>
       </c>
@@ -3578,9 +3570,7 @@
       <c r="F60" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="G60" s="36" t="s">
-        <v>31</v>
-      </c>
+      <c r="G60" s="36"/>
       <c r="H60" s="7" t="s">
         <v>295</v>
       </c>
@@ -3685,9 +3675,7 @@
       <c r="F63" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="G63" s="36" t="s">
-        <v>31</v>
-      </c>
+      <c r="G63" s="36"/>
       <c r="H63" s="7" t="s">
         <v>295</v>
       </c>
@@ -3915,9 +3903,6 @@
       <c r="F70" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="G70" s="15" t="s">
-        <v>31</v>
-      </c>
       <c r="H70" s="15" t="s">
         <v>119</v>
       </c>
@@ -4054,9 +4039,6 @@
       <c r="F74" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="G74" s="27" t="s">
-        <v>31</v>
-      </c>
       <c r="H74" s="27" t="s">
         <v>145</v>
       </c>
@@ -4289,9 +4271,6 @@
       <c r="F81" s="29" t="s">
         <v>289</v>
       </c>
-      <c r="G81" s="29" t="s">
-        <v>31</v>
-      </c>
       <c r="H81" s="29" t="s">
         <v>143</v>
       </c>
@@ -4325,9 +4304,6 @@
       </c>
       <c r="F82" s="29" t="s">
         <v>333</v>
-      </c>
-      <c r="G82" s="29" t="s">
-        <v>31</v>
       </c>
       <c r="I82" s="29" t="s">
         <v>291</v>

--- a/utilities/NextGenFwys/ModelRuns_Round2.xlsx
+++ b/utilities/NextGenFwys/ModelRuns_Round2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atapase\OneDrive - Metropolitan Transportation Commission\Documents\GitHub\travel-model-one\utilities\NextGenFwys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343E23CD-77F6-4945-A389-CFB743896748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A9D3C6-7671-42FE-A4EB-78EA1274FE8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="335">
   <si>
     <t>category</t>
   </si>
@@ -1631,8 +1631,8 @@
   <dimension ref="A1:T86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G85" sqref="G85"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2427,6 +2427,9 @@
       <c r="F24" s="4" t="s">
         <v>184</v>
       </c>
+      <c r="G24" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="H24" s="4" t="s">
         <v>223</v>
       </c>
@@ -2493,7 +2496,9 @@
       <c r="F26" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="G26" s="37"/>
+      <c r="G26" s="37" t="s">
+        <v>31</v>
+      </c>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="4" t="s">
@@ -3539,6 +3544,9 @@
       <c r="F59" s="7" t="s">
         <v>317</v>
       </c>
+      <c r="G59" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="I59" s="7" t="s">
         <v>318</v>
       </c>
@@ -3570,7 +3578,9 @@
       <c r="F60" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="G60" s="36"/>
+      <c r="G60" s="36" t="s">
+        <v>31</v>
+      </c>
       <c r="H60" s="7" t="s">
         <v>295</v>
       </c>
@@ -3675,7 +3685,9 @@
       <c r="F63" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="G63" s="36"/>
+      <c r="G63" s="36" t="s">
+        <v>31</v>
+      </c>
       <c r="H63" s="7" t="s">
         <v>295</v>
       </c>
@@ -3903,6 +3915,9 @@
       <c r="F70" s="15" t="s">
         <v>283</v>
       </c>
+      <c r="G70" s="15" t="s">
+        <v>31</v>
+      </c>
       <c r="H70" s="15" t="s">
         <v>119</v>
       </c>
@@ -4039,6 +4054,9 @@
       <c r="F74" s="25" t="s">
         <v>279</v>
       </c>
+      <c r="G74" s="27" t="s">
+        <v>31</v>
+      </c>
       <c r="H74" s="27" t="s">
         <v>145</v>
       </c>
@@ -4271,6 +4289,9 @@
       <c r="F81" s="29" t="s">
         <v>289</v>
       </c>
+      <c r="G81" s="29" t="s">
+        <v>31</v>
+      </c>
       <c r="H81" s="29" t="s">
         <v>143</v>
       </c>
@@ -4304,6 +4325,9 @@
       </c>
       <c r="F82" s="29" t="s">
         <v>333</v>
+      </c>
+      <c r="G82" s="29" t="s">
+        <v>31</v>
       </c>
       <c r="I82" s="29" t="s">
         <v>291</v>
